--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8219480003425872</v>
+        <v>0.8219480003424735</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -427,22 +427,22 @@
         <v>2.026687732869632</v>
       </c>
       <c r="G2">
-        <v>1.63989732437183</v>
+        <v>1.639897324371802</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.07372939782672283</v>
+        <v>0.07372939782670862</v>
       </c>
       <c r="J2">
-        <v>2.348774145769767</v>
+        <v>2.348774145769738</v>
       </c>
       <c r="K2">
-        <v>0.8913713403176899</v>
+        <v>0.8913713403176615</v>
       </c>
       <c r="L2">
-        <v>1.075920533696483</v>
+        <v>1.075920533696475</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7140464921627085</v>
+        <v>0.7140464921628222</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02317224793597816</v>
+        <v>0.0231722479360883</v>
       </c>
       <c r="E3">
         <v>0.1237491847147147</v>
@@ -465,7 +465,7 @@
         <v>1.784498057144759</v>
       </c>
       <c r="G3">
-        <v>1.441382274003644</v>
+        <v>1.441382274003658</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0.07001315619123005</v>
       </c>
       <c r="J3">
-        <v>2.030143362312629</v>
+        <v>2.030143362312685</v>
       </c>
       <c r="K3">
-        <v>0.7684240051202522</v>
+        <v>0.7684240051202664</v>
       </c>
       <c r="L3">
-        <v>0.9283841293267585</v>
+        <v>0.9283841293267372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6487301767124336</v>
+        <v>0.6487301767124052</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,13 +497,13 @@
         <v>0.02067086818530584</v>
       </c>
       <c r="E4">
-        <v>0.1169022840041443</v>
+        <v>0.1169022840041336</v>
       </c>
       <c r="F4">
-        <v>1.642897903909443</v>
+        <v>1.642897903909457</v>
       </c>
       <c r="G4">
-        <v>1.325440610454081</v>
+        <v>1.325440610454066</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0.06775932742351998</v>
       </c>
       <c r="J4">
-        <v>1.836870428746806</v>
+        <v>1.836870428746778</v>
       </c>
       <c r="K4">
-        <v>0.6940463078188728</v>
+        <v>0.6940463078188799</v>
       </c>
       <c r="L4">
-        <v>0.8390937055549941</v>
+        <v>0.8390937055550083</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6223155016090232</v>
+        <v>0.622315501608881</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01969171450858553</v>
+        <v>0.01969171450867435</v>
       </c>
       <c r="E5">
-        <v>0.1141261874578987</v>
+        <v>0.1141261874579094</v>
       </c>
       <c r="F5">
         <v>1.586770248299942</v>
       </c>
       <c r="G5">
-        <v>1.279510469132319</v>
+        <v>1.27951046913229</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06684705257658763</v>
+        <v>0.06684705257659651</v>
       </c>
       <c r="J5">
-        <v>1.758591470870215</v>
+        <v>1.758591470870229</v>
       </c>
       <c r="K5">
-        <v>0.6639672008930333</v>
+        <v>0.6639672008930404</v>
       </c>
       <c r="L5">
-        <v>0.8029785728957322</v>
+        <v>0.8029785728957179</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6179406736416126</v>
+        <v>0.6179406736415842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01953137463009824</v>
+        <v>0.01953137463017995</v>
       </c>
       <c r="E6">
-        <v>0.1136659597189116</v>
+        <v>0.1136659597189009</v>
       </c>
       <c r="F6">
-        <v>1.577539690571712</v>
+        <v>1.577539690571697</v>
       </c>
       <c r="G6">
-        <v>1.271958479651971</v>
+        <v>1.271958479651985</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06669592075873965</v>
+        <v>0.06669592075872188</v>
       </c>
       <c r="J6">
         <v>1.745619279051752</v>
       </c>
       <c r="K6">
-        <v>0.6589851621556946</v>
+        <v>0.6589851621556733</v>
       </c>
       <c r="L6">
-        <v>0.7969965813602684</v>
+        <v>0.7969965813602826</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6483731616464752</v>
+        <v>0.648373161646532</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02065750847559755</v>
+        <v>0.0206575084754661</v>
       </c>
       <c r="E7">
-        <v>0.116864792612752</v>
+        <v>0.1168647926127626</v>
       </c>
       <c r="F7">
         <v>1.642134830600341</v>
       </c>
       <c r="G7">
-        <v>1.324816070374126</v>
+        <v>1.324816070374141</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06774700018028668</v>
+        <v>0.06774700018027779</v>
       </c>
       <c r="J7">
         <v>1.835812924248543</v>
@@ -632,7 +632,7 @@
         <v>0.6936397788964541</v>
       </c>
       <c r="L7">
-        <v>0.8386056135355844</v>
+        <v>0.8386056135355915</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7845284547835263</v>
+        <v>0.7845284547834694</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02599716816844477</v>
+        <v>0.02599716816835951</v>
       </c>
       <c r="E8">
         <v>0.131114855925837</v>
       </c>
       <c r="F8">
-        <v>1.941571758231021</v>
+        <v>1.941571758230992</v>
       </c>
       <c r="G8">
-        <v>1.570101397890113</v>
+        <v>1.570101397890099</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0724416785252977</v>
+        <v>0.07244167852532257</v>
       </c>
       <c r="J8">
-        <v>2.238346098623779</v>
+        <v>2.238346098623737</v>
       </c>
       <c r="K8">
-        <v>0.8487167468944961</v>
+        <v>0.8487167468944534</v>
       </c>
       <c r="L8">
-        <v>1.024745775691827</v>
+        <v>1.024745775691812</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.060637035860196</v>
+        <v>1.060637035860111</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03829146452831367</v>
+        <v>0.03829146452842025</v>
       </c>
       <c r="E9">
-        <v>0.1598502021586548</v>
+        <v>0.1598502021586441</v>
       </c>
       <c r="F9">
         <v>2.596017838424785</v>
       </c>
       <c r="G9">
-        <v>2.107496489264449</v>
+        <v>2.107496489264463</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08191667264041413</v>
+        <v>0.08191667264042479</v>
       </c>
       <c r="J9">
-        <v>3.052421277931941</v>
+        <v>3.052421277931984</v>
       </c>
       <c r="K9">
         <v>1.164208750533135</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.271744906897339</v>
+        <v>1.271744906897311</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04901244841571639</v>
+        <v>0.04901244841583718</v>
       </c>
       <c r="E10">
-        <v>0.1818157077835387</v>
+        <v>0.1818157077835636</v>
       </c>
       <c r="F10">
         <v>3.135538749087772</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08912305306960633</v>
+        <v>0.08912305306962409</v>
       </c>
       <c r="J10">
         <v>3.67528193057413</v>
@@ -746,7 +746,7 @@
         <v>1.407130066224852</v>
       </c>
       <c r="L10">
-        <v>1.693329653149448</v>
+        <v>1.693329653149419</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.370293922091832</v>
+        <v>1.370293922091889</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05441959723220435</v>
+        <v>0.05441959723218304</v>
       </c>
       <c r="E11">
         <v>0.1921008815270113</v>
       </c>
       <c r="F11">
-        <v>3.398587360448829</v>
+        <v>3.398587360448857</v>
       </c>
       <c r="G11">
-        <v>2.768618594208277</v>
+        <v>2.768618594208291</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09247838996467905</v>
+        <v>0.09247838996470747</v>
       </c>
       <c r="J11">
         <v>3.966679299944843</v>
       </c>
       <c r="K11">
-        <v>1.521208985058919</v>
+        <v>1.521208985058934</v>
       </c>
       <c r="L11">
         <v>1.829451364609881</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.408044863913801</v>
+        <v>1.408044863913915</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05656056010403887</v>
+        <v>0.05656056010393229</v>
       </c>
       <c r="E12">
-        <v>0.1960491201612697</v>
+        <v>0.1960491201612626</v>
       </c>
       <c r="F12">
         <v>3.50122858899914</v>
       </c>
       <c r="G12">
-        <v>2.85332155924695</v>
+        <v>2.853321559246936</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.09376258891850853</v>
+        <v>0.09376258891852274</v>
       </c>
       <c r="J12">
         <v>4.078454305814546</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.399894028822558</v>
+        <v>1.399894028822587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05609499924068473</v>
+        <v>0.05609499924054973</v>
       </c>
       <c r="E13">
-        <v>0.1951962105001499</v>
+        <v>0.1951962105000753</v>
       </c>
       <c r="F13">
-        <v>3.478979253675163</v>
+        <v>3.478979253675135</v>
       </c>
       <c r="G13">
         <v>2.834957863132843</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09348536235275162</v>
+        <v>0.09348536235275517</v>
       </c>
       <c r="J13">
         <v>4.054313132696507</v>
       </c>
       <c r="K13">
-        <v>1.555569279530488</v>
+        <v>1.555569279530474</v>
       </c>
       <c r="L13">
         <v>1.870413694628368</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.373390597467392</v>
+        <v>1.373390597467306</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05459375254920928</v>
+        <v>0.05459375254921639</v>
       </c>
       <c r="E14">
-        <v>0.1924245599805516</v>
+        <v>0.1924245599805587</v>
       </c>
       <c r="F14">
-        <v>3.406967799126477</v>
+        <v>3.406967799126505</v>
       </c>
       <c r="G14">
-        <v>2.775533170476933</v>
+        <v>2.775533170476947</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.092583752662172</v>
+        <v>0.09258375266217556</v>
       </c>
       <c r="J14">
         <v>3.975844721293186</v>
       </c>
       <c r="K14">
-        <v>1.524801516708024</v>
+        <v>1.524801516708038</v>
       </c>
       <c r="L14">
-        <v>1.833734997041006</v>
+        <v>1.83373499704102</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.357215116915256</v>
+        <v>1.357215116915398</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05368692885828352</v>
+        <v>0.05368692885839721</v>
       </c>
       <c r="E15">
-        <v>0.1907341861921878</v>
+        <v>0.1907341861922873</v>
       </c>
       <c r="F15">
         <v>3.363269698869829</v>
       </c>
       <c r="G15">
-        <v>2.739480951281465</v>
+        <v>2.73948095128145</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09203334686689146</v>
+        <v>0.09203334686691633</v>
       </c>
       <c r="J15">
-        <v>3.927975572762506</v>
+        <v>3.927975572762534</v>
       </c>
       <c r="K15">
-        <v>1.506041372073909</v>
+        <v>1.506041372073895</v>
       </c>
       <c r="L15">
-        <v>1.811363828697353</v>
+        <v>1.811363828697338</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265360910171495</v>
+        <v>1.265360910171637</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04867113395403067</v>
+        <v>0.04867113395413725</v>
       </c>
       <c r="E16">
         <v>0.1811503569176658</v>
       </c>
       <c r="F16">
-        <v>3.11874284922601</v>
+        <v>3.118742849226038</v>
       </c>
       <c r="G16">
-        <v>2.53785179375086</v>
+        <v>2.537851793750889</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08890552841575072</v>
+        <v>0.08890552841574717</v>
       </c>
       <c r="J16">
-        <v>3.656422551780992</v>
+        <v>3.65642255178102</v>
       </c>
       <c r="K16">
-        <v>1.399756160035352</v>
+        <v>1.399756160035366</v>
       </c>
       <c r="L16">
-        <v>1.684524621660657</v>
+        <v>1.684524621660671</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.209702461968391</v>
+        <v>1.209702461968419</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04574102996806317</v>
+        <v>0.04574102996820528</v>
       </c>
       <c r="E17">
         <v>0.175353349919515</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08700808822160333</v>
+        <v>0.08700808822159267</v>
       </c>
       <c r="J17">
         <v>3.492074304422658</v>
       </c>
       <c r="K17">
-        <v>1.335545502468449</v>
+        <v>1.335545502468406</v>
       </c>
       <c r="L17">
         <v>1.607821000259236</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.177921064664616</v>
+        <v>1.177921064664588</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04410439924041754</v>
+        <v>0.04410439924029674</v>
       </c>
       <c r="E18">
-        <v>0.172045833741798</v>
+        <v>0.1720458337418265</v>
       </c>
       <c r="F18">
         <v>2.891696979262321</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.08592381025701812</v>
+        <v>0.08592381025702167</v>
       </c>
       <c r="J18">
-        <v>3.398284887089602</v>
+        <v>3.398284887089616</v>
       </c>
       <c r="K18">
-        <v>1.298941386205684</v>
+        <v>1.298941386205669</v>
       </c>
       <c r="L18">
-        <v>1.564070912532571</v>
+        <v>1.564070912532557</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.167198273479983</v>
+        <v>1.167198273480125</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04355815882215808</v>
+        <v>0.04355815882214387</v>
       </c>
       <c r="E19">
-        <v>0.1709302561827144</v>
+        <v>0.1709302561827037</v>
       </c>
       <c r="F19">
-        <v>2.864240750372488</v>
+        <v>2.864240750372517</v>
       </c>
       <c r="G19">
         <v>2.328205634369638</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08555784030311386</v>
+        <v>0.08555784030311031</v>
       </c>
       <c r="J19">
         <v>3.366648915944296</v>
       </c>
       <c r="K19">
-        <v>1.28660099357144</v>
+        <v>1.286600993571497</v>
       </c>
       <c r="L19">
         <v>1.549317547275052</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04604779230509592</v>
+        <v>0.04604779230521672</v>
       </c>
       <c r="E20">
-        <v>0.1759676062800928</v>
+        <v>0.1759676062800537</v>
       </c>
       <c r="F20">
         <v>2.988854141192093</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.08720932478353483</v>
+        <v>0.08720932478356502</v>
       </c>
       <c r="J20">
         <v>3.509491130319105</v>
       </c>
       <c r="K20">
-        <v>1.342346093102449</v>
+        <v>1.342346093102464</v>
       </c>
       <c r="L20">
-        <v>1.615947317346084</v>
+        <v>1.615947317346098</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,31 +1140,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05503201560208737</v>
+        <v>0.05503201560244975</v>
       </c>
       <c r="E21">
-        <v>0.1932371069165661</v>
+        <v>0.1932371069166514</v>
       </c>
       <c r="F21">
-        <v>3.428032634685508</v>
+        <v>3.428032634685536</v>
       </c>
       <c r="G21">
-        <v>2.792914432836099</v>
+        <v>2.792914432836128</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09284818514196758</v>
+        <v>0.09284818514197823</v>
       </c>
       <c r="J21">
-        <v>3.9988515968152</v>
+        <v>3.998851596815115</v>
       </c>
       <c r="K21">
-        <v>1.533820591721266</v>
+        <v>1.533820591721309</v>
       </c>
       <c r="L21">
-        <v>1.844488238402747</v>
+        <v>1.844488238402775</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.491929196365447</v>
+        <v>1.491929196365334</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06145886832322134</v>
+        <v>0.06145886832333503</v>
       </c>
       <c r="E22">
-        <v>0.2048425911276723</v>
+        <v>0.2048425911276794</v>
       </c>
       <c r="F22">
-        <v>3.733028071644384</v>
+        <v>3.733028071644412</v>
       </c>
       <c r="G22">
         <v>3.044730545242217</v>
@@ -1196,13 +1196,13 @@
         <v>0.09661442012899357</v>
       </c>
       <c r="J22">
-        <v>4.32717209021979</v>
+        <v>4.327172090219761</v>
       </c>
       <c r="K22">
-        <v>1.662708430934572</v>
+        <v>1.6627084309346</v>
       </c>
       <c r="L22">
-        <v>1.998022119055889</v>
+        <v>1.998022119055904</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.432549997723441</v>
+        <v>1.43254999772347</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05797127266948365</v>
+        <v>0.05797127266959023</v>
       </c>
       <c r="E23">
-        <v>0.1986149079422184</v>
+        <v>0.1986149079422468</v>
       </c>
       <c r="F23">
-        <v>3.568412302444585</v>
+        <v>3.568412302444528</v>
       </c>
       <c r="G23">
         <v>2.908781616000908</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.09459591809396883</v>
+        <v>0.09459591809397239</v>
       </c>
       <c r="J23">
-        <v>4.151060510142145</v>
+        <v>4.151060510142116</v>
       </c>
       <c r="K23">
         <v>1.593530911037206</v>
       </c>
       <c r="L23">
-        <v>1.91564850292778</v>
+        <v>1.915648502927809</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1257,28 +1257,28 @@
         <v>0.04590895702064302</v>
       </c>
       <c r="E24">
-        <v>0.1756898231143822</v>
+        <v>0.1756898231144177</v>
       </c>
       <c r="F24">
-        <v>2.981940089836144</v>
+        <v>2.981940089836172</v>
       </c>
       <c r="G24">
-        <v>2.425133581617345</v>
+        <v>2.425133581617331</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08711832540098641</v>
+        <v>0.08711832540099174</v>
       </c>
       <c r="J24">
-        <v>3.501614833362623</v>
+        <v>3.501614833362567</v>
       </c>
       <c r="K24">
-        <v>1.3392705845188</v>
+        <v>1.339270584518815</v>
       </c>
       <c r="L24">
-        <v>1.612272335179554</v>
+        <v>1.61227233517954</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9847102590193799</v>
+        <v>0.9847102590194083</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03471673898381766</v>
+        <v>0.03471673898371819</v>
       </c>
       <c r="E25">
         <v>0.1519576198362671</v>
       </c>
       <c r="F25">
-        <v>2.410107429020925</v>
+        <v>2.410107429020869</v>
       </c>
       <c r="G25">
-        <v>1.95466960092277</v>
+        <v>1.954669600922799</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.07931722578433309</v>
+        <v>0.07931722578431355</v>
       </c>
       <c r="J25">
-        <v>2.828635333289071</v>
+        <v>2.828635333289128</v>
       </c>
       <c r="K25">
         <v>1.077247007421562</v>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8219480003424735</v>
+        <v>0.8219480003425872</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -427,22 +427,22 @@
         <v>2.026687732869632</v>
       </c>
       <c r="G2">
-        <v>1.639897324371802</v>
+        <v>1.63989732437183</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.07372939782670862</v>
+        <v>0.07372939782672283</v>
       </c>
       <c r="J2">
-        <v>2.348774145769738</v>
+        <v>2.348774145769767</v>
       </c>
       <c r="K2">
-        <v>0.8913713403176615</v>
+        <v>0.8913713403176899</v>
       </c>
       <c r="L2">
-        <v>1.075920533696475</v>
+        <v>1.075920533696483</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7140464921628222</v>
+        <v>0.7140464921627085</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0231722479360883</v>
+        <v>0.02317224793597816</v>
       </c>
       <c r="E3">
         <v>0.1237491847147147</v>
@@ -465,7 +465,7 @@
         <v>1.784498057144759</v>
       </c>
       <c r="G3">
-        <v>1.441382274003658</v>
+        <v>1.441382274003644</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0.07001315619123005</v>
       </c>
       <c r="J3">
-        <v>2.030143362312685</v>
+        <v>2.030143362312629</v>
       </c>
       <c r="K3">
-        <v>0.7684240051202664</v>
+        <v>0.7684240051202522</v>
       </c>
       <c r="L3">
-        <v>0.9283841293267372</v>
+        <v>0.9283841293267585</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6487301767124052</v>
+        <v>0.6487301767124336</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,13 +497,13 @@
         <v>0.02067086818530584</v>
       </c>
       <c r="E4">
-        <v>0.1169022840041336</v>
+        <v>0.1169022840041443</v>
       </c>
       <c r="F4">
-        <v>1.642897903909457</v>
+        <v>1.642897903909443</v>
       </c>
       <c r="G4">
-        <v>1.325440610454066</v>
+        <v>1.325440610454081</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0.06775932742351998</v>
       </c>
       <c r="J4">
-        <v>1.836870428746778</v>
+        <v>1.836870428746806</v>
       </c>
       <c r="K4">
-        <v>0.6940463078188799</v>
+        <v>0.6940463078188728</v>
       </c>
       <c r="L4">
-        <v>0.8390937055550083</v>
+        <v>0.8390937055549941</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.622315501608881</v>
+        <v>0.6223155016090232</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01969171450867435</v>
+        <v>0.01969171450858553</v>
       </c>
       <c r="E5">
-        <v>0.1141261874579094</v>
+        <v>0.1141261874578987</v>
       </c>
       <c r="F5">
         <v>1.586770248299942</v>
       </c>
       <c r="G5">
-        <v>1.27951046913229</v>
+        <v>1.279510469132319</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06684705257659651</v>
+        <v>0.06684705257658763</v>
       </c>
       <c r="J5">
-        <v>1.758591470870229</v>
+        <v>1.758591470870215</v>
       </c>
       <c r="K5">
-        <v>0.6639672008930404</v>
+        <v>0.6639672008930333</v>
       </c>
       <c r="L5">
-        <v>0.8029785728957179</v>
+        <v>0.8029785728957322</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6179406736415842</v>
+        <v>0.6179406736416126</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01953137463017995</v>
+        <v>0.01953137463009824</v>
       </c>
       <c r="E6">
-        <v>0.1136659597189009</v>
+        <v>0.1136659597189116</v>
       </c>
       <c r="F6">
-        <v>1.577539690571697</v>
+        <v>1.577539690571712</v>
       </c>
       <c r="G6">
-        <v>1.271958479651985</v>
+        <v>1.271958479651971</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06669592075872188</v>
+        <v>0.06669592075873965</v>
       </c>
       <c r="J6">
         <v>1.745619279051752</v>
       </c>
       <c r="K6">
-        <v>0.6589851621556733</v>
+        <v>0.6589851621556946</v>
       </c>
       <c r="L6">
-        <v>0.7969965813602826</v>
+        <v>0.7969965813602684</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.648373161646532</v>
+        <v>0.6483731616464752</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0206575084754661</v>
+        <v>0.02065750847559755</v>
       </c>
       <c r="E7">
-        <v>0.1168647926127626</v>
+        <v>0.116864792612752</v>
       </c>
       <c r="F7">
         <v>1.642134830600341</v>
       </c>
       <c r="G7">
-        <v>1.324816070374141</v>
+        <v>1.324816070374126</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06774700018027779</v>
+        <v>0.06774700018028668</v>
       </c>
       <c r="J7">
         <v>1.835812924248543</v>
@@ -632,7 +632,7 @@
         <v>0.6936397788964541</v>
       </c>
       <c r="L7">
-        <v>0.8386056135355915</v>
+        <v>0.8386056135355844</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7845284547834694</v>
+        <v>0.7845284547835263</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02599716816835951</v>
+        <v>0.02599716816844477</v>
       </c>
       <c r="E8">
         <v>0.131114855925837</v>
       </c>
       <c r="F8">
-        <v>1.941571758230992</v>
+        <v>1.941571758231021</v>
       </c>
       <c r="G8">
-        <v>1.570101397890099</v>
+        <v>1.570101397890113</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07244167852532257</v>
+        <v>0.0724416785252977</v>
       </c>
       <c r="J8">
-        <v>2.238346098623737</v>
+        <v>2.238346098623779</v>
       </c>
       <c r="K8">
-        <v>0.8487167468944534</v>
+        <v>0.8487167468944961</v>
       </c>
       <c r="L8">
-        <v>1.024745775691812</v>
+        <v>1.024745775691827</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.060637035860111</v>
+        <v>1.060637035860196</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03829146452842025</v>
+        <v>0.03829146452831367</v>
       </c>
       <c r="E9">
-        <v>0.1598502021586441</v>
+        <v>0.1598502021586548</v>
       </c>
       <c r="F9">
         <v>2.596017838424785</v>
       </c>
       <c r="G9">
-        <v>2.107496489264463</v>
+        <v>2.107496489264449</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08191667264042479</v>
+        <v>0.08191667264041413</v>
       </c>
       <c r="J9">
-        <v>3.052421277931984</v>
+        <v>3.052421277931941</v>
       </c>
       <c r="K9">
         <v>1.164208750533135</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.271744906897311</v>
+        <v>1.271744906897339</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04901244841583718</v>
+        <v>0.04901244841571639</v>
       </c>
       <c r="E10">
-        <v>0.1818157077835636</v>
+        <v>0.1818157077835387</v>
       </c>
       <c r="F10">
         <v>3.135538749087772</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08912305306962409</v>
+        <v>0.08912305306960633</v>
       </c>
       <c r="J10">
         <v>3.67528193057413</v>
@@ -746,7 +746,7 @@
         <v>1.407130066224852</v>
       </c>
       <c r="L10">
-        <v>1.693329653149419</v>
+        <v>1.693329653149448</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.370293922091889</v>
+        <v>1.370293922091832</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05441959723218304</v>
+        <v>0.05441959723220435</v>
       </c>
       <c r="E11">
         <v>0.1921008815270113</v>
       </c>
       <c r="F11">
-        <v>3.398587360448857</v>
+        <v>3.398587360448829</v>
       </c>
       <c r="G11">
-        <v>2.768618594208291</v>
+        <v>2.768618594208277</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09247838996470747</v>
+        <v>0.09247838996467905</v>
       </c>
       <c r="J11">
         <v>3.966679299944843</v>
       </c>
       <c r="K11">
-        <v>1.521208985058934</v>
+        <v>1.521208985058919</v>
       </c>
       <c r="L11">
         <v>1.829451364609881</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.408044863913915</v>
+        <v>1.408044863913801</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05656056010393229</v>
+        <v>0.05656056010403887</v>
       </c>
       <c r="E12">
-        <v>0.1960491201612626</v>
+        <v>0.1960491201612697</v>
       </c>
       <c r="F12">
         <v>3.50122858899914</v>
       </c>
       <c r="G12">
-        <v>2.853321559246936</v>
+        <v>2.85332155924695</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.09376258891852274</v>
+        <v>0.09376258891850853</v>
       </c>
       <c r="J12">
         <v>4.078454305814546</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.399894028822587</v>
+        <v>1.399894028822558</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05609499924054973</v>
+        <v>0.05609499924068473</v>
       </c>
       <c r="E13">
-        <v>0.1951962105000753</v>
+        <v>0.1951962105001499</v>
       </c>
       <c r="F13">
-        <v>3.478979253675135</v>
+        <v>3.478979253675163</v>
       </c>
       <c r="G13">
         <v>2.834957863132843</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09348536235275517</v>
+        <v>0.09348536235275162</v>
       </c>
       <c r="J13">
         <v>4.054313132696507</v>
       </c>
       <c r="K13">
-        <v>1.555569279530474</v>
+        <v>1.555569279530488</v>
       </c>
       <c r="L13">
         <v>1.870413694628368</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.373390597467306</v>
+        <v>1.373390597467392</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05459375254921639</v>
+        <v>0.05459375254920928</v>
       </c>
       <c r="E14">
-        <v>0.1924245599805587</v>
+        <v>0.1924245599805516</v>
       </c>
       <c r="F14">
-        <v>3.406967799126505</v>
+        <v>3.406967799126477</v>
       </c>
       <c r="G14">
-        <v>2.775533170476947</v>
+        <v>2.775533170476933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.09258375266217556</v>
+        <v>0.092583752662172</v>
       </c>
       <c r="J14">
         <v>3.975844721293186</v>
       </c>
       <c r="K14">
-        <v>1.524801516708038</v>
+        <v>1.524801516708024</v>
       </c>
       <c r="L14">
-        <v>1.83373499704102</v>
+        <v>1.833734997041006</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.357215116915398</v>
+        <v>1.357215116915256</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05368692885839721</v>
+        <v>0.05368692885828352</v>
       </c>
       <c r="E15">
-        <v>0.1907341861922873</v>
+        <v>0.1907341861921878</v>
       </c>
       <c r="F15">
         <v>3.363269698869829</v>
       </c>
       <c r="G15">
-        <v>2.73948095128145</v>
+        <v>2.739480951281465</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09203334686691633</v>
+        <v>0.09203334686689146</v>
       </c>
       <c r="J15">
-        <v>3.927975572762534</v>
+        <v>3.927975572762506</v>
       </c>
       <c r="K15">
-        <v>1.506041372073895</v>
+        <v>1.506041372073909</v>
       </c>
       <c r="L15">
-        <v>1.811363828697338</v>
+        <v>1.811363828697353</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265360910171637</v>
+        <v>1.265360910171495</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04867113395413725</v>
+        <v>0.04867113395403067</v>
       </c>
       <c r="E16">
         <v>0.1811503569176658</v>
       </c>
       <c r="F16">
-        <v>3.118742849226038</v>
+        <v>3.11874284922601</v>
       </c>
       <c r="G16">
-        <v>2.537851793750889</v>
+        <v>2.53785179375086</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08890552841574717</v>
+        <v>0.08890552841575072</v>
       </c>
       <c r="J16">
-        <v>3.65642255178102</v>
+        <v>3.656422551780992</v>
       </c>
       <c r="K16">
-        <v>1.399756160035366</v>
+        <v>1.399756160035352</v>
       </c>
       <c r="L16">
-        <v>1.684524621660671</v>
+        <v>1.684524621660657</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.209702461968419</v>
+        <v>1.209702461968391</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04574102996820528</v>
+        <v>0.04574102996806317</v>
       </c>
       <c r="E17">
         <v>0.175353349919515</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08700808822159267</v>
+        <v>0.08700808822160333</v>
       </c>
       <c r="J17">
         <v>3.492074304422658</v>
       </c>
       <c r="K17">
-        <v>1.335545502468406</v>
+        <v>1.335545502468449</v>
       </c>
       <c r="L17">
         <v>1.607821000259236</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.177921064664588</v>
+        <v>1.177921064664616</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04410439924029674</v>
+        <v>0.04410439924041754</v>
       </c>
       <c r="E18">
-        <v>0.1720458337418265</v>
+        <v>0.172045833741798</v>
       </c>
       <c r="F18">
         <v>2.891696979262321</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.08592381025702167</v>
+        <v>0.08592381025701812</v>
       </c>
       <c r="J18">
-        <v>3.398284887089616</v>
+        <v>3.398284887089602</v>
       </c>
       <c r="K18">
-        <v>1.298941386205669</v>
+        <v>1.298941386205684</v>
       </c>
       <c r="L18">
-        <v>1.564070912532557</v>
+        <v>1.564070912532571</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.167198273480125</v>
+        <v>1.167198273479983</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04355815882214387</v>
+        <v>0.04355815882215808</v>
       </c>
       <c r="E19">
-        <v>0.1709302561827037</v>
+        <v>0.1709302561827144</v>
       </c>
       <c r="F19">
-        <v>2.864240750372517</v>
+        <v>2.864240750372488</v>
       </c>
       <c r="G19">
         <v>2.328205634369638</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08555784030311031</v>
+        <v>0.08555784030311386</v>
       </c>
       <c r="J19">
         <v>3.366648915944296</v>
       </c>
       <c r="K19">
-        <v>1.286600993571497</v>
+        <v>1.28660099357144</v>
       </c>
       <c r="L19">
         <v>1.549317547275052</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04604779230521672</v>
+        <v>0.04604779230509592</v>
       </c>
       <c r="E20">
-        <v>0.1759676062800537</v>
+        <v>0.1759676062800928</v>
       </c>
       <c r="F20">
         <v>2.988854141192093</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.08720932478356502</v>
+        <v>0.08720932478353483</v>
       </c>
       <c r="J20">
         <v>3.509491130319105</v>
       </c>
       <c r="K20">
-        <v>1.342346093102464</v>
+        <v>1.342346093102449</v>
       </c>
       <c r="L20">
-        <v>1.615947317346098</v>
+        <v>1.615947317346084</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,31 +1140,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05503201560244975</v>
+        <v>0.05503201560208737</v>
       </c>
       <c r="E21">
-        <v>0.1932371069166514</v>
+        <v>0.1932371069165661</v>
       </c>
       <c r="F21">
-        <v>3.428032634685536</v>
+        <v>3.428032634685508</v>
       </c>
       <c r="G21">
-        <v>2.792914432836128</v>
+        <v>2.792914432836099</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09284818514197823</v>
+        <v>0.09284818514196758</v>
       </c>
       <c r="J21">
-        <v>3.998851596815115</v>
+        <v>3.9988515968152</v>
       </c>
       <c r="K21">
-        <v>1.533820591721309</v>
+        <v>1.533820591721266</v>
       </c>
       <c r="L21">
-        <v>1.844488238402775</v>
+        <v>1.844488238402747</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.491929196365334</v>
+        <v>1.491929196365447</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06145886832333503</v>
+        <v>0.06145886832322134</v>
       </c>
       <c r="E22">
-        <v>0.2048425911276794</v>
+        <v>0.2048425911276723</v>
       </c>
       <c r="F22">
-        <v>3.733028071644412</v>
+        <v>3.733028071644384</v>
       </c>
       <c r="G22">
         <v>3.044730545242217</v>
@@ -1196,13 +1196,13 @@
         <v>0.09661442012899357</v>
       </c>
       <c r="J22">
-        <v>4.327172090219761</v>
+        <v>4.32717209021979</v>
       </c>
       <c r="K22">
-        <v>1.6627084309346</v>
+        <v>1.662708430934572</v>
       </c>
       <c r="L22">
-        <v>1.998022119055904</v>
+        <v>1.998022119055889</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.43254999772347</v>
+        <v>1.432549997723441</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05797127266959023</v>
+        <v>0.05797127266948365</v>
       </c>
       <c r="E23">
-        <v>0.1986149079422468</v>
+        <v>0.1986149079422184</v>
       </c>
       <c r="F23">
-        <v>3.568412302444528</v>
+        <v>3.568412302444585</v>
       </c>
       <c r="G23">
         <v>2.908781616000908</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.09459591809397239</v>
+        <v>0.09459591809396883</v>
       </c>
       <c r="J23">
-        <v>4.151060510142116</v>
+        <v>4.151060510142145</v>
       </c>
       <c r="K23">
         <v>1.593530911037206</v>
       </c>
       <c r="L23">
-        <v>1.915648502927809</v>
+        <v>1.91564850292778</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1257,28 +1257,28 @@
         <v>0.04590895702064302</v>
       </c>
       <c r="E24">
-        <v>0.1756898231144177</v>
+        <v>0.1756898231143822</v>
       </c>
       <c r="F24">
-        <v>2.981940089836172</v>
+        <v>2.981940089836144</v>
       </c>
       <c r="G24">
-        <v>2.425133581617331</v>
+        <v>2.425133581617345</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08711832540099174</v>
+        <v>0.08711832540098641</v>
       </c>
       <c r="J24">
-        <v>3.501614833362567</v>
+        <v>3.501614833362623</v>
       </c>
       <c r="K24">
-        <v>1.339270584518815</v>
+        <v>1.3392705845188</v>
       </c>
       <c r="L24">
-        <v>1.61227233517954</v>
+        <v>1.612272335179554</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9847102590194083</v>
+        <v>0.9847102590193799</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03471673898371819</v>
+        <v>0.03471673898381766</v>
       </c>
       <c r="E25">
         <v>0.1519576198362671</v>
       </c>
       <c r="F25">
-        <v>2.410107429020869</v>
+        <v>2.410107429020925</v>
       </c>
       <c r="G25">
-        <v>1.954669600922799</v>
+        <v>1.95466960092277</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.07931722578431355</v>
+        <v>0.07931722578433309</v>
       </c>
       <c r="J25">
-        <v>2.828635333289128</v>
+        <v>2.828635333289071</v>
       </c>
       <c r="K25">
         <v>1.077247007421562</v>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8219480003425872</v>
+        <v>0.8219475959158729</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02754919986726634</v>
+        <v>0.02736930558790363</v>
       </c>
       <c r="E2">
-        <v>0.135017923437811</v>
+        <v>0.1349220680830321</v>
       </c>
       <c r="F2">
-        <v>2.026687732869632</v>
+        <v>2.022433029059641</v>
       </c>
       <c r="G2">
-        <v>1.63989732437183</v>
+        <v>0.5367606188089269</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.10261245527154</v>
       </c>
       <c r="I2">
-        <v>0.07372939782672283</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.348774145769767</v>
+        <v>0.07373598780588075</v>
       </c>
       <c r="K2">
-        <v>0.8913713403176899</v>
+        <v>2.348412883003263</v>
       </c>
       <c r="L2">
-        <v>1.075920533696483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.8913349978548126</v>
+      </c>
+      <c r="M2">
+        <v>1.075895745937338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7140464921627085</v>
+        <v>0.7140519766390128</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02317224793597816</v>
+        <v>0.02301771986776302</v>
       </c>
       <c r="E3">
-        <v>0.1237491847147147</v>
+        <v>0.1236738956983352</v>
       </c>
       <c r="F3">
-        <v>1.784498057144759</v>
+        <v>1.780792284642459</v>
       </c>
       <c r="G3">
-        <v>1.441382274003644</v>
+        <v>0.4669419961100374</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9746096915495031</v>
       </c>
       <c r="I3">
-        <v>0.07001315619123005</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.030143362312629</v>
+        <v>0.07002130237704129</v>
       </c>
       <c r="K3">
-        <v>0.7684240051202522</v>
+        <v>2.029877270631815</v>
       </c>
       <c r="L3">
-        <v>0.9283841293267585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.7684086540712372</v>
+      </c>
+      <c r="M3">
+        <v>0.9283781520261343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6487301767124336</v>
+        <v>0.6487380422174169</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02067086818530584</v>
+        <v>0.02053110097841326</v>
       </c>
       <c r="E4">
-        <v>0.1169022840041443</v>
+        <v>0.1168394019666366</v>
       </c>
       <c r="F4">
-        <v>1.642897903909443</v>
+        <v>1.639514778423404</v>
       </c>
       <c r="G4">
-        <v>1.325440610454081</v>
+        <v>0.4260100311088593</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9000088982079859</v>
       </c>
       <c r="I4">
-        <v>0.06775932742351998</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.836870428746806</v>
+        <v>0.06776848238853894</v>
       </c>
       <c r="K4">
-        <v>0.6940463078188728</v>
+        <v>1.836656453113577</v>
       </c>
       <c r="L4">
-        <v>0.8390937055549941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.6940413743034526</v>
+      </c>
+      <c r="M4">
+        <v>0.8390966807301155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6223155016090232</v>
+        <v>0.6223240711363189</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01969171450858553</v>
+        <v>0.01955778863436208</v>
       </c>
       <c r="E5">
-        <v>0.1141261874578987</v>
+        <v>0.1140683267668408</v>
       </c>
       <c r="F5">
-        <v>1.586770248299942</v>
+        <v>1.583515554164208</v>
       </c>
       <c r="G5">
-        <v>1.279510469132319</v>
+        <v>0.4097565522840085</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8704952529845116</v>
       </c>
       <c r="I5">
-        <v>0.06684705257658763</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.758591470870215</v>
+        <v>0.06685663549263943</v>
       </c>
       <c r="K5">
-        <v>0.6639672008930333</v>
+        <v>1.758397402290711</v>
       </c>
       <c r="L5">
-        <v>0.8029785728957322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6639659886852129</v>
+      </c>
+      <c r="M5">
+        <v>0.8029846421415741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6179406736416126</v>
+        <v>0.617949345163737</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01953137463009824</v>
+        <v>0.01939840903227719</v>
       </c>
       <c r="E6">
-        <v>0.1136659597189116</v>
+        <v>0.1136089312852597</v>
       </c>
       <c r="F6">
-        <v>1.577539690571712</v>
+        <v>1.57430615339517</v>
       </c>
       <c r="G6">
-        <v>1.271958479651971</v>
+        <v>0.4070817929060269</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8656448912101951</v>
       </c>
       <c r="I6">
-        <v>0.06669592075873965</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.745619279051752</v>
+        <v>0.0667055758452797</v>
       </c>
       <c r="K6">
-        <v>0.6589851621556946</v>
+        <v>1.74542844252241</v>
       </c>
       <c r="L6">
-        <v>0.7969965813602684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6589845388086601</v>
+      </c>
+      <c r="M6">
+        <v>0.7970031335296994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6483731616464752</v>
+        <v>0.648381037670589</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02065750847559755</v>
+        <v>0.02051782071300323</v>
       </c>
       <c r="E7">
-        <v>0.116864792612752</v>
+        <v>0.1168019784094625</v>
       </c>
       <c r="F7">
-        <v>1.642134830600341</v>
+        <v>1.638753448834962</v>
       </c>
       <c r="G7">
-        <v>1.324816070374126</v>
+        <v>0.425789178932618</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.899607422635313</v>
       </c>
       <c r="I7">
-        <v>0.06774700018028668</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.835812924248543</v>
+        <v>0.06775616084434866</v>
       </c>
       <c r="K7">
-        <v>0.6936397788964541</v>
+        <v>1.835599222161619</v>
       </c>
       <c r="L7">
-        <v>0.8386056135355844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.6936348975706537</v>
+      </c>
+      <c r="M7">
+        <v>0.8386086325616944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7845284547835263</v>
+        <v>0.7845303658725413</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02599716816844477</v>
+        <v>0.02582620905361921</v>
       </c>
       <c r="E8">
-        <v>0.131114855925837</v>
+        <v>0.131026151273371</v>
       </c>
       <c r="F8">
-        <v>1.941571758231021</v>
+        <v>1.937509683881672</v>
       </c>
       <c r="G8">
-        <v>1.570101397890113</v>
+        <v>0.5122466972104434</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.057573581936268</v>
       </c>
       <c r="I8">
-        <v>0.0724416785252977</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2.238346098623779</v>
+        <v>0.07244879630959034</v>
       </c>
       <c r="K8">
-        <v>0.8487167468944961</v>
+        <v>2.238019130222312</v>
       </c>
       <c r="L8">
-        <v>1.024745775691827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.8486882186276432</v>
+      </c>
+      <c r="M8">
+        <v>1.024728077197828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.060637035860196</v>
+        <v>1.060615043594936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03829146452831367</v>
+        <v>0.03805106894518673</v>
       </c>
       <c r="E9">
-        <v>0.1598502021586548</v>
+        <v>0.1597078356982315</v>
       </c>
       <c r="F9">
-        <v>2.596017838424785</v>
+        <v>2.590475899205586</v>
       </c>
       <c r="G9">
-        <v>2.107496489264449</v>
+        <v>0.7002734407485036</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.405082016845896</v>
       </c>
       <c r="I9">
-        <v>0.08191667264041413</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3.052421277931941</v>
+        <v>0.081920012777422</v>
       </c>
       <c r="K9">
-        <v>1.164208750533135</v>
+        <v>3.051808006405707</v>
       </c>
       <c r="L9">
-        <v>1.402893600856345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.1641089138609</v>
+      </c>
+      <c r="M9">
+        <v>1.402809265089374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.271744906897339</v>
+        <v>1.271693704766079</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04901244841571639</v>
+        <v>0.04871325803150484</v>
       </c>
       <c r="E10">
-        <v>0.1818157077835387</v>
+        <v>0.1816301696641034</v>
       </c>
       <c r="F10">
-        <v>3.135538749087772</v>
+        <v>3.128768052005199</v>
       </c>
       <c r="G10">
-        <v>2.551694975056492</v>
+        <v>0.8547605803740339</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.693263102900644</v>
       </c>
       <c r="I10">
-        <v>0.08912305306960633</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3.67528193057413</v>
+        <v>0.08912340670626051</v>
       </c>
       <c r="K10">
-        <v>1.407130066224852</v>
+        <v>3.674394693372335</v>
       </c>
       <c r="L10">
-        <v>1.693329653149448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.406953289341473</v>
+      </c>
+      <c r="M10">
+        <v>1.693171036075981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.370293922091832</v>
+        <v>1.370225629378183</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05441959723220435</v>
+        <v>0.05409113362886586</v>
       </c>
       <c r="E11">
-        <v>0.1921008815270113</v>
+        <v>0.1918942918921047</v>
       </c>
       <c r="F11">
-        <v>3.398587360448829</v>
+        <v>3.391211153550387</v>
       </c>
       <c r="G11">
-        <v>2.768618594208277</v>
+        <v>0.9299853317362619</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.834212720238838</v>
       </c>
       <c r="I11">
-        <v>0.09247838996467905</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.966679299944843</v>
+        <v>0.0924772286865263</v>
       </c>
       <c r="K11">
-        <v>1.521208985058919</v>
+        <v>3.965646219973735</v>
       </c>
       <c r="L11">
-        <v>1.829451364609881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.520989029819333</v>
+      </c>
+      <c r="M11">
+        <v>1.829250579339316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.408044863913801</v>
+        <v>1.407969410520025</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05656056010403887</v>
+        <v>0.05622055651883784</v>
       </c>
       <c r="E12">
-        <v>0.1960491201612697</v>
+        <v>0.1958342892234874</v>
       </c>
       <c r="F12">
-        <v>3.50122858899914</v>
+        <v>3.493614661541528</v>
       </c>
       <c r="G12">
-        <v>2.85332155924695</v>
+        <v>0.959325678120166</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.889282077575189</v>
       </c>
       <c r="I12">
-        <v>0.09376258891850853</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.078454305814546</v>
+        <v>0.09376081876806097</v>
       </c>
       <c r="K12">
-        <v>1.565039019352696</v>
+        <v>4.077362124210794</v>
       </c>
       <c r="L12">
-        <v>1.88169983357102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.564801218434042</v>
+      </c>
+      <c r="M12">
+        <v>1.881481553339157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.399894028822558</v>
+        <v>1.399820150914593</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05609499924068473</v>
+        <v>0.05575750293020576</v>
       </c>
       <c r="E13">
-        <v>0.1951962105001499</v>
+        <v>0.1949831677100278</v>
       </c>
       <c r="F13">
-        <v>3.478979253675163</v>
+        <v>3.471416930784841</v>
       </c>
       <c r="G13">
-        <v>2.834957863132843</v>
+        <v>0.9529661422380968</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.877341535700651</v>
       </c>
       <c r="I13">
-        <v>0.09348536235275162</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.054313132696507</v>
+        <v>0.09348372514270409</v>
       </c>
       <c r="K13">
-        <v>1.555569279530488</v>
+        <v>4.053233867463263</v>
       </c>
       <c r="L13">
-        <v>1.870413694628368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.555335394499522</v>
+      </c>
+      <c r="M13">
+        <v>1.870199256220388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.373390597467392</v>
+        <v>1.373321730393315</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05459375254920928</v>
+        <v>0.05426434926553014</v>
       </c>
       <c r="E14">
-        <v>0.1924245599805516</v>
+        <v>0.1922172981738832</v>
       </c>
       <c r="F14">
-        <v>3.406967799126477</v>
+        <v>3.399572215214221</v>
       </c>
       <c r="G14">
-        <v>2.775533170476933</v>
+        <v>0.9323811414358687</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.838707563641677</v>
       </c>
       <c r="I14">
-        <v>0.092583752662172</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3.975844721293186</v>
+        <v>0.09258254208352668</v>
       </c>
       <c r="K14">
-        <v>1.524801516708024</v>
+        <v>3.974806862132681</v>
       </c>
       <c r="L14">
-        <v>1.833734997041006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.524580125389363</v>
+      </c>
+      <c r="M14">
+        <v>1.833532805202211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.357215116915256</v>
+        <v>1.357149224564552</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05368692885828352</v>
+        <v>0.05336242045313355</v>
       </c>
       <c r="E15">
-        <v>0.1907341861921878</v>
+        <v>0.1905304280344176</v>
       </c>
       <c r="F15">
-        <v>3.363269698869829</v>
+        <v>3.355975091018109</v>
       </c>
       <c r="G15">
-        <v>2.739480951281465</v>
+        <v>0.919888198737695</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.815272990524562</v>
       </c>
       <c r="I15">
-        <v>0.09203334686689146</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3.927975572762506</v>
+        <v>0.09203239258685869</v>
       </c>
       <c r="K15">
-        <v>1.506041372073909</v>
+        <v>3.926962543374373</v>
       </c>
       <c r="L15">
-        <v>1.811363828697353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.505827427906013</v>
+      </c>
+      <c r="M15">
+        <v>1.81116892838395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265360910171495</v>
+        <v>1.265310737099725</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04867113395403067</v>
+        <v>0.04837379846733825</v>
       </c>
       <c r="E16">
-        <v>0.1811503569176658</v>
+        <v>0.1809661608395494</v>
       </c>
       <c r="F16">
-        <v>3.11874284922601</v>
+        <v>3.112010648350918</v>
       </c>
       <c r="G16">
-        <v>2.53785179375086</v>
+        <v>0.8499556476416643</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.684272598295379</v>
       </c>
       <c r="I16">
-        <v>0.08890552841575072</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3.656422551780992</v>
+        <v>0.08890597690201218</v>
       </c>
       <c r="K16">
-        <v>1.399756160035352</v>
+        <v>3.655544353160309</v>
       </c>
       <c r="L16">
-        <v>1.684524621660657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.399582014985896</v>
+      </c>
+      <c r="M16">
+        <v>1.684368566134765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.209702461968391</v>
+        <v>1.209660867995353</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04574102996806317</v>
+        <v>0.04545965846948974</v>
       </c>
       <c r="E17">
-        <v>0.175353349919515</v>
+        <v>0.1751807505526557</v>
       </c>
       <c r="F17">
-        <v>2.973571797222263</v>
+        <v>2.967171587848071</v>
       </c>
       <c r="G17">
-        <v>2.418240571165569</v>
+        <v>0.808415186319877</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.60661411774926</v>
       </c>
       <c r="I17">
-        <v>0.08700808822160333</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3.492074304422658</v>
+        <v>0.08700934923397163</v>
       </c>
       <c r="K17">
-        <v>1.335545502468449</v>
+        <v>3.491272863559175</v>
       </c>
       <c r="L17">
-        <v>1.607821000259236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.335393476206534</v>
+      </c>
+      <c r="M17">
+        <v>1.607686424908962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.177921064664616</v>
+        <v>1.177884057537227</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04410439924041754</v>
+        <v>0.04383197852047971</v>
       </c>
       <c r="E18">
-        <v>0.172045833741798</v>
+        <v>0.1718797763666586</v>
       </c>
       <c r="F18">
-        <v>2.891696979262321</v>
+        <v>2.885483467123578</v>
       </c>
       <c r="G18">
-        <v>2.350812240009475</v>
+        <v>0.7849779825011751</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.562855258668023</v>
       </c>
       <c r="I18">
-        <v>0.08592381025701812</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.398284887089602</v>
+        <v>0.08592552483682248</v>
       </c>
       <c r="K18">
-        <v>1.298941386205684</v>
+        <v>3.397525658273992</v>
       </c>
       <c r="L18">
-        <v>1.564070912532571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.298801335588053</v>
+      </c>
+      <c r="M18">
+        <v>1.563947926959315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.167198273479983</v>
+        <v>1.16716276343476</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04355815882215808</v>
+        <v>0.04328873140030254</v>
       </c>
       <c r="E19">
-        <v>0.1709302561827144</v>
+        <v>0.1707663935677814</v>
       </c>
       <c r="F19">
-        <v>2.864240750372488</v>
+        <v>2.858089766021521</v>
       </c>
       <c r="G19">
-        <v>2.328205634369638</v>
+        <v>0.7771168907554085</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.548187602176426</v>
       </c>
       <c r="I19">
-        <v>0.08555784030311386</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3.366648915944296</v>
+        <v>0.0855597064188629</v>
       </c>
       <c r="K19">
-        <v>1.28660099357144</v>
+        <v>3.365903668535836</v>
       </c>
       <c r="L19">
-        <v>1.549317547275052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.286464877914199</v>
+      </c>
+      <c r="M19">
+        <v>1.549198362915646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.21560292339754</v>
+        <v>1.215560453057748</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04604779230509592</v>
+        <v>0.04576474594314561</v>
       </c>
       <c r="E20">
-        <v>0.1759676062800928</v>
+        <v>0.1757937861128873</v>
       </c>
       <c r="F20">
-        <v>2.988854141192093</v>
+        <v>2.982419042414278</v>
       </c>
       <c r="G20">
-        <v>2.43082890198734</v>
+        <v>0.8127891169940398</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.61478514574452</v>
       </c>
       <c r="I20">
-        <v>0.08720932478353483</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3.509491130319105</v>
+        <v>0.08721050080787585</v>
       </c>
       <c r="K20">
-        <v>1.342346093102449</v>
+        <v>3.508681724239239</v>
       </c>
       <c r="L20">
-        <v>1.615947317346084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.342191791568396</v>
+      </c>
+      <c r="M20">
+        <v>1.615810536646649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.38116293445114</v>
+        <v>1.38109261558742</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05503201560208737</v>
+        <v>0.05470024838746212</v>
       </c>
       <c r="E21">
-        <v>0.1932371069165661</v>
+        <v>0.1930281550269015</v>
       </c>
       <c r="F21">
-        <v>3.428032634685508</v>
+        <v>3.420588320219309</v>
       </c>
       <c r="G21">
-        <v>2.792914432836099</v>
+        <v>0.9384029938405689</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.850006824911404</v>
       </c>
       <c r="I21">
-        <v>0.09284818514196758</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3.9988515968152</v>
+        <v>0.09284685032678297</v>
       </c>
       <c r="K21">
-        <v>1.533820591721266</v>
+        <v>3.997801688476926</v>
       </c>
       <c r="L21">
-        <v>1.844488238402747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.533595574239939</v>
+      </c>
+      <c r="M21">
+        <v>1.844282493883668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.491929196365447</v>
+        <v>1.491836566254449</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06145886832322134</v>
+        <v>0.06109254762444749</v>
       </c>
       <c r="E22">
-        <v>0.2048425911276723</v>
+        <v>0.2046090628808379</v>
       </c>
       <c r="F22">
-        <v>3.733028071644384</v>
+        <v>3.724873905315491</v>
       </c>
       <c r="G22">
-        <v>3.044730545242217</v>
+        <v>1.025566118352444</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.013786058105282</v>
       </c>
       <c r="I22">
-        <v>0.09661442012899357</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.32717209021979</v>
+        <v>0.09661123027148122</v>
       </c>
       <c r="K22">
-        <v>1.662708430934572</v>
+        <v>4.325941864660734</v>
       </c>
       <c r="L22">
-        <v>1.998022119055889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.662428266796937</v>
+      </c>
+      <c r="M22">
+        <v>1.997762185803296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.432549997723441</v>
+        <v>1.43246970902581</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05797127266948365</v>
+        <v>0.05762367847457739</v>
       </c>
       <c r="E23">
-        <v>0.1986149079422184</v>
+        <v>0.1983946712067137</v>
       </c>
       <c r="F23">
-        <v>3.568412302444585</v>
+        <v>3.560642292546589</v>
       </c>
       <c r="G23">
-        <v>2.908781616000908</v>
+        <v>0.9785272085102292</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.925348330600372</v>
       </c>
       <c r="I23">
-        <v>0.09459591809396883</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.151060510142145</v>
+        <v>0.09459374313603419</v>
       </c>
       <c r="K23">
-        <v>1.593530911037206</v>
+        <v>4.149928972712502</v>
       </c>
       <c r="L23">
-        <v>1.91564850292778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.593281126086751</v>
+      </c>
+      <c r="M23">
+        <v>1.915418455887405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.212934652873656</v>
+        <v>1.212892579804873</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04590895702064302</v>
+        <v>0.04562666856500641</v>
       </c>
       <c r="E24">
-        <v>0.1756898231143822</v>
+        <v>0.1755165552559568</v>
       </c>
       <c r="F24">
-        <v>2.981940089836144</v>
+        <v>2.97552077741625</v>
       </c>
       <c r="G24">
-        <v>2.425133581617345</v>
+        <v>0.8108102873890743</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.611088278208967</v>
       </c>
       <c r="I24">
-        <v>0.08711832540098641</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3.501614833362623</v>
+        <v>0.08711953988977683</v>
       </c>
       <c r="K24">
-        <v>1.3392705845188</v>
+        <v>3.500809034268912</v>
       </c>
       <c r="L24">
-        <v>1.612272335179554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.339117313919687</v>
+      </c>
+      <c r="M24">
+        <v>1.612136553860935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9847102590193799</v>
+        <v>0.9846964202262711</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03471673898381766</v>
+        <v>0.03449625538885925</v>
       </c>
       <c r="E25">
-        <v>0.1519576198362671</v>
+        <v>0.1518302594412368</v>
       </c>
       <c r="F25">
-        <v>2.410107429020925</v>
+        <v>2.404986194495038</v>
       </c>
       <c r="G25">
-        <v>1.95466960092277</v>
+        <v>0.6469510486128911</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.306104407991043</v>
       </c>
       <c r="I25">
-        <v>0.07931722578433309</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.828635333289071</v>
+        <v>0.07932159450413501</v>
       </c>
       <c r="K25">
-        <v>1.077247007421562</v>
+        <v>2.828108601902073</v>
       </c>
       <c r="L25">
-        <v>1.298754461976785</v>
+        <v>1.077169974012293</v>
+      </c>
+      <c r="M25">
+        <v>1.298691791986371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8219475959158729</v>
+        <v>2.161059526906456</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02736930558790363</v>
+        <v>0.3100335864248365</v>
       </c>
       <c r="E2">
-        <v>0.1349220680830321</v>
+        <v>0.3451090159664858</v>
       </c>
       <c r="F2">
-        <v>2.022433029059641</v>
+        <v>2.428443940704653</v>
       </c>
       <c r="G2">
-        <v>0.5367606188089269</v>
+        <v>0.0007887617155949848</v>
       </c>
       <c r="H2">
-        <v>1.10261245527154</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07373598780588075</v>
+        <v>0.4555264548414328</v>
       </c>
       <c r="K2">
-        <v>2.348412883003263</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8913349978548126</v>
+        <v>1.222676303239069</v>
       </c>
       <c r="M2">
-        <v>1.075895745937338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7946757743174473</v>
+      </c>
+      <c r="N2">
+        <v>1.055510951517986</v>
+      </c>
+      <c r="O2">
+        <v>2.176045853585606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7140519766390128</v>
+        <v>1.907015206485852</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02301771986776302</v>
+        <v>0.2672831895927033</v>
       </c>
       <c r="E3">
-        <v>0.1236738956983352</v>
+        <v>0.3027849629679764</v>
       </c>
       <c r="F3">
-        <v>1.780792284642459</v>
+        <v>2.225039762194058</v>
       </c>
       <c r="G3">
-        <v>0.4669419961100374</v>
+        <v>0.0007993525336244691</v>
       </c>
       <c r="H3">
-        <v>0.9746096915495031</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07002130237704129</v>
+        <v>0.4046475886311356</v>
       </c>
       <c r="K3">
-        <v>2.029877270631815</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7684086540712372</v>
+        <v>1.060495535119685</v>
       </c>
       <c r="M3">
-        <v>0.9283781520261343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6948334513420775</v>
+      </c>
+      <c r="N3">
+        <v>1.123876600983261</v>
+      </c>
+      <c r="O3">
+        <v>1.962520291267936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6487380422174169</v>
+        <v>1.753800919302421</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02053110097841326</v>
+        <v>0.2415588560002533</v>
       </c>
       <c r="E4">
-        <v>0.1168394019666366</v>
+        <v>0.2771362612948778</v>
       </c>
       <c r="F4">
-        <v>1.639514778423404</v>
+        <v>2.106601145254217</v>
       </c>
       <c r="G4">
-        <v>0.4260100311088593</v>
+        <v>0.0008060163105752144</v>
       </c>
       <c r="H4">
-        <v>0.9000088982079859</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06776848238853894</v>
+        <v>0.37371339966802</v>
       </c>
       <c r="K4">
-        <v>1.836656453113577</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6940413743034526</v>
+        <v>0.9625450538302971</v>
       </c>
       <c r="M4">
-        <v>0.8390966807301155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6345675909296276</v>
+      </c>
+      <c r="N4">
+        <v>1.167466843558177</v>
+      </c>
+      <c r="O4">
+        <v>1.837244237961187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6223240711363189</v>
+        <v>1.691980077398853</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01955778863436208</v>
+        <v>0.2311845618006458</v>
       </c>
       <c r="E5">
-        <v>0.1140683267668408</v>
+        <v>0.2667518158639481</v>
       </c>
       <c r="F5">
-        <v>1.583515554164208</v>
+        <v>2.059799261482709</v>
       </c>
       <c r="G5">
-        <v>0.4097565522840085</v>
+        <v>0.0008087748989717849</v>
       </c>
       <c r="H5">
-        <v>0.8704952529845116</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06685663549263943</v>
+        <v>0.3611667157334182</v>
       </c>
       <c r="K5">
-        <v>1.758397402290711</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6639659886852129</v>
+        <v>0.9229798602611083</v>
       </c>
       <c r="M5">
-        <v>0.8029846421415741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6102357343606784</v>
+      </c>
+      <c r="N5">
+        <v>1.18562607016656</v>
+      </c>
+      <c r="O5">
+        <v>1.787503558401539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.617949345163737</v>
+        <v>1.681749695100166</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01939840903227719</v>
+        <v>0.2294678404024637</v>
       </c>
       <c r="E6">
-        <v>0.1136089312852597</v>
+        <v>0.2650310934415359</v>
       </c>
       <c r="F6">
-        <v>1.57430615339517</v>
+        <v>2.052111811831182</v>
       </c>
       <c r="G6">
-        <v>0.4070817929060269</v>
+        <v>0.0008092356308716486</v>
       </c>
       <c r="H6">
-        <v>0.8656448912101951</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0667055758452797</v>
+        <v>0.3590864474649038</v>
       </c>
       <c r="K6">
-        <v>1.74542844252241</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6589845388086601</v>
+        <v>0.9164296332242259</v>
       </c>
       <c r="M6">
-        <v>0.7970031335296994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6062082242878262</v>
+      </c>
+      <c r="N6">
+        <v>1.188665031298411</v>
+      </c>
+      <c r="O6">
+        <v>1.779319031509829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.648381037670589</v>
+        <v>1.752964792853476</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02051782071300323</v>
+        <v>0.2414185340543611</v>
       </c>
       <c r="E7">
-        <v>0.1168019784094625</v>
+        <v>0.2769959610674917</v>
       </c>
       <c r="F7">
-        <v>1.638753448834962</v>
+        <v>2.105964235844539</v>
       </c>
       <c r="G7">
-        <v>0.425789178932618</v>
+        <v>0.0008060533363487554</v>
       </c>
       <c r="H7">
-        <v>0.899607422635313</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06775616084434866</v>
+        <v>0.3735439727178829</v>
       </c>
       <c r="K7">
-        <v>1.835599222161619</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6936348975706537</v>
+        <v>0.96201011899538</v>
       </c>
       <c r="M7">
-        <v>0.8386086325616944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6342385665667436</v>
+      </c>
+      <c r="N7">
+        <v>1.167710154889935</v>
+      </c>
+      <c r="O7">
+        <v>1.836568307006644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7845303658725413</v>
+        <v>2.07283872248837</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02582620905361921</v>
+        <v>0.2951695144074193</v>
       </c>
       <c r="E8">
-        <v>0.131026151273371</v>
+        <v>0.3304342932694055</v>
       </c>
       <c r="F8">
-        <v>1.937509683881672</v>
+        <v>2.356869879660465</v>
       </c>
       <c r="G8">
-        <v>0.5122466972104434</v>
+        <v>0.0007923816434391418</v>
       </c>
       <c r="H8">
-        <v>1.057573581936268</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07244879630959034</v>
+        <v>0.4379087632833745</v>
       </c>
       <c r="K8">
-        <v>2.238019130222312</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8486882186276432</v>
+        <v>1.166380627563854</v>
       </c>
       <c r="M8">
-        <v>1.024728077197828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7600132332054841</v>
+      </c>
+      <c r="N8">
+        <v>1.078742362655724</v>
+      </c>
+      <c r="O8">
+        <v>2.101113767228654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.060615043594936</v>
+        <v>2.726222260764757</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03805106894518673</v>
+        <v>0.4059430740289116</v>
       </c>
       <c r="E9">
-        <v>0.1597078356982315</v>
+        <v>0.4388176880611496</v>
       </c>
       <c r="F9">
-        <v>2.590475899205586</v>
+        <v>2.908220508403701</v>
       </c>
       <c r="G9">
-        <v>0.7002734407485036</v>
+        <v>0.0007667183364517347</v>
       </c>
       <c r="H9">
-        <v>1.405082016845896</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.081920012777422</v>
+        <v>0.5674658585136285</v>
       </c>
       <c r="K9">
-        <v>3.051808006405707</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.1641089138609</v>
+        <v>1.583117476679064</v>
       </c>
       <c r="M9">
-        <v>1.402809265089374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.01662602888122</v>
+      </c>
+      <c r="N9">
+        <v>0.9175655031703975</v>
+      </c>
+      <c r="O9">
+        <v>2.674073825957848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.271693704766079</v>
+        <v>3.228774285069449</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04871325803150484</v>
+        <v>0.4925671056356293</v>
       </c>
       <c r="E10">
-        <v>0.1816301696641034</v>
+        <v>0.5221146701457613</v>
       </c>
       <c r="F10">
-        <v>3.128768052005199</v>
+        <v>3.362484195835464</v>
       </c>
       <c r="G10">
-        <v>0.8547605803740339</v>
+        <v>0.0007483542237300973</v>
       </c>
       <c r="H10">
-        <v>1.693263102900644</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08912340670626051</v>
+        <v>0.6661781627286416</v>
       </c>
       <c r="K10">
-        <v>3.674394693372335</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.406953289341473</v>
+        <v>1.903934746844612</v>
       </c>
       <c r="M10">
-        <v>1.693171036075981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.214020522245107</v>
+      </c>
+      <c r="N10">
+        <v>0.8080021743513726</v>
+      </c>
+      <c r="O10">
+        <v>3.140795435493686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.370225629378183</v>
+        <v>3.464032020491061</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05409113362886586</v>
+        <v>0.5336513526432043</v>
       </c>
       <c r="E11">
-        <v>0.1918942918921047</v>
+        <v>0.5612104152477926</v>
       </c>
       <c r="F11">
-        <v>3.391211153550387</v>
+        <v>3.583308632036164</v>
       </c>
       <c r="G11">
-        <v>0.9299853317362619</v>
+        <v>0.0007400508400652921</v>
       </c>
       <c r="H11">
-        <v>1.834212720238838</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0924772286865263</v>
+        <v>0.7122597213155757</v>
       </c>
       <c r="K11">
-        <v>3.965646219973735</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.520989029819333</v>
+        <v>2.054384339413332</v>
       </c>
       <c r="M11">
-        <v>1.829250579339316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.306488055643285</v>
+      </c>
+      <c r="N11">
+        <v>0.7602761419564281</v>
+      </c>
+      <c r="O11">
+        <v>3.366478084537192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.407969410520025</v>
+        <v>3.554245554367697</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05622055651883784</v>
+        <v>0.5495052743593476</v>
       </c>
       <c r="E12">
-        <v>0.1958342892234874</v>
+        <v>0.5762293204789088</v>
       </c>
       <c r="F12">
-        <v>3.493614661541528</v>
+        <v>3.66931679956798</v>
       </c>
       <c r="G12">
-        <v>0.959325678120166</v>
+        <v>0.0007369082902526571</v>
       </c>
       <c r="H12">
-        <v>1.889282077575189</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09376081876806097</v>
+        <v>0.7299204493067037</v>
       </c>
       <c r="K12">
-        <v>4.077362124210794</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.564801218434042</v>
+        <v>2.112136514349942</v>
       </c>
       <c r="M12">
-        <v>1.881481553339157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.341961221979787</v>
+      </c>
+      <c r="N12">
+        <v>0.7425268305121087</v>
+      </c>
+      <c r="O12">
+        <v>3.454203714291793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.399820150914593</v>
+        <v>3.534763335648165</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05575750293020576</v>
+        <v>0.5460766918974969</v>
       </c>
       <c r="E13">
-        <v>0.1949831677100278</v>
+        <v>0.5729844671344111</v>
       </c>
       <c r="F13">
-        <v>3.471416930784841</v>
+        <v>3.650681079960748</v>
       </c>
       <c r="G13">
-        <v>0.9529661422380968</v>
+        <v>0.0007375851139224203</v>
       </c>
       <c r="H13">
-        <v>1.877341535700651</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09348372514270409</v>
+        <v>0.7261067851697192</v>
       </c>
       <c r="K13">
-        <v>4.053233867463263</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.555335394499522</v>
+        <v>2.099661506736254</v>
       </c>
       <c r="M13">
-        <v>1.870199256220388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.334299782097617</v>
+      </c>
+      <c r="N13">
+        <v>0.7463347373945339</v>
+      </c>
+      <c r="O13">
+        <v>3.435203641701776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.373321730393315</v>
+        <v>3.471430287955513</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05426434926553014</v>
+        <v>0.5349493775468659</v>
       </c>
       <c r="E14">
-        <v>0.1922172981738832</v>
+        <v>0.5624414741299404</v>
       </c>
       <c r="F14">
-        <v>3.399572215214221</v>
+        <v>3.590334540411703</v>
       </c>
       <c r="G14">
-        <v>0.9323811414358687</v>
+        <v>0.0007397923000702633</v>
       </c>
       <c r="H14">
-        <v>1.838707563641677</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09258254208352668</v>
+        <v>0.7137081939643366</v>
       </c>
       <c r="K14">
-        <v>3.974806862132681</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.524580125389363</v>
+        <v>2.05911917333097</v>
       </c>
       <c r="M14">
-        <v>1.833532805202211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.309396816608029</v>
+      </c>
+      <c r="N14">
+        <v>0.7588092915195048</v>
+      </c>
+      <c r="O14">
+        <v>3.373647774110736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.357149224564552</v>
+        <v>3.432789213471153</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05336242045313355</v>
+        <v>0.5281739507057637</v>
       </c>
       <c r="E15">
-        <v>0.1905304280344176</v>
+        <v>0.5560128303854697</v>
       </c>
       <c r="F15">
-        <v>3.355975091018109</v>
+        <v>3.553692683712967</v>
       </c>
       <c r="G15">
-        <v>0.919888198737695</v>
+        <v>0.0007411443156974404</v>
       </c>
       <c r="H15">
-        <v>1.815272990524562</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09203239258685869</v>
+        <v>0.7061424892375072</v>
       </c>
       <c r="K15">
-        <v>3.926962543374373</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.505827427906013</v>
+        <v>2.034391724237025</v>
       </c>
       <c r="M15">
-        <v>1.81116892838395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.29420502730018</v>
+      </c>
+      <c r="N15">
+        <v>0.766493065657631</v>
+      </c>
+      <c r="O15">
+        <v>3.336249070501026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265310737099725</v>
+        <v>3.213547368356558</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04837379846733825</v>
+        <v>0.4899203955220344</v>
       </c>
       <c r="E16">
-        <v>0.1809661608395494</v>
+        <v>0.5195872387949336</v>
       </c>
       <c r="F16">
-        <v>3.112010648350918</v>
+        <v>3.348366560636748</v>
       </c>
       <c r="G16">
-        <v>0.8499556476416643</v>
+        <v>0.0007488974359436694</v>
       </c>
       <c r="H16">
-        <v>1.684272598295379</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08890597690201218</v>
+        <v>0.6631936782861629</v>
       </c>
       <c r="K16">
-        <v>3.655544353160309</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.399582014985896</v>
+        <v>1.894204007815944</v>
       </c>
       <c r="M16">
-        <v>1.684368566134765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.208037332715904</v>
+      </c>
+      <c r="N16">
+        <v>0.8111653382860595</v>
+      </c>
+      <c r="O16">
+        <v>3.126343526886018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.209660867995353</v>
+        <v>3.080865024950128</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04545965846948974</v>
+        <v>0.4669190107340455</v>
       </c>
       <c r="E17">
-        <v>0.1751807505526557</v>
+        <v>0.4975765876554235</v>
       </c>
       <c r="F17">
-        <v>2.967171587848071</v>
+        <v>3.226267188282719</v>
       </c>
       <c r="G17">
-        <v>0.808415186319877</v>
+        <v>0.0007536630254472455</v>
       </c>
       <c r="H17">
-        <v>1.60661411774926</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08700934923397163</v>
+        <v>0.6371745958182231</v>
       </c>
       <c r="K17">
-        <v>3.491272863559175</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.335393476206534</v>
+        <v>1.809445181228568</v>
       </c>
       <c r="M17">
-        <v>1.607686424908962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.155909255201834</v>
+      </c>
+      <c r="N17">
+        <v>0.8391250022546579</v>
+      </c>
+      <c r="O17">
+        <v>3.001223510801708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.177884057537227</v>
+        <v>3.005163382400553</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04383197852047971</v>
+        <v>0.4538434105543274</v>
       </c>
       <c r="E18">
-        <v>0.1718797763666586</v>
+        <v>0.4850270722570968</v>
       </c>
       <c r="F18">
-        <v>2.885483467123578</v>
+        <v>3.157349461568657</v>
       </c>
       <c r="G18">
-        <v>0.7849779825011751</v>
+        <v>0.0007564092014222812</v>
       </c>
       <c r="H18">
-        <v>1.562855258668023</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08592552483682248</v>
+        <v>0.6223170045755637</v>
       </c>
       <c r="K18">
-        <v>3.397525658273992</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.298801335588053</v>
+        <v>1.761109409059571</v>
       </c>
       <c r="M18">
-        <v>1.563947926959315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.126173011882813</v>
+      </c>
+      <c r="N18">
+        <v>0.8554044224606621</v>
+      </c>
+      <c r="O18">
+        <v>2.930492617314471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.16716276343476</v>
+        <v>2.979632722853694</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04328873140030254</v>
+        <v>0.4494412042232909</v>
       </c>
       <c r="E19">
-        <v>0.1707663935677814</v>
+        <v>0.4807958520602611</v>
       </c>
       <c r="F19">
-        <v>2.858089766021521</v>
+        <v>3.134230496622052</v>
       </c>
       <c r="G19">
-        <v>0.7771168907554085</v>
+        <v>0.0007573400447667058</v>
       </c>
       <c r="H19">
-        <v>1.548187602176426</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0855597064188629</v>
+        <v>0.6173038666675694</v>
       </c>
       <c r="K19">
-        <v>3.365903668535836</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.286464877914199</v>
+        <v>1.744811399347014</v>
       </c>
       <c r="M19">
-        <v>1.549198362915646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.116145106108021</v>
+      </c>
+      <c r="N19">
+        <v>0.8609497705399072</v>
+      </c>
+      <c r="O19">
+        <v>2.906746907169364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.215560453057748</v>
+        <v>3.094924612091631</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04576474594314561</v>
+        <v>0.4693512234146908</v>
       </c>
       <c r="E20">
-        <v>0.1757937861128873</v>
+        <v>0.4999079554351908</v>
       </c>
       <c r="F20">
-        <v>2.982419042414278</v>
+        <v>3.239126890534493</v>
       </c>
       <c r="G20">
-        <v>0.8127891169940398</v>
+        <v>0.0007531552259197714</v>
       </c>
       <c r="H20">
-        <v>1.61478514574452</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08721050080787585</v>
+        <v>0.6399329280971244</v>
       </c>
       <c r="K20">
-        <v>3.508681724239239</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.342191791568396</v>
+        <v>1.818424038902236</v>
       </c>
       <c r="M20">
-        <v>1.615810536646649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.161432376364047</v>
+      </c>
+      <c r="N20">
+        <v>0.8361280485248734</v>
+      </c>
+      <c r="O20">
+        <v>3.014412649896997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.38109261558742</v>
+        <v>3.490000666897117</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05470024838746212</v>
+        <v>0.538209212960453</v>
       </c>
       <c r="E21">
-        <v>0.1930281550269015</v>
+        <v>0.565532027952699</v>
       </c>
       <c r="F21">
-        <v>3.420588320219309</v>
+        <v>3.607991942740057</v>
       </c>
       <c r="G21">
-        <v>0.9384029938405689</v>
+        <v>0.0007391439966094881</v>
       </c>
       <c r="H21">
-        <v>1.850006824911404</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09284685032678297</v>
+        <v>0.7173438758963897</v>
       </c>
       <c r="K21">
-        <v>3.997801688476926</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.533595574239939</v>
+        <v>2.071005101704969</v>
       </c>
       <c r="M21">
-        <v>1.844282493883668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.316698352573923</v>
+      </c>
+      <c r="N21">
+        <v>0.7551362652289093</v>
+      </c>
+      <c r="O21">
+        <v>3.39166375120908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.491836566254449</v>
+        <v>3.754872113919134</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06109254762444749</v>
+        <v>0.5849716658397597</v>
       </c>
       <c r="E22">
-        <v>0.2046090628808379</v>
+        <v>0.609694569688557</v>
       </c>
       <c r="F22">
-        <v>3.724873905315491</v>
+        <v>3.863184441664799</v>
       </c>
       <c r="G22">
-        <v>1.025566118352444</v>
+        <v>0.0007299938514787193</v>
       </c>
       <c r="H22">
-        <v>2.013786058105282</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09661123027148122</v>
+        <v>0.7691892764939752</v>
       </c>
       <c r="K22">
-        <v>4.325941864660734</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.662428266796937</v>
+        <v>2.240707448267784</v>
       </c>
       <c r="M22">
-        <v>1.997762185803296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.420884970007947</v>
+      </c>
+      <c r="N22">
+        <v>0.7041000600063541</v>
+      </c>
+      <c r="O22">
+        <v>3.651621619748568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.43246970902581</v>
+        <v>3.612831355036064</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05762367847457739</v>
+        <v>0.5598317553078118</v>
       </c>
       <c r="E23">
-        <v>0.1983946712067137</v>
+        <v>0.5859920076368894</v>
       </c>
       <c r="F23">
-        <v>3.560642292546589</v>
+        <v>3.725560757806505</v>
       </c>
       <c r="G23">
-        <v>0.9785272085102292</v>
+        <v>0.0007348788867365333</v>
       </c>
       <c r="H23">
-        <v>1.925348330600372</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09459374313603419</v>
+        <v>0.7413880018878132</v>
       </c>
       <c r="K23">
-        <v>4.149928972712502</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.593281126086751</v>
+        <v>2.149661081605018</v>
       </c>
       <c r="M23">
-        <v>1.915418455887405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.365002930185341</v>
+      </c>
+      <c r="N23">
+        <v>0.7311583846074612</v>
+      </c>
+      <c r="O23">
+        <v>3.51152204076692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.212892579804873</v>
+        <v>3.088566481221335</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04562666856500641</v>
+        <v>0.4682511624414758</v>
       </c>
       <c r="E24">
-        <v>0.1755165552559568</v>
+        <v>0.4988536209380499</v>
       </c>
       <c r="F24">
-        <v>2.97552077741625</v>
+        <v>3.233309061405464</v>
       </c>
       <c r="G24">
-        <v>0.8108102873890743</v>
+        <v>0.0007533847818745467</v>
       </c>
       <c r="H24">
-        <v>1.611088278208967</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08711953988977683</v>
+        <v>0.6386855741066171</v>
       </c>
       <c r="K24">
-        <v>3.500809034268912</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.339117313919687</v>
+        <v>1.814363482254009</v>
       </c>
       <c r="M24">
-        <v>1.612136553860935</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.158934653299653</v>
+      </c>
+      <c r="N24">
+        <v>0.8374823341056015</v>
+      </c>
+      <c r="O24">
+        <v>3.008446120381109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9846964202262711</v>
+        <v>2.546039924208401</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03449625538885925</v>
+        <v>0.3752161734858959</v>
       </c>
       <c r="E25">
-        <v>0.1518302594412368</v>
+        <v>0.4089735084382227</v>
       </c>
       <c r="F25">
-        <v>2.404986194495038</v>
+        <v>2.751477481272815</v>
       </c>
       <c r="G25">
-        <v>0.6469510486128911</v>
+        <v>0.0007735580030204232</v>
       </c>
       <c r="H25">
-        <v>1.306104407991043</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07932159450413501</v>
+        <v>0.5319194631446891</v>
       </c>
       <c r="K25">
-        <v>2.828108601902073</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.077169974012293</v>
+        <v>1.468204688318878</v>
       </c>
       <c r="M25">
-        <v>1.298691791986371</v>
+        <v>0.9458734211217674</v>
+      </c>
+      <c r="N25">
+        <v>0.9596731918442494</v>
+      </c>
+      <c r="O25">
+        <v>2.512063505049568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.161059526906456</v>
+        <v>1.817976548198715</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3100335864248365</v>
+        <v>0.184847726996324</v>
       </c>
       <c r="E2">
-        <v>0.3451090159664858</v>
+        <v>0.2580301753387388</v>
       </c>
       <c r="F2">
-        <v>2.428443940704653</v>
+        <v>1.492893136253826</v>
       </c>
       <c r="G2">
-        <v>0.0007887617155949848</v>
+        <v>1.639507218604109</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9248864883751367</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4555264548414328</v>
+        <v>0.3804261999350445</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.222676303239069</v>
+        <v>0.9364004323639961</v>
       </c>
       <c r="M2">
-        <v>0.7946757743174473</v>
+        <v>0.6374514751453262</v>
       </c>
       <c r="N2">
-        <v>1.055510951517986</v>
+        <v>1.08023216926167</v>
       </c>
       <c r="O2">
-        <v>2.176045853585606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.907015206485852</v>
+        <v>1.602008615437768</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2672831895927033</v>
+        <v>0.1672593219516187</v>
       </c>
       <c r="E3">
-        <v>0.3027849629679764</v>
+        <v>0.2355866765509873</v>
       </c>
       <c r="F3">
-        <v>2.225039762194058</v>
+        <v>1.375328726125176</v>
       </c>
       <c r="G3">
-        <v>0.0007993525336244691</v>
+        <v>1.465831618121229</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.852182120258874</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4046475886311356</v>
+        <v>0.3487458157357537</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.060495535119685</v>
+        <v>0.8122516192076432</v>
       </c>
       <c r="M3">
-        <v>0.6948334513420775</v>
+        <v>0.5566135887976529</v>
       </c>
       <c r="N3">
-        <v>1.123876600983261</v>
+        <v>1.122035804081897</v>
       </c>
       <c r="O3">
-        <v>1.962520291267936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.753800919302421</v>
+        <v>1.470911086217427</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2415588560002533</v>
+        <v>0.1565574363637197</v>
       </c>
       <c r="E4">
-        <v>0.2771362612948778</v>
+        <v>0.221868579994652</v>
       </c>
       <c r="F4">
-        <v>2.106601145254217</v>
+        <v>1.306626936913304</v>
       </c>
       <c r="G4">
-        <v>0.0008060163105752144</v>
+        <v>1.362968975487235</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8095934742404154</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.37371339966802</v>
+        <v>0.3293519831692251</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9625450538302971</v>
+        <v>0.7366518959735515</v>
       </c>
       <c r="M4">
-        <v>0.6345675909296276</v>
+        <v>0.5074591881724473</v>
       </c>
       <c r="N4">
-        <v>1.167466843558177</v>
+        <v>1.149165726797357</v>
       </c>
       <c r="O4">
-        <v>1.837244237961187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.691980077398853</v>
+        <v>1.417825017081356</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2311845618006458</v>
+        <v>0.1522148116477524</v>
       </c>
       <c r="E5">
-        <v>0.2667518158639481</v>
+        <v>0.2162890682743281</v>
       </c>
       <c r="F5">
-        <v>2.059799261482709</v>
+        <v>1.279434449832493</v>
       </c>
       <c r="G5">
-        <v>0.0008087748989717849</v>
+        <v>1.321909495820705</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7927115796730391</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3611667157334182</v>
+        <v>0.321458029312204</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9229798602611083</v>
+        <v>0.7059772069927135</v>
       </c>
       <c r="M5">
-        <v>0.6102357343606784</v>
+        <v>0.4875332601143825</v>
       </c>
       <c r="N5">
-        <v>1.18562607016656</v>
+        <v>1.160579985163757</v>
       </c>
       <c r="O5">
-        <v>1.787503558401539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.681749695100166</v>
+        <v>1.409029317897108</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2294678404024637</v>
+        <v>0.1514946722195702</v>
       </c>
       <c r="E6">
-        <v>0.2650310934415359</v>
+        <v>0.2153631061740491</v>
       </c>
       <c r="F6">
-        <v>2.052111811831182</v>
+        <v>1.274965720342308</v>
       </c>
       <c r="G6">
-        <v>0.0008092356308716486</v>
+        <v>1.315140873444449</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7899357538486811</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3590864474649038</v>
+        <v>0.3201476505134337</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9164296332242259</v>
+        <v>0.7008910229328933</v>
       </c>
       <c r="M6">
-        <v>0.6062082242878262</v>
+        <v>0.4842304679100593</v>
       </c>
       <c r="N6">
-        <v>1.188665031298411</v>
+        <v>1.162496717136314</v>
       </c>
       <c r="O6">
-        <v>1.779319031509829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.752964792853476</v>
+        <v>1.470193836584173</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2414185340543611</v>
+        <v>0.1564988029593195</v>
       </c>
       <c r="E7">
-        <v>0.2769959610674917</v>
+        <v>0.2217932955397757</v>
       </c>
       <c r="F7">
-        <v>2.105964235844539</v>
+        <v>1.306257045054849</v>
       </c>
       <c r="G7">
-        <v>0.0008060533363487554</v>
+        <v>1.362411875198262</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8093639367338596</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3735439727178829</v>
+        <v>0.3292454921294308</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.96201011899538</v>
+        <v>0.7362377004085374</v>
       </c>
       <c r="M7">
-        <v>0.6342385665667436</v>
+        <v>0.5071900555915079</v>
       </c>
       <c r="N7">
-        <v>1.167710154889935</v>
+        <v>1.149318223142899</v>
       </c>
       <c r="O7">
-        <v>1.836568307006644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.07283872248837</v>
+        <v>1.743171650542791</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2951695144074193</v>
+        <v>0.1787592093500763</v>
       </c>
       <c r="E8">
-        <v>0.3304342932694055</v>
+        <v>0.2502756025717368</v>
       </c>
       <c r="F8">
-        <v>2.356869879660465</v>
+        <v>1.451589014492399</v>
       </c>
       <c r="G8">
-        <v>0.0007923816434391418</v>
+        <v>1.578783172074623</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.8993653501729852</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4379087632833745</v>
+        <v>0.369487334588058</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.166380627563854</v>
+        <v>0.8934477358980359</v>
       </c>
       <c r="M8">
-        <v>0.7600132332054841</v>
+        <v>0.6094688813151379</v>
       </c>
       <c r="N8">
-        <v>1.078742362655724</v>
+        <v>1.094336886089366</v>
       </c>
       <c r="O8">
-        <v>2.101113767228654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.726222260764757</v>
+        <v>2.292526033321053</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4059430740289116</v>
+        <v>0.2234899564954702</v>
       </c>
       <c r="E9">
-        <v>0.4388176880611496</v>
+        <v>0.3068745364148597</v>
       </c>
       <c r="F9">
-        <v>2.908220508403701</v>
+        <v>1.767773193648239</v>
       </c>
       <c r="G9">
-        <v>0.0007667183364517347</v>
+        <v>2.037563338450155</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.094255962286155</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5674658585136285</v>
+        <v>0.4491375489296132</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.583117476679064</v>
+        <v>1.207981897812658</v>
       </c>
       <c r="M9">
-        <v>1.01662602888122</v>
+        <v>0.8146436135664317</v>
       </c>
       <c r="N9">
-        <v>0.9175655031703975</v>
+        <v>0.998562132586315</v>
       </c>
       <c r="O9">
-        <v>2.674073825957848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.228774285069449</v>
+        <v>2.70792187796917</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4925671056356293</v>
+        <v>0.2574931570605514</v>
       </c>
       <c r="E10">
-        <v>0.5221146701457613</v>
+        <v>0.3493100049755995</v>
       </c>
       <c r="F10">
-        <v>3.362484195835464</v>
+        <v>2.024561329353148</v>
       </c>
       <c r="G10">
-        <v>0.0007483542237300973</v>
+        <v>2.402640383865105</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.251927875100989</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6661781627286416</v>
+        <v>0.508543337947799</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.903934746844612</v>
+        <v>1.444850342644855</v>
       </c>
       <c r="M10">
-        <v>1.214020522245107</v>
+        <v>0.9694288711105443</v>
       </c>
       <c r="N10">
-        <v>0.8080021743513726</v>
+        <v>0.9361995923812501</v>
       </c>
       <c r="O10">
-        <v>3.140795435493686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.464032020491061</v>
+        <v>2.900265261308448</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5336513526432043</v>
+        <v>0.2733356109784637</v>
       </c>
       <c r="E11">
-        <v>0.5612104152477926</v>
+        <v>0.3689039283977422</v>
       </c>
       <c r="F11">
-        <v>3.583308632036164</v>
+        <v>2.148083309288864</v>
       </c>
       <c r="G11">
-        <v>0.0007400508400652921</v>
+        <v>2.576580686719154</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.327632476075848</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7122597213155757</v>
+        <v>0.535875375662954</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.054384339413332</v>
+        <v>1.554366859922595</v>
       </c>
       <c r="M11">
-        <v>1.306488055643285</v>
+        <v>1.041035486994346</v>
       </c>
       <c r="N11">
-        <v>0.7602761419564281</v>
+        <v>0.9097297141838609</v>
       </c>
       <c r="O11">
-        <v>3.366478084537192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.554245554367697</v>
+        <v>2.973661918668029</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5495052743593476</v>
+        <v>0.2794008103935255</v>
       </c>
       <c r="E12">
-        <v>0.5762293204789088</v>
+        <v>0.3763753574558066</v>
       </c>
       <c r="F12">
-        <v>3.66931679956798</v>
+        <v>2.195953678613634</v>
       </c>
       <c r="G12">
-        <v>0.0007369082902526571</v>
+        <v>2.643746868579768</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.356950855453732</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7299204493067037</v>
+        <v>0.5462806040277286</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.112136514349942</v>
+        <v>1.596139255865779</v>
       </c>
       <c r="M12">
-        <v>1.341961221979787</v>
+        <v>1.068352120203308</v>
       </c>
       <c r="N12">
-        <v>0.7425268305121087</v>
+        <v>0.8999945462072532</v>
       </c>
       <c r="O12">
-        <v>3.454203714291793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.534763335648165</v>
+        <v>2.957828431312862</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5460766918974969</v>
+        <v>0.2780914126422829</v>
       </c>
       <c r="E13">
-        <v>0.5729844671344111</v>
+        <v>0.374763781232609</v>
       </c>
       <c r="F13">
-        <v>3.650681079960748</v>
+        <v>2.185592976085459</v>
       </c>
       <c r="G13">
-        <v>0.0007375851139224203</v>
+        <v>2.629220774999538</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.350606324808126</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7261067851697192</v>
+        <v>0.5440370080619346</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.099661506736254</v>
+        <v>1.587128626165452</v>
       </c>
       <c r="M13">
-        <v>1.334299782097617</v>
+        <v>1.062459565539996</v>
       </c>
       <c r="N13">
-        <v>0.7463347373945339</v>
+        <v>0.9020781029931868</v>
       </c>
       <c r="O13">
-        <v>3.435203641701776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.471430287955513</v>
+        <v>2.90629195938169</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5349493775468659</v>
+        <v>0.2738331996767442</v>
       </c>
       <c r="E14">
-        <v>0.5624414741299404</v>
+        <v>0.3695175104277197</v>
       </c>
       <c r="F14">
-        <v>3.590334540411703</v>
+        <v>2.151998878051373</v>
       </c>
       <c r="G14">
-        <v>0.0007397923000702633</v>
+        <v>2.582079425780279</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.330030992038473</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7137081939643366</v>
+        <v>0.5367302464025414</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.05911917333097</v>
+        <v>1.557797178634672</v>
       </c>
       <c r="M14">
-        <v>1.309396816608029</v>
+        <v>1.043278640470788</v>
       </c>
       <c r="N14">
-        <v>0.7588092915195048</v>
+        <v>0.9089229232901772</v>
       </c>
       <c r="O14">
-        <v>3.373647774110736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.432789213471153</v>
+        <v>2.874799722364003</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5281739507057637</v>
+        <v>0.2712339086250921</v>
       </c>
       <c r="E15">
-        <v>0.5560128303854697</v>
+        <v>0.3663110620953205</v>
       </c>
       <c r="F15">
-        <v>3.553692683712967</v>
+        <v>2.131568304713525</v>
       </c>
       <c r="G15">
-        <v>0.0007411443156974404</v>
+        <v>2.553378452541438</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.317515238938739</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7061424892375072</v>
+        <v>0.5322621787870787</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.034391724237025</v>
+        <v>1.539871504031538</v>
       </c>
       <c r="M15">
-        <v>1.29420502730018</v>
+        <v>1.031556836482679</v>
       </c>
       <c r="N15">
-        <v>0.766493065657631</v>
+        <v>0.9131536102902302</v>
       </c>
       <c r="O15">
-        <v>3.336249070501026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.213547368356558</v>
+        <v>2.69542594952884</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4899203955220344</v>
+        <v>0.2564663496060007</v>
       </c>
       <c r="E16">
-        <v>0.5195872387949336</v>
+        <v>0.3480361480883047</v>
       </c>
       <c r="F16">
-        <v>3.348366560636748</v>
+        <v>2.016634682036639</v>
       </c>
       <c r="G16">
-        <v>0.0007488974359436694</v>
+        <v>2.391445129565994</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.247066967591621</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6631936782861629</v>
+        <v>0.5067642200567661</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.894204007815944</v>
+        <v>1.43773258005649</v>
       </c>
       <c r="M16">
-        <v>1.208037332715904</v>
+        <v>0.964775644750091</v>
       </c>
       <c r="N16">
-        <v>0.8111653382860595</v>
+        <v>0.937968953189781</v>
       </c>
       <c r="O16">
-        <v>3.126343526886018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.080865024950128</v>
+        <v>2.586301635709674</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4669190107340455</v>
+        <v>0.247510931147005</v>
       </c>
       <c r="E17">
-        <v>0.4975765876554235</v>
+        <v>0.3369059721290526</v>
       </c>
       <c r="F17">
-        <v>3.226267188282719</v>
+        <v>1.947932935160281</v>
       </c>
       <c r="G17">
-        <v>0.0007536630254472455</v>
+        <v>2.294231905422919</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.204921308878255</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6371745958182231</v>
+        <v>0.4912082287118125</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.809445181228568</v>
+        <v>1.375557243974328</v>
       </c>
       <c r="M17">
-        <v>1.155909255201834</v>
+        <v>0.9241329974600063</v>
       </c>
       <c r="N17">
-        <v>0.8391250022546579</v>
+        <v>0.9536892319054999</v>
       </c>
       <c r="O17">
-        <v>3.001223510801708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.005163382400553</v>
+        <v>2.523849209814614</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4538434105543274</v>
+        <v>0.242394412049677</v>
       </c>
       <c r="E18">
-        <v>0.4850270722570968</v>
+        <v>0.3305307960843891</v>
       </c>
       <c r="F18">
-        <v>3.157349461568657</v>
+        <v>1.909040201552685</v>
       </c>
       <c r="G18">
-        <v>0.0007564092014222812</v>
+        <v>2.239046560810465</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.181049529127165</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6223170045755637</v>
+        <v>0.4822890948293548</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.761109409059571</v>
+        <v>1.339958510681441</v>
       </c>
       <c r="M18">
-        <v>1.126173011882813</v>
+        <v>0.9008668805089712</v>
       </c>
       <c r="N18">
-        <v>0.8554044224606621</v>
+        <v>0.9629088814352116</v>
       </c>
       <c r="O18">
-        <v>2.930492617314471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.979632722853694</v>
+        <v>2.502755506245762</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4494412042232909</v>
+        <v>0.2406676106445644</v>
       </c>
       <c r="E19">
-        <v>0.4807958520602611</v>
+        <v>0.3283765592989454</v>
       </c>
       <c r="F19">
-        <v>3.134230496622052</v>
+        <v>1.895975000770221</v>
       </c>
       <c r="G19">
-        <v>0.0007573400447667058</v>
+        <v>2.220482187634218</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.173028137316294</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6173038666675694</v>
+        <v>0.4792737755362424</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.744811399347014</v>
+        <v>1.327932019153195</v>
       </c>
       <c r="M19">
-        <v>1.116145106108021</v>
+        <v>0.8930075133059745</v>
       </c>
       <c r="N19">
-        <v>0.8609497705399072</v>
+        <v>0.9660605834142899</v>
       </c>
       <c r="O19">
-        <v>2.906746907169364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.094924612091631</v>
+        <v>2.597885196994469</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4693512234146908</v>
+        <v>0.2484606074532394</v>
       </c>
       <c r="E20">
-        <v>0.4999079554351908</v>
+        <v>0.3380879768742773</v>
       </c>
       <c r="F20">
-        <v>3.239126890534493</v>
+        <v>1.955181008556707</v>
       </c>
       <c r="G20">
-        <v>0.0007531552259197714</v>
+        <v>2.304503804695173</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.209369027027179</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6399329280971244</v>
+        <v>0.4928611915632501</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.818424038902236</v>
+        <v>1.382158733914252</v>
       </c>
       <c r="M20">
-        <v>1.161432376364047</v>
+        <v>0.9284478448043316</v>
       </c>
       <c r="N20">
-        <v>0.8361280485248734</v>
+        <v>0.9519972774405971</v>
       </c>
       <c r="O20">
-        <v>3.014412649896997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.490000666897117</v>
+        <v>2.921413624221771</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.538209212960453</v>
+        <v>0.2750820428304621</v>
       </c>
       <c r="E21">
-        <v>0.565532027952699</v>
+        <v>0.3710569795668448</v>
       </c>
       <c r="F21">
-        <v>3.607991942740057</v>
+        <v>2.161835434163336</v>
       </c>
       <c r="G21">
-        <v>0.0007391439966094881</v>
+        <v>2.595889295828329</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.336056133023533</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7173438758963897</v>
+        <v>0.538874827539928</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.071005101704969</v>
+        <v>1.566403964522664</v>
       </c>
       <c r="M21">
-        <v>1.316698352573923</v>
+        <v>1.048906845667872</v>
       </c>
       <c r="N21">
-        <v>0.7551362652289093</v>
+        <v>0.9069044774228203</v>
       </c>
       <c r="O21">
-        <v>3.39166375120908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.754872113919134</v>
+        <v>3.136165546996835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5849716658397597</v>
+        <v>0.2928723948980121</v>
       </c>
       <c r="E22">
-        <v>0.609694569688557</v>
+        <v>0.3929107853395948</v>
       </c>
       <c r="F22">
-        <v>3.863184441664799</v>
+        <v>2.303352521094993</v>
       </c>
       <c r="G22">
-        <v>0.0007299938514787193</v>
+        <v>2.793989945631637</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.42268982223743</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7691892764939752</v>
+        <v>0.5692752266604799</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.240707448267784</v>
+        <v>1.688598915482572</v>
       </c>
       <c r="M22">
-        <v>1.420884970007947</v>
+        <v>1.128820038952597</v>
       </c>
       <c r="N22">
-        <v>0.7041000600063541</v>
+        <v>0.8791229127273894</v>
       </c>
       <c r="O22">
-        <v>3.651621619748568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.612831355036064</v>
+        <v>3.021218828382473</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5598317553078118</v>
+        <v>0.2833370097819596</v>
       </c>
       <c r="E23">
-        <v>0.5859920076368894</v>
+        <v>0.38121526752672</v>
       </c>
       <c r="F23">
-        <v>3.725560757806505</v>
+        <v>2.227184038410698</v>
       </c>
       <c r="G23">
-        <v>0.0007348788867365333</v>
+        <v>2.68749776764713</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.376072246307729</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7413880018878132</v>
+        <v>0.5530159570010227</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.149661081605018</v>
+        <v>1.623201102373855</v>
       </c>
       <c r="M23">
-        <v>1.365002930185341</v>
+        <v>1.086049787909197</v>
       </c>
       <c r="N23">
-        <v>0.7311583846074612</v>
+        <v>0.8937904556249023</v>
       </c>
       <c r="O23">
-        <v>3.51152204076692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.088566481221335</v>
+        <v>2.592647388023238</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4682511624414758</v>
+        <v>0.2480311598018403</v>
       </c>
       <c r="E24">
-        <v>0.4988536209380499</v>
+        <v>0.3375535194103279</v>
       </c>
       <c r="F24">
-        <v>3.233309061405464</v>
+        <v>1.951902280390613</v>
       </c>
       <c r="G24">
-        <v>0.0007533847818745467</v>
+        <v>2.299857699175192</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.207357103378115</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6386855741066171</v>
+        <v>0.492113812442625</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.814363482254009</v>
+        <v>1.379173746881548</v>
       </c>
       <c r="M24">
-        <v>1.158934653299653</v>
+        <v>0.9264967933612738</v>
       </c>
       <c r="N24">
-        <v>0.8374823341056015</v>
+        <v>0.9527616447669089</v>
       </c>
       <c r="O24">
-        <v>3.008446120381109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.546039924208401</v>
+        <v>2.142093587861893</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3752161734858959</v>
+        <v>0.211227457376836</v>
       </c>
       <c r="E25">
-        <v>0.4089735084382227</v>
+        <v>0.291445070536156</v>
       </c>
       <c r="F25">
-        <v>2.751477481272815</v>
+        <v>1.678366542787643</v>
       </c>
       <c r="G25">
-        <v>0.0007735580030204232</v>
+        <v>1.909081976356106</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.03924618611282</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5319194631446891</v>
+        <v>0.4274692092444496</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.468204688318878</v>
+        <v>1.122032526845999</v>
       </c>
       <c r="M25">
-        <v>0.9458734211217674</v>
+        <v>0.7585253296589798</v>
       </c>
       <c r="N25">
-        <v>0.9596731918442494</v>
+        <v>1.023117619692293</v>
       </c>
       <c r="O25">
-        <v>2.512063505049568</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.817976548198715</v>
+        <v>1.539699918141963</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.184847726996324</v>
+        <v>0.1554017772857748</v>
       </c>
       <c r="E2">
-        <v>0.2580301753387388</v>
+        <v>0.1985850294174796</v>
       </c>
       <c r="F2">
-        <v>1.492893136253826</v>
+        <v>2.121403027924472</v>
       </c>
       <c r="G2">
-        <v>1.639507218604109</v>
+        <v>1.578716346805095</v>
       </c>
       <c r="H2">
-        <v>0.9248864883751367</v>
+        <v>1.360084852487887</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3804261999350445</v>
+        <v>0.2803627659302492</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9364004323639961</v>
+        <v>0.45550550548964</v>
       </c>
       <c r="M2">
-        <v>0.6374514751453262</v>
+        <v>0.423002409223642</v>
       </c>
       <c r="N2">
-        <v>1.08023216926167</v>
+        <v>1.949654226969095</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.602008615437768</v>
+        <v>1.48713522131581</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1672593219516187</v>
+        <v>0.149902513120125</v>
       </c>
       <c r="E3">
-        <v>0.2355866765509873</v>
+        <v>0.1915218588740046</v>
       </c>
       <c r="F3">
-        <v>1.375328726125176</v>
+        <v>2.110718933671393</v>
       </c>
       <c r="G3">
-        <v>1.465831618121229</v>
+        <v>1.549299053078215</v>
       </c>
       <c r="H3">
-        <v>0.852182120258874</v>
+        <v>1.353321159804608</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3487458157357537</v>
+        <v>0.2703275671336769</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8122516192076432</v>
+        <v>0.422093885276638</v>
       </c>
       <c r="M3">
-        <v>0.5566135887976529</v>
+        <v>0.4022333058380099</v>
       </c>
       <c r="N3">
-        <v>1.122035804081897</v>
+        <v>1.967734668824122</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.470911086217427</v>
+        <v>1.455500899976585</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1565574363637197</v>
+        <v>0.146483881268324</v>
       </c>
       <c r="E4">
-        <v>0.221868579994652</v>
+        <v>0.1871441150994713</v>
       </c>
       <c r="F4">
-        <v>1.306626936913304</v>
+        <v>2.10552084901019</v>
       </c>
       <c r="G4">
-        <v>1.362968975487235</v>
+        <v>1.532415551298783</v>
       </c>
       <c r="H4">
-        <v>0.8095934742404154</v>
+        <v>1.349990450260776</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3293519831692251</v>
+        <v>0.264118042959808</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7366518959735515</v>
+        <v>0.4017128243601178</v>
       </c>
       <c r="M4">
-        <v>0.5074591881724473</v>
+        <v>0.3896419721494269</v>
       </c>
       <c r="N4">
-        <v>1.149165726797357</v>
+        <v>1.979575509864148</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.417825017081356</v>
+        <v>1.44277129092896</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1522148116477524</v>
+        <v>0.1450800820317895</v>
       </c>
       <c r="E5">
-        <v>0.2162890682743281</v>
+        <v>0.1853498347068765</v>
       </c>
       <c r="F5">
-        <v>1.279434449832493</v>
+        <v>2.10374419569213</v>
       </c>
       <c r="G5">
-        <v>1.321909495820705</v>
+        <v>1.525830467010252</v>
       </c>
       <c r="H5">
-        <v>0.7927115796730391</v>
+        <v>1.348839454501615</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.321458029312204</v>
+        <v>0.2615756107209677</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7059772069927135</v>
+        <v>0.3934411584033057</v>
       </c>
       <c r="M5">
-        <v>0.4875332601143825</v>
+        <v>0.3845515258338708</v>
       </c>
       <c r="N5">
-        <v>1.160579985163757</v>
+        <v>1.984586861980496</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.409029317897108</v>
+        <v>1.440667327608168</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1514946722195702</v>
+        <v>0.144846334279201</v>
       </c>
       <c r="E6">
-        <v>0.2153631061740491</v>
+        <v>0.1850512722272768</v>
       </c>
       <c r="F6">
-        <v>1.274965720342308</v>
+        <v>2.103469790653932</v>
       </c>
       <c r="G6">
-        <v>1.315140873444449</v>
+        <v>1.524754801673311</v>
       </c>
       <c r="H6">
-        <v>0.7899357538486811</v>
+        <v>1.348660778952706</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3201476505134337</v>
+        <v>0.2611527180915232</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7008910229328933</v>
+        <v>0.3920696990213628</v>
       </c>
       <c r="M6">
-        <v>0.4842304679100593</v>
+        <v>0.3837087190621631</v>
       </c>
       <c r="N6">
-        <v>1.162496717136314</v>
+        <v>1.985430239716074</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.470193836584173</v>
+        <v>1.455328568849097</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1564988029593195</v>
+        <v>0.1464649925122359</v>
       </c>
       <c r="E7">
-        <v>0.2217932955397757</v>
+        <v>0.1871199585953143</v>
       </c>
       <c r="F7">
-        <v>1.306257045054849</v>
+        <v>2.105495506452726</v>
       </c>
       <c r="G7">
-        <v>1.362411875198262</v>
+        <v>1.532325549568782</v>
       </c>
       <c r="H7">
-        <v>0.8093639367338596</v>
+        <v>1.349974092866915</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3292454921294308</v>
+        <v>0.2640838033669795</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7362377004085374</v>
+        <v>0.4016011328171203</v>
       </c>
       <c r="M7">
-        <v>0.5071900555915079</v>
+        <v>0.3895731559314228</v>
       </c>
       <c r="N7">
-        <v>1.149318223142899</v>
+        <v>1.979642340896518</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.743171650542791</v>
+        <v>1.521442956425801</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1787592093500763</v>
+        <v>0.1535142977612765</v>
       </c>
       <c r="E8">
-        <v>0.2502756025717368</v>
+        <v>0.196158127287724</v>
       </c>
       <c r="F8">
-        <v>1.451589014492399</v>
+        <v>2.117435931793324</v>
       </c>
       <c r="G8">
-        <v>1.578783172074623</v>
+        <v>1.568327769147402</v>
       </c>
       <c r="H8">
-        <v>0.8993653501729852</v>
+        <v>1.357581794141225</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.369487334588058</v>
+        <v>0.2769125841848705</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8934477358980359</v>
+        <v>0.4439574749586654</v>
       </c>
       <c r="M8">
-        <v>0.6094688813151379</v>
+        <v>0.4158078896661053</v>
       </c>
       <c r="N8">
-        <v>1.094336886089366</v>
+        <v>1.955735019251328</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.292526033321053</v>
+        <v>1.656160549815183</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2234899564954702</v>
+        <v>0.1670093895985474</v>
       </c>
       <c r="E9">
-        <v>0.3068745364148597</v>
+        <v>0.2135590207483844</v>
       </c>
       <c r="F9">
-        <v>1.767773193648239</v>
+        <v>2.151701943716958</v>
       </c>
       <c r="G9">
-        <v>2.037563338450155</v>
+        <v>1.64834852365459</v>
       </c>
       <c r="H9">
-        <v>1.094255962286155</v>
+        <v>1.379048087966595</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4491375489296132</v>
+        <v>0.3016895046370394</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.207981897812658</v>
+        <v>0.5280787067924564</v>
       </c>
       <c r="M9">
-        <v>0.8146436135664317</v>
+        <v>0.4685282006153884</v>
       </c>
       <c r="N9">
-        <v>0.998562132586315</v>
+        <v>1.914711020442454</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.70792187796917</v>
+        <v>1.758218527721453</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2574931570605514</v>
+        <v>0.1767318673748122</v>
       </c>
       <c r="E10">
-        <v>0.3493100049755995</v>
+        <v>0.2261502810200042</v>
       </c>
       <c r="F10">
-        <v>2.024561329353148</v>
+        <v>2.183559806445075</v>
       </c>
       <c r="G10">
-        <v>2.402640383865105</v>
+        <v>1.712984417820792</v>
       </c>
       <c r="H10">
-        <v>1.251927875100989</v>
+        <v>1.398847867726772</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.508543337947799</v>
+        <v>0.3196624420772025</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.444850342644855</v>
+        <v>0.5905346681691412</v>
       </c>
       <c r="M10">
-        <v>0.9694288711105443</v>
+        <v>0.5080388349408906</v>
       </c>
       <c r="N10">
-        <v>0.9361995923812501</v>
+        <v>1.888130585925573</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.900265261308448</v>
+        <v>1.805315530138898</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2733356109784637</v>
+        <v>0.1811148715438122</v>
       </c>
       <c r="E11">
-        <v>0.3689039283977422</v>
+        <v>0.231837300299091</v>
       </c>
       <c r="F11">
-        <v>2.148083309288864</v>
+        <v>2.199519009645016</v>
       </c>
       <c r="G11">
-        <v>2.576580686719154</v>
+        <v>1.743680701866367</v>
       </c>
       <c r="H11">
-        <v>1.327632476075848</v>
+        <v>1.408738381787742</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.535875375662954</v>
+        <v>0.3277890830900674</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.554366859922595</v>
+        <v>0.6190908157021227</v>
       </c>
       <c r="M11">
-        <v>1.041035486994346</v>
+        <v>0.5261823861851553</v>
       </c>
       <c r="N11">
-        <v>0.9097297141838609</v>
+        <v>1.876809197865846</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.973661918668029</v>
+        <v>1.82324600820499</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2794008103935255</v>
+        <v>0.1827690045391108</v>
       </c>
       <c r="E12">
-        <v>0.3763753574558066</v>
+        <v>0.233985004339182</v>
       </c>
       <c r="F12">
-        <v>2.195953678613634</v>
+        <v>2.20577441415081</v>
       </c>
       <c r="G12">
-        <v>2.643746868579768</v>
+        <v>1.755492212137284</v>
       </c>
       <c r="H12">
-        <v>1.356950855453732</v>
+        <v>1.412611321871651</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5462806040277286</v>
+        <v>0.3308593285044736</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.596139255865779</v>
+        <v>0.6299250795857176</v>
       </c>
       <c r="M12">
-        <v>1.068352120203308</v>
+        <v>0.5330772575998353</v>
       </c>
       <c r="N12">
-        <v>0.8999945462072532</v>
+        <v>1.872632688352276</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.957828431312862</v>
+        <v>1.819380103551509</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2780914126422829</v>
+        <v>0.182413005430405</v>
       </c>
       <c r="E13">
-        <v>0.374763781232609</v>
+        <v>0.233522717530235</v>
       </c>
       <c r="F13">
-        <v>2.185592976085459</v>
+        <v>2.204417755028018</v>
       </c>
       <c r="G13">
-        <v>2.629220774999538</v>
+        <v>1.752940028403827</v>
       </c>
       <c r="H13">
-        <v>1.350606324808126</v>
+        <v>1.411771529927904</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5440370080619346</v>
+        <v>0.3301984143091232</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.587128626165452</v>
+        <v>0.6275908096048965</v>
       </c>
       <c r="M13">
-        <v>1.062459565539996</v>
+        <v>0.5315912449867142</v>
       </c>
       <c r="N13">
-        <v>0.9020781029931868</v>
+        <v>1.873527254470503</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.90629195938169</v>
+        <v>1.806788763050065</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2738331996767442</v>
+        <v>0.1812510699844836</v>
       </c>
       <c r="E14">
-        <v>0.3695175104277197</v>
+        <v>0.2320141102537363</v>
       </c>
       <c r="F14">
-        <v>2.151998878051373</v>
+        <v>2.2000293906016</v>
       </c>
       <c r="G14">
-        <v>2.582079425780279</v>
+        <v>1.744648675346042</v>
       </c>
       <c r="H14">
-        <v>1.330030992038473</v>
+        <v>1.409054449959513</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5367302464025414</v>
+        <v>0.3280418173047934</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.557797178634672</v>
+        <v>0.6199817435376644</v>
       </c>
       <c r="M14">
-        <v>1.043278640470788</v>
+        <v>0.526749145130978</v>
       </c>
       <c r="N14">
-        <v>0.9089229232901772</v>
+        <v>1.876463376761293</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.874799722364003</v>
+        <v>1.799088672507366</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2712339086250921</v>
+        <v>0.1805386228761421</v>
       </c>
       <c r="E15">
-        <v>0.3663110620953205</v>
+        <v>0.2310892839733469</v>
       </c>
       <c r="F15">
-        <v>2.131568304713525</v>
+        <v>2.197369031156299</v>
       </c>
       <c r="G15">
-        <v>2.553378452541438</v>
+        <v>1.739594445632946</v>
       </c>
       <c r="H15">
-        <v>1.317515238938739</v>
+        <v>1.407406796641368</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5322621787870787</v>
+        <v>0.3267199086656802</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.539871504031538</v>
+        <v>0.6153236591742655</v>
       </c>
       <c r="M15">
-        <v>1.031556836482679</v>
+        <v>0.5237863799915772</v>
       </c>
       <c r="N15">
-        <v>0.9131536102902302</v>
+        <v>1.878276244180078</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.69542594952884</v>
+        <v>1.755154071199229</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2564663496060007</v>
+        <v>0.1764446360434846</v>
       </c>
       <c r="E16">
-        <v>0.3480361480883047</v>
+        <v>0.2257778015791203</v>
       </c>
       <c r="F16">
-        <v>2.016634682036639</v>
+        <v>2.182546443273765</v>
       </c>
       <c r="G16">
-        <v>2.391445129565994</v>
+        <v>1.711004495811494</v>
       </c>
       <c r="H16">
-        <v>1.247066967591621</v>
+        <v>1.398219326212399</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5067642200567661</v>
+        <v>0.3191303505089991</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.43773258005649</v>
+        <v>0.5886713559899874</v>
       </c>
       <c r="M16">
-        <v>0.964775644750091</v>
+        <v>0.5068565194100287</v>
       </c>
       <c r="N16">
-        <v>0.937968953189781</v>
+        <v>1.888885954839949</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.586301635709674</v>
+        <v>1.728372923525569</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.247510931147005</v>
+        <v>0.1739229902451882</v>
       </c>
       <c r="E17">
-        <v>0.3369059721290526</v>
+        <v>0.2225089421414879</v>
       </c>
       <c r="F17">
-        <v>1.947932935160281</v>
+        <v>2.17382972585682</v>
       </c>
       <c r="G17">
-        <v>2.294231905422919</v>
+        <v>1.693797776451845</v>
       </c>
       <c r="H17">
-        <v>1.204921308878255</v>
+        <v>1.392809798893779</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4912082287118125</v>
+        <v>0.3144617351048282</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.375557243974328</v>
+        <v>0.5723579801100414</v>
       </c>
       <c r="M17">
-        <v>0.9241329974600063</v>
+        <v>0.4965140307772131</v>
       </c>
       <c r="N17">
-        <v>0.9536892319054999</v>
+        <v>1.895591859547579</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.523849209814614</v>
+        <v>1.713032239858876</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.242394412049677</v>
+        <v>0.1724688536309884</v>
       </c>
       <c r="E18">
-        <v>0.3305307960843891</v>
+        <v>0.2206249382457131</v>
       </c>
       <c r="F18">
-        <v>1.909040201552685</v>
+        <v>2.168954108022788</v>
       </c>
       <c r="G18">
-        <v>2.239046560810465</v>
+        <v>1.684022544976983</v>
       </c>
       <c r="H18">
-        <v>1.181049529127165</v>
+        <v>1.389781505909838</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4822890948293548</v>
+        <v>0.3117718294911498</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.339958510681441</v>
+        <v>0.5629885769428995</v>
       </c>
       <c r="M18">
-        <v>0.9008668805089712</v>
+        <v>0.4905813108654158</v>
       </c>
       <c r="N18">
-        <v>0.9629088814352116</v>
+        <v>1.899521417299276</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.502755506245762</v>
+        <v>1.707849005752962</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2406676106445644</v>
+        <v>0.1719758601809929</v>
       </c>
       <c r="E19">
-        <v>0.3283765592989454</v>
+        <v>0.2199863863270437</v>
       </c>
       <c r="F19">
-        <v>1.895975000770221</v>
+        <v>2.167326978354595</v>
       </c>
       <c r="G19">
-        <v>2.220482187634218</v>
+        <v>1.680733660689867</v>
       </c>
       <c r="H19">
-        <v>1.173028137316294</v>
+        <v>1.388770437286354</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4792737755362424</v>
+        <v>0.310860277799236</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.327932019153195</v>
+        <v>0.5598186010458335</v>
       </c>
       <c r="M19">
-        <v>0.8930075133059745</v>
+        <v>0.4885753471697569</v>
       </c>
       <c r="N19">
-        <v>0.9660605834142899</v>
+        <v>1.900864352856509</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.597885196994469</v>
+        <v>1.731217293161421</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2484606074532394</v>
+        <v>0.1741918113483649</v>
       </c>
       <c r="E20">
-        <v>0.3380879768742773</v>
+        <v>0.2228573153263369</v>
       </c>
       <c r="F20">
-        <v>1.955181008556707</v>
+        <v>2.174743344446682</v>
       </c>
       <c r="G20">
-        <v>2.304503804695173</v>
+        <v>1.695616862913482</v>
       </c>
       <c r="H20">
-        <v>1.209369027027179</v>
+        <v>1.393377045208069</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4928611915632501</v>
+        <v>0.3149591978687454</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.382158733914252</v>
+        <v>0.5740931582163569</v>
       </c>
       <c r="M20">
-        <v>0.9284478448043316</v>
+        <v>0.4976133508069083</v>
       </c>
       <c r="N20">
-        <v>0.9519972774405971</v>
+        <v>1.894870501957257</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.921413624221771</v>
+        <v>1.810484547351052</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2750820428304621</v>
+        <v>0.1815925101314519</v>
       </c>
       <c r="E21">
-        <v>0.3710569795668448</v>
+        <v>0.2324573832829699</v>
       </c>
       <c r="F21">
-        <v>2.161835434163336</v>
+        <v>2.201312597444058</v>
       </c>
       <c r="G21">
-        <v>2.595889295828329</v>
+        <v>1.74707894577918</v>
       </c>
       <c r="H21">
-        <v>1.336056133023533</v>
+        <v>1.409849054120372</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.538874827539928</v>
+        <v>0.3286754561535759</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.566403964522664</v>
+        <v>0.6222161506609041</v>
       </c>
       <c r="M21">
-        <v>1.048906845667872</v>
+        <v>0.5281707287593491</v>
       </c>
       <c r="N21">
-        <v>0.9069044774228203</v>
+        <v>1.875597964073137</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.136165546996835</v>
+        <v>1.862848820454815</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2928723948980121</v>
+        <v>0.1863966136203885</v>
       </c>
       <c r="E22">
-        <v>0.3929107853395948</v>
+        <v>0.2386975140963017</v>
       </c>
       <c r="F22">
-        <v>2.303352521094993</v>
+        <v>2.219913344274417</v>
       </c>
       <c r="G22">
-        <v>2.793989945631637</v>
+        <v>1.781805978506952</v>
       </c>
       <c r="H22">
-        <v>1.42268982223743</v>
+        <v>1.421358585475275</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5692752266604799</v>
+        <v>0.3375982042880992</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.688598915482572</v>
+        <v>0.6537877384636772</v>
       </c>
       <c r="M22">
-        <v>1.128820038952597</v>
+        <v>0.5482833327446315</v>
       </c>
       <c r="N22">
-        <v>0.8791229127273894</v>
+        <v>1.863647186266356</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.021218828382473</v>
+        <v>1.834850086890356</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2833370097819596</v>
+        <v>0.1838355276269965</v>
       </c>
       <c r="E23">
-        <v>0.38121526752672</v>
+        <v>0.235370148765206</v>
       </c>
       <c r="F23">
-        <v>2.227184038410698</v>
+        <v>2.209872308533448</v>
       </c>
       <c r="G23">
-        <v>2.68749776764713</v>
+        <v>1.763170928535828</v>
       </c>
       <c r="H23">
-        <v>1.376072246307729</v>
+        <v>1.415147453718703</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5530159570010227</v>
+        <v>0.3328397875276181</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.623201102373855</v>
+        <v>0.6369264081967287</v>
       </c>
       <c r="M23">
-        <v>1.086049787909197</v>
+        <v>0.5375359466469689</v>
       </c>
       <c r="N23">
-        <v>0.8937904556249023</v>
+        <v>1.869966559107169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.592647388023238</v>
+        <v>1.72993117868856</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2480311598018403</v>
+        <v>0.1740702910712031</v>
       </c>
       <c r="E24">
-        <v>0.3375535194103279</v>
+        <v>0.2226998304315231</v>
       </c>
       <c r="F24">
-        <v>1.951902280390613</v>
+        <v>2.174329874744998</v>
       </c>
       <c r="G24">
-        <v>2.299857699175192</v>
+        <v>1.69479408916277</v>
       </c>
       <c r="H24">
-        <v>1.207357103378115</v>
+        <v>1.393120338648032</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.492113812442625</v>
+        <v>0.3147343131946485</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.379173746881548</v>
+        <v>0.5733086549877555</v>
       </c>
       <c r="M24">
-        <v>0.9264967933612738</v>
+        <v>0.4971163067370696</v>
       </c>
       <c r="N24">
-        <v>0.9527616447669089</v>
+        <v>1.895196396451233</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.142093587861893</v>
+        <v>1.619174258298813</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.211227457376836</v>
+        <v>0.1633929687939144</v>
       </c>
       <c r="E25">
-        <v>0.291445070536156</v>
+        <v>0.2088858117215011</v>
       </c>
       <c r="F25">
-        <v>1.678366542787643</v>
+        <v>2.14126347280444</v>
       </c>
       <c r="G25">
-        <v>1.909081976356106</v>
+        <v>1.625681804781181</v>
       </c>
       <c r="H25">
-        <v>1.03924618611282</v>
+        <v>1.372536136007767</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4274692092444496</v>
+        <v>0.2950272870148041</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.122032526845999</v>
+        <v>0.5052075932231332</v>
       </c>
       <c r="M25">
-        <v>0.7585253296589798</v>
+        <v>0.4541295426831056</v>
       </c>
       <c r="N25">
-        <v>1.023117619692293</v>
+        <v>1.925183153310876</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.539699918141963</v>
+        <v>1.817976548198601</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1554017772857748</v>
+        <v>0.1848477269960114</v>
       </c>
       <c r="E2">
-        <v>0.1985850294174796</v>
+        <v>0.2580301753387388</v>
       </c>
       <c r="F2">
-        <v>2.121403027924472</v>
+        <v>1.492893136253826</v>
       </c>
       <c r="G2">
-        <v>1.578716346805095</v>
+        <v>1.639507218604109</v>
       </c>
       <c r="H2">
-        <v>1.360084852487887</v>
+        <v>0.924886488375023</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2803627659302492</v>
+        <v>0.3804261999350445</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.45550550548964</v>
+        <v>0.9364004323640245</v>
       </c>
       <c r="M2">
-        <v>0.423002409223642</v>
+        <v>0.6374514751453333</v>
       </c>
       <c r="N2">
-        <v>1.949654226969095</v>
+        <v>1.08023216926162</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.48713522131581</v>
+        <v>1.602008615437882</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.149902513120125</v>
+        <v>0.1672593219514553</v>
       </c>
       <c r="E3">
-        <v>0.1915218588740046</v>
+        <v>0.2355866765510157</v>
       </c>
       <c r="F3">
-        <v>2.110718933671393</v>
+        <v>1.375328726125161</v>
       </c>
       <c r="G3">
-        <v>1.549299053078215</v>
+        <v>1.4658316181212</v>
       </c>
       <c r="H3">
-        <v>1.353321159804608</v>
+        <v>0.8521821202587603</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2703275671336769</v>
+        <v>0.3487458157357821</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.422093885276638</v>
+        <v>0.8122516192076432</v>
       </c>
       <c r="M3">
-        <v>0.4022333058380099</v>
+        <v>0.5566135887976387</v>
       </c>
       <c r="N3">
-        <v>1.967734668824122</v>
+        <v>1.122035804081897</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.455500899976585</v>
+        <v>1.470911086217626</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.146483881268324</v>
+        <v>0.1565574363640181</v>
       </c>
       <c r="E4">
-        <v>0.1871441150994713</v>
+        <v>0.2218685799946556</v>
       </c>
       <c r="F4">
-        <v>2.10552084901019</v>
+        <v>1.30662693691329</v>
       </c>
       <c r="G4">
-        <v>1.532415551298783</v>
+        <v>1.362968975487206</v>
       </c>
       <c r="H4">
-        <v>1.349990450260776</v>
+        <v>0.8095934742404154</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.264118042959808</v>
+        <v>0.3293519831691043</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4017128243601178</v>
+        <v>0.736651895973381</v>
       </c>
       <c r="M4">
-        <v>0.3896419721494269</v>
+        <v>0.5074591881724473</v>
       </c>
       <c r="N4">
-        <v>1.979575509864148</v>
+        <v>1.149165726797413</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.44277129092896</v>
+        <v>1.4178250170811</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1450800820317895</v>
+        <v>0.1522148116475464</v>
       </c>
       <c r="E5">
-        <v>0.1853498347068765</v>
+        <v>0.2162890682743317</v>
       </c>
       <c r="F5">
-        <v>2.10374419569213</v>
+        <v>1.279434449832479</v>
       </c>
       <c r="G5">
-        <v>1.525830467010252</v>
+        <v>1.321909495820705</v>
       </c>
       <c r="H5">
-        <v>1.348839454501615</v>
+        <v>0.7927115796729538</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2615756107209677</v>
+        <v>0.3214580293122609</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3934411584033057</v>
+        <v>0.7059772069926851</v>
       </c>
       <c r="M5">
-        <v>0.3845515258338708</v>
+        <v>0.4875332601143896</v>
       </c>
       <c r="N5">
-        <v>1.984586861980496</v>
+        <v>1.160579985163757</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.440667327608168</v>
+        <v>1.409029317896994</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.144846334279201</v>
+        <v>0.1514946722195845</v>
       </c>
       <c r="E6">
-        <v>0.1850512722272768</v>
+        <v>0.2153631061740491</v>
       </c>
       <c r="F6">
-        <v>2.103469790653932</v>
+        <v>1.274965720342308</v>
       </c>
       <c r="G6">
-        <v>1.524754801673311</v>
+        <v>1.315140873444477</v>
       </c>
       <c r="H6">
-        <v>1.348660778952706</v>
+        <v>0.7899357538486811</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2611527180915232</v>
+        <v>0.3201476505134551</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3920696990213628</v>
+        <v>0.7008910229329501</v>
       </c>
       <c r="M6">
-        <v>0.3837087190621631</v>
+        <v>0.4842304679100522</v>
       </c>
       <c r="N6">
-        <v>1.985430239716074</v>
+        <v>1.162496717136385</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.455328568849097</v>
+        <v>1.470193836584173</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1464649925122359</v>
+        <v>0.1564988029592413</v>
       </c>
       <c r="E7">
-        <v>0.1871199585953143</v>
+        <v>0.2217932955397757</v>
       </c>
       <c r="F7">
-        <v>2.105495506452726</v>
+        <v>1.306257045054849</v>
       </c>
       <c r="G7">
-        <v>1.532325549568782</v>
+        <v>1.362411875198347</v>
       </c>
       <c r="H7">
-        <v>1.349974092866915</v>
+        <v>0.8093639367338596</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2640838033669795</v>
+        <v>0.3292454921294521</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4016011328171203</v>
+        <v>0.7362377004084522</v>
       </c>
       <c r="M7">
-        <v>0.3895731559314228</v>
+        <v>0.5071900555915079</v>
       </c>
       <c r="N7">
-        <v>1.979642340896518</v>
+        <v>1.149318223142913</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.521442956425801</v>
+        <v>1.743171650542678</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1535142977612765</v>
+        <v>0.1787592093500336</v>
       </c>
       <c r="E8">
-        <v>0.196158127287724</v>
+        <v>0.2502756025717616</v>
       </c>
       <c r="F8">
-        <v>2.117435931793324</v>
+        <v>1.451589014492399</v>
       </c>
       <c r="G8">
-        <v>1.568327769147402</v>
+        <v>1.578783172074566</v>
       </c>
       <c r="H8">
-        <v>1.357581794141225</v>
+        <v>0.8993653501729852</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2769125841848705</v>
+        <v>0.3694873345881433</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4439574749586654</v>
+        <v>0.8934477358980359</v>
       </c>
       <c r="M8">
-        <v>0.4158078896661053</v>
+        <v>0.6094688813151379</v>
       </c>
       <c r="N8">
-        <v>1.955735019251328</v>
+        <v>1.094336886089366</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.656160549815183</v>
+        <v>2.29252603332111</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1670093895985474</v>
+        <v>0.2234899564953565</v>
       </c>
       <c r="E9">
-        <v>0.2135590207483844</v>
+        <v>0.3068745364148384</v>
       </c>
       <c r="F9">
-        <v>2.151701943716958</v>
+        <v>1.76777319364821</v>
       </c>
       <c r="G9">
-        <v>1.64834852365459</v>
+        <v>2.037563338450127</v>
       </c>
       <c r="H9">
-        <v>1.379048087966595</v>
+        <v>1.094255962286155</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3016895046370394</v>
+        <v>0.4491375489296558</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5280787067924564</v>
+        <v>1.207981897812687</v>
       </c>
       <c r="M9">
-        <v>0.4685282006153884</v>
+        <v>0.8146436135664246</v>
       </c>
       <c r="N9">
-        <v>1.914711020442454</v>
+        <v>0.9985621325863221</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.758218527721453</v>
+        <v>2.707921877969227</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1767318673748122</v>
+        <v>0.2574931570604662</v>
       </c>
       <c r="E10">
-        <v>0.2261502810200042</v>
+        <v>0.3493100049756066</v>
       </c>
       <c r="F10">
-        <v>2.183559806445075</v>
+        <v>2.024561329353162</v>
       </c>
       <c r="G10">
-        <v>1.712984417820792</v>
+        <v>2.402640383865219</v>
       </c>
       <c r="H10">
-        <v>1.398847867726772</v>
+        <v>1.251927875100904</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3196624420772025</v>
+        <v>0.5085433379478133</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5905346681691412</v>
+        <v>1.444850342644884</v>
       </c>
       <c r="M10">
-        <v>0.5080388349408906</v>
+        <v>0.9694288711105585</v>
       </c>
       <c r="N10">
-        <v>1.888130585925573</v>
+        <v>0.9361995923812287</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.805315530138898</v>
+        <v>2.900265261308618</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1811148715438122</v>
+        <v>0.2733356109784779</v>
       </c>
       <c r="E11">
-        <v>0.231837300299091</v>
+        <v>0.3689039283977067</v>
       </c>
       <c r="F11">
-        <v>2.199519009645016</v>
+        <v>2.14808330928885</v>
       </c>
       <c r="G11">
-        <v>1.743680701866367</v>
+        <v>2.576580686719126</v>
       </c>
       <c r="H11">
-        <v>1.408738381787742</v>
+        <v>1.32763247607582</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3277890830900674</v>
+        <v>0.535875375662954</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6190908157021227</v>
+        <v>1.554366859922595</v>
       </c>
       <c r="M11">
-        <v>0.5261823861851553</v>
+        <v>1.041035486994346</v>
       </c>
       <c r="N11">
-        <v>1.876809197865846</v>
+        <v>0.9097297141838254</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.82324600820499</v>
+        <v>2.973661918667801</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1827690045391108</v>
+        <v>0.279400810393426</v>
       </c>
       <c r="E12">
-        <v>0.233985004339182</v>
+        <v>0.3763753574558137</v>
       </c>
       <c r="F12">
-        <v>2.20577441415081</v>
+        <v>2.19595367861362</v>
       </c>
       <c r="G12">
-        <v>1.755492212137284</v>
+        <v>2.643746868579882</v>
       </c>
       <c r="H12">
-        <v>1.412611321871651</v>
+        <v>1.356950855453675</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3308593285044736</v>
+        <v>0.546280604027757</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6299250795857176</v>
+        <v>1.59613925586558</v>
       </c>
       <c r="M12">
-        <v>0.5330772575998353</v>
+        <v>1.068352120203301</v>
       </c>
       <c r="N12">
-        <v>1.872632688352276</v>
+        <v>0.8999945462072034</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.819380103551509</v>
+        <v>2.957828431312748</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.182413005430405</v>
+        <v>0.2780914126422829</v>
       </c>
       <c r="E13">
-        <v>0.233522717530235</v>
+        <v>0.374763781232609</v>
       </c>
       <c r="F13">
-        <v>2.204417755028018</v>
+        <v>2.185592976085459</v>
       </c>
       <c r="G13">
-        <v>1.752940028403827</v>
+        <v>2.62922077499951</v>
       </c>
       <c r="H13">
-        <v>1.411771529927904</v>
+        <v>1.350606324808041</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3301984143091232</v>
+        <v>0.5440370080619914</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6275908096048965</v>
+        <v>1.587128626165452</v>
       </c>
       <c r="M13">
-        <v>0.5315912449867142</v>
+        <v>1.06245956554001</v>
       </c>
       <c r="N13">
-        <v>1.873527254470503</v>
+        <v>0.9020781029931939</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.806788763050065</v>
+        <v>2.906291959381747</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1812510699844836</v>
+        <v>0.27383319967673</v>
       </c>
       <c r="E14">
-        <v>0.2320141102537363</v>
+        <v>0.3695175104276984</v>
       </c>
       <c r="F14">
-        <v>2.2000293906016</v>
+        <v>2.151998878051387</v>
       </c>
       <c r="G14">
-        <v>1.744648675346042</v>
+        <v>2.58207942578025</v>
       </c>
       <c r="H14">
-        <v>1.409054449959513</v>
+        <v>1.330030992038445</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3280418173047934</v>
+        <v>0.5367302464025698</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6199817435376644</v>
+        <v>1.557797178634559</v>
       </c>
       <c r="M14">
-        <v>0.526749145130978</v>
+        <v>1.043278640470788</v>
       </c>
       <c r="N14">
-        <v>1.876463376761293</v>
+        <v>0.9089229232901701</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.799088672507366</v>
+        <v>2.874799722364116</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1805386228761421</v>
+        <v>0.2712339086251916</v>
       </c>
       <c r="E15">
-        <v>0.2310892839733469</v>
+        <v>0.3663110620953134</v>
       </c>
       <c r="F15">
-        <v>2.197369031156299</v>
+        <v>2.131568304713539</v>
       </c>
       <c r="G15">
-        <v>1.739594445632946</v>
+        <v>2.553378452541494</v>
       </c>
       <c r="H15">
-        <v>1.407406796641368</v>
+        <v>1.317515238938739</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3267199086656802</v>
+        <v>0.5322621787870361</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6153236591742655</v>
+        <v>1.539871504031623</v>
       </c>
       <c r="M15">
-        <v>0.5237863799915772</v>
+        <v>1.031556836482693</v>
       </c>
       <c r="N15">
-        <v>1.878276244180078</v>
+        <v>0.9131536102901947</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.755154071199229</v>
+        <v>2.695425949528897</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1764446360434846</v>
+        <v>0.2564663496061002</v>
       </c>
       <c r="E16">
-        <v>0.2257778015791203</v>
+        <v>0.3480361480883118</v>
       </c>
       <c r="F16">
-        <v>2.182546443273765</v>
+        <v>2.016634682036624</v>
       </c>
       <c r="G16">
-        <v>1.711004495811494</v>
+        <v>2.391445129565909</v>
       </c>
       <c r="H16">
-        <v>1.398219326212399</v>
+        <v>1.247066967591621</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3191303505089991</v>
+        <v>0.5067642200567235</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5886713559899874</v>
+        <v>1.437732580056576</v>
       </c>
       <c r="M16">
-        <v>0.5068565194100287</v>
+        <v>0.9647756447500768</v>
       </c>
       <c r="N16">
-        <v>1.888885954839949</v>
+        <v>0.9379689531897597</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.728372923525569</v>
+        <v>2.586301635709503</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1739229902451882</v>
+        <v>0.2475109311469907</v>
       </c>
       <c r="E17">
-        <v>0.2225089421414879</v>
+        <v>0.3369059721290455</v>
       </c>
       <c r="F17">
-        <v>2.17382972585682</v>
+        <v>1.947932935160281</v>
       </c>
       <c r="G17">
-        <v>1.693797776451845</v>
+        <v>2.29423190542289</v>
       </c>
       <c r="H17">
-        <v>1.392809798893779</v>
+        <v>1.204921308878255</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3144617351048282</v>
+        <v>0.4912082287118693</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5723579801100414</v>
+        <v>1.375557243974299</v>
       </c>
       <c r="M17">
-        <v>0.4965140307772131</v>
+        <v>0.924132997459985</v>
       </c>
       <c r="N17">
-        <v>1.895591859547579</v>
+        <v>0.9536892319054999</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.713032239858876</v>
+        <v>2.523849209814671</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1724688536309884</v>
+        <v>0.2423944120498049</v>
       </c>
       <c r="E18">
-        <v>0.2206249382457131</v>
+        <v>0.3305307960843891</v>
       </c>
       <c r="F18">
-        <v>2.168954108022788</v>
+        <v>1.909040201552713</v>
       </c>
       <c r="G18">
-        <v>1.684022544976983</v>
+        <v>2.23904656081038</v>
       </c>
       <c r="H18">
-        <v>1.389781505909838</v>
+        <v>1.181049529126938</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3117718294911498</v>
+        <v>0.4822890948292837</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5629885769428995</v>
+        <v>1.339958510681328</v>
       </c>
       <c r="M18">
-        <v>0.4905813108654158</v>
+        <v>0.9008668805089783</v>
       </c>
       <c r="N18">
-        <v>1.899521417299276</v>
+        <v>0.9629088814352755</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.707849005752962</v>
+        <v>2.502755506245705</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1719758601809929</v>
+        <v>0.2406676106445502</v>
       </c>
       <c r="E19">
-        <v>0.2199863863270437</v>
+        <v>0.3283765592989667</v>
       </c>
       <c r="F19">
-        <v>2.167326978354595</v>
+        <v>1.895975000770264</v>
       </c>
       <c r="G19">
-        <v>1.680733660689867</v>
+        <v>2.22048218763419</v>
       </c>
       <c r="H19">
-        <v>1.388770437286354</v>
+        <v>1.173028137316294</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.310860277799236</v>
+        <v>0.4792737755361713</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5598186010458335</v>
+        <v>1.327932019153309</v>
       </c>
       <c r="M19">
-        <v>0.4885753471697569</v>
+        <v>0.8930075133059674</v>
       </c>
       <c r="N19">
-        <v>1.900864352856509</v>
+        <v>0.9660605834142899</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.731217293161421</v>
+        <v>2.597885196994582</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1741918113483649</v>
+        <v>0.2484606074533531</v>
       </c>
       <c r="E20">
-        <v>0.2228573153263369</v>
+        <v>0.338087976874256</v>
       </c>
       <c r="F20">
-        <v>2.174743344446682</v>
+        <v>1.955181008556707</v>
       </c>
       <c r="G20">
-        <v>1.695616862913482</v>
+        <v>2.304503804695202</v>
       </c>
       <c r="H20">
-        <v>1.393377045208069</v>
+        <v>1.209369027027179</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3149591978687454</v>
+        <v>0.4928611915631507</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5740931582163569</v>
+        <v>1.382158733914309</v>
       </c>
       <c r="M20">
-        <v>0.4976133508069083</v>
+        <v>0.9284478448043245</v>
       </c>
       <c r="N20">
-        <v>1.894870501957257</v>
+        <v>0.9519972774405971</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.810484547351052</v>
+        <v>2.921413624222055</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1815925101314519</v>
+        <v>0.2750820428303484</v>
       </c>
       <c r="E21">
-        <v>0.2324573832829699</v>
+        <v>0.3710569795668661</v>
       </c>
       <c r="F21">
-        <v>2.201312597444058</v>
+        <v>2.161835434163336</v>
       </c>
       <c r="G21">
-        <v>1.74707894577918</v>
+        <v>2.595889295828215</v>
       </c>
       <c r="H21">
-        <v>1.409849054120372</v>
+        <v>1.336056133023561</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3286754561535759</v>
+        <v>0.5388748275397859</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6222161506609041</v>
+        <v>1.566403964522607</v>
       </c>
       <c r="M21">
-        <v>0.5281707287593491</v>
+        <v>1.048906845667872</v>
       </c>
       <c r="N21">
-        <v>1.875597964073137</v>
+        <v>0.9069044774228132</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.862848820454815</v>
+        <v>3.136165546996892</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1863966136203885</v>
+        <v>0.2928723948980263</v>
       </c>
       <c r="E22">
-        <v>0.2386975140963017</v>
+        <v>0.3929107853395877</v>
       </c>
       <c r="F22">
-        <v>2.219913344274417</v>
+        <v>2.303352521095022</v>
       </c>
       <c r="G22">
-        <v>1.781805978506952</v>
+        <v>2.793989945631523</v>
       </c>
       <c r="H22">
-        <v>1.421358585475275</v>
+        <v>1.422689822237544</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3375982042880992</v>
+        <v>0.5692752266603947</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6537877384636772</v>
+        <v>1.688598915482714</v>
       </c>
       <c r="M22">
-        <v>0.5482833327446315</v>
+        <v>1.128820038952583</v>
       </c>
       <c r="N22">
-        <v>1.863647186266356</v>
+        <v>0.8791229127273823</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.834850086890356</v>
+        <v>3.02121882838253</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1838355276269965</v>
+        <v>0.2833370097819596</v>
       </c>
       <c r="E23">
-        <v>0.235370148765206</v>
+        <v>0.38121526752672</v>
       </c>
       <c r="F23">
-        <v>2.209872308533448</v>
+        <v>2.227184038410698</v>
       </c>
       <c r="G23">
-        <v>1.763170928535828</v>
+        <v>2.687497767647187</v>
       </c>
       <c r="H23">
-        <v>1.415147453718703</v>
+        <v>1.376072246307842</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3328397875276181</v>
+        <v>0.5530159570010369</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6369264081967287</v>
+        <v>1.623201102373855</v>
       </c>
       <c r="M23">
-        <v>0.5375359466469689</v>
+        <v>1.086049787909204</v>
       </c>
       <c r="N23">
-        <v>1.869966559107169</v>
+        <v>0.8937904556248881</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.72993117868856</v>
+        <v>2.592647388023238</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1740702910712031</v>
+        <v>0.2480311598017408</v>
       </c>
       <c r="E24">
-        <v>0.2226998304315231</v>
+        <v>0.3375535194103421</v>
       </c>
       <c r="F24">
-        <v>2.174329874744998</v>
+        <v>1.951902280390613</v>
       </c>
       <c r="G24">
-        <v>1.69479408916277</v>
+        <v>2.299857699175163</v>
       </c>
       <c r="H24">
-        <v>1.393120338648032</v>
+        <v>1.207357103378087</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3147343131946485</v>
+        <v>0.492113812442625</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5733086549877555</v>
+        <v>1.379173746881435</v>
       </c>
       <c r="M24">
-        <v>0.4971163067370696</v>
+        <v>0.9264967933612667</v>
       </c>
       <c r="N24">
-        <v>1.895196396451233</v>
+        <v>0.9527616447669871</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.619174258298813</v>
+        <v>2.142093587861893</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1633929687939144</v>
+        <v>0.2112274573769497</v>
       </c>
       <c r="E25">
-        <v>0.2088858117215011</v>
+        <v>0.291445070536156</v>
       </c>
       <c r="F25">
-        <v>2.14126347280444</v>
+        <v>1.678366542787643</v>
       </c>
       <c r="G25">
-        <v>1.625681804781181</v>
+        <v>1.909081976356163</v>
       </c>
       <c r="H25">
-        <v>1.372536136007767</v>
+        <v>1.039246186112848</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2950272870148041</v>
+        <v>0.427469209244336</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5052075932231332</v>
+        <v>1.122032526845999</v>
       </c>
       <c r="M25">
-        <v>0.4541295426831056</v>
+        <v>0.7585253296589869</v>
       </c>
       <c r="N25">
-        <v>1.925183153310876</v>
+        <v>1.023117619692208</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.817976548198601</v>
+        <v>1.314749053249272</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1848477269960114</v>
+        <v>0.1300585038702495</v>
       </c>
       <c r="E2">
-        <v>0.2580301753387388</v>
+        <v>0.1824663067221657</v>
       </c>
       <c r="F2">
-        <v>1.492893136253826</v>
+        <v>0.5576693721547556</v>
       </c>
       <c r="G2">
-        <v>1.639507218604109</v>
+        <v>0.4279188487046923</v>
       </c>
       <c r="H2">
-        <v>0.924886488375023</v>
+        <v>0.001637882138897373</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01418632584753032</v>
       </c>
       <c r="J2">
-        <v>0.3804261999350445</v>
+        <v>0.3008100788162835</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3316615242194314</v>
       </c>
       <c r="L2">
-        <v>0.9364004323640245</v>
+        <v>0.3004264519745803</v>
       </c>
       <c r="M2">
-        <v>0.6374514751453333</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.08023216926162</v>
+        <v>0.5916548221955082</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4359777000998974</v>
+      </c>
+      <c r="P2">
+        <v>1.358361653870659</v>
+      </c>
+      <c r="Q2">
+        <v>1.48748187393474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.602008615437882</v>
+        <v>1.151811571400629</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1672593219514553</v>
+        <v>0.1298864725898414</v>
       </c>
       <c r="E3">
-        <v>0.2355866765510157</v>
+        <v>0.176044713683817</v>
       </c>
       <c r="F3">
-        <v>1.375328726125161</v>
+        <v>0.5260388742739721</v>
       </c>
       <c r="G3">
-        <v>1.4658316181212</v>
+        <v>0.3867302009745401</v>
       </c>
       <c r="H3">
-        <v>0.8521821202587603</v>
+        <v>0.002688560212838143</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01617893743828747</v>
       </c>
       <c r="J3">
-        <v>0.3487458157357821</v>
+        <v>0.2854494804763874</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3444752096334429</v>
       </c>
       <c r="L3">
-        <v>0.8122516192076432</v>
+        <v>0.2830642626343121</v>
       </c>
       <c r="M3">
-        <v>0.5566135887976387</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.122035804081897</v>
+        <v>0.5162357152743482</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3809955077612202</v>
+      </c>
+      <c r="P3">
+        <v>1.322651243599793</v>
+      </c>
+      <c r="Q3">
+        <v>1.367708005975175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.470911086217626</v>
+        <v>1.051047237011176</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1565574363640181</v>
+        <v>0.1298027816355511</v>
       </c>
       <c r="E4">
-        <v>0.2218685799946556</v>
+        <v>0.1721003519178428</v>
       </c>
       <c r="F4">
-        <v>1.30662693691329</v>
+        <v>0.5071430234316736</v>
       </c>
       <c r="G4">
-        <v>1.362968975487206</v>
+        <v>0.3618508371756661</v>
       </c>
       <c r="H4">
-        <v>0.8095934742404154</v>
+        <v>0.00349178157852581</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01754651650255346</v>
       </c>
       <c r="J4">
-        <v>0.3293519831691043</v>
+        <v>0.2763106922742082</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.352657084705321</v>
       </c>
       <c r="L4">
-        <v>0.736651895973381</v>
+        <v>0.2724020209679594</v>
       </c>
       <c r="M4">
-        <v>0.5074591881724473</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.149165726797413</v>
+        <v>0.4701790059632742</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3471816718068226</v>
+      </c>
+      <c r="P4">
+        <v>1.30166544596301</v>
+      </c>
+      <c r="Q4">
+        <v>1.295640371814756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.4178250170811</v>
+        <v>1.008621856414948</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1522148116475464</v>
+        <v>0.1297600833330632</v>
       </c>
       <c r="E5">
-        <v>0.2162890682743317</v>
+        <v>0.1705660356635761</v>
       </c>
       <c r="F5">
-        <v>1.279434449832479</v>
+        <v>0.4992558926947197</v>
       </c>
       <c r="G5">
-        <v>1.321909495820705</v>
+        <v>0.3515924454398061</v>
       </c>
       <c r="H5">
-        <v>0.7927115796729538</v>
+        <v>0.00385871325793069</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01822986875318833</v>
       </c>
       <c r="J5">
-        <v>0.3214580293122609</v>
+        <v>0.2725454985264406</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3559562095672497</v>
       </c>
       <c r="L5">
-        <v>0.7059772069926851</v>
+        <v>0.2682581097164345</v>
       </c>
       <c r="M5">
-        <v>0.4875332601143896</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.160579985163757</v>
+        <v>0.4522778474761679</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3334327441125566</v>
+      </c>
+      <c r="P5">
+        <v>1.294220787139565</v>
+      </c>
+      <c r="Q5">
+        <v>1.265929823070906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.409029317896994</v>
+        <v>1.000116320733298</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1514946722195845</v>
+        <v>0.129736612784431</v>
       </c>
       <c r="E6">
-        <v>0.2153631061740491</v>
+        <v>0.1704025668739746</v>
       </c>
       <c r="F6">
-        <v>1.274965720342308</v>
+        <v>0.4975712569187252</v>
       </c>
       <c r="G6">
-        <v>1.315140873444477</v>
+        <v>0.3496308355840085</v>
       </c>
       <c r="H6">
-        <v>0.7899357538486811</v>
+        <v>0.003923833413209454</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01846366895405538</v>
       </c>
       <c r="J6">
-        <v>0.3201476505134551</v>
+        <v>0.2717881965994451</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3563726228967012</v>
       </c>
       <c r="L6">
-        <v>0.7008910229329501</v>
+        <v>0.2678195633488514</v>
       </c>
       <c r="M6">
-        <v>0.4842304679100522</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.162496717136385</v>
+        <v>0.4503003313755443</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.331203932099406</v>
+      </c>
+      <c r="P6">
+        <v>1.294075300474049</v>
+      </c>
+      <c r="Q6">
+        <v>1.260172303864124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.470193836584173</v>
+        <v>1.046503292922807</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1564988029592413</v>
+        <v>0.1297577465215771</v>
       </c>
       <c r="E7">
-        <v>0.2217932955397757</v>
+        <v>0.1723315426455621</v>
       </c>
       <c r="F7">
-        <v>1.306257045054849</v>
+        <v>0.5059923771534898</v>
       </c>
       <c r="G7">
-        <v>1.362411875198347</v>
+        <v>0.3609913709513961</v>
       </c>
       <c r="H7">
-        <v>0.8093639367338596</v>
+        <v>0.003501410944826533</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01786200826231177</v>
       </c>
       <c r="J7">
-        <v>0.3292454921294521</v>
+        <v>0.2758878300722785</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3523350299207055</v>
       </c>
       <c r="L7">
-        <v>0.7362377004084522</v>
+        <v>0.2730320240047988</v>
       </c>
       <c r="M7">
-        <v>0.5071900555915079</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.149318223142913</v>
+        <v>0.4726492296500737</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.34714665536859</v>
+      </c>
+      <c r="P7">
+        <v>1.304530774716014</v>
+      </c>
+      <c r="Q7">
+        <v>1.292931950065707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.743171650542678</v>
+        <v>1.253418795736309</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1787592093500336</v>
+        <v>0.1299406961499727</v>
       </c>
       <c r="E8">
-        <v>0.2502756025717616</v>
+        <v>0.1805957157118687</v>
       </c>
       <c r="F8">
-        <v>1.451589014492399</v>
+        <v>0.5452722017835967</v>
       </c>
       <c r="G8">
-        <v>1.578783172074566</v>
+        <v>0.4126725481670519</v>
       </c>
       <c r="H8">
-        <v>0.8993653501729852</v>
+        <v>0.001970636333697429</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01521378919844629</v>
       </c>
       <c r="J8">
-        <v>0.3694873345881433</v>
+        <v>0.294960382163282</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3355577272669061</v>
       </c>
       <c r="L8">
-        <v>0.8934477358980359</v>
+        <v>0.2953650242373556</v>
       </c>
       <c r="M8">
-        <v>0.6094688813151379</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.094336886089366</v>
+        <v>0.5692051086479353</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4172290446354836</v>
+      </c>
+      <c r="P8">
+        <v>1.349890353656477</v>
+      </c>
+      <c r="Q8">
+        <v>1.44281312372226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.29252603332111</v>
+        <v>1.660533313896309</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2234899564953565</v>
+        <v>0.130560676555544</v>
       </c>
       <c r="E9">
-        <v>0.3068745364148384</v>
+        <v>0.1963644096014399</v>
       </c>
       <c r="F9">
-        <v>1.76777319364821</v>
+        <v>0.6286397481628754</v>
       </c>
       <c r="G9">
-        <v>2.037563338450127</v>
+        <v>0.5189296596021507</v>
       </c>
       <c r="H9">
-        <v>1.094255962286155</v>
+        <v>0.0002995061810198152</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01073804189745431</v>
       </c>
       <c r="J9">
-        <v>0.4491375489296558</v>
+        <v>0.3355055745923465</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3058232452266281</v>
       </c>
       <c r="L9">
-        <v>1.207981897812687</v>
+        <v>0.3379768632049291</v>
       </c>
       <c r="M9">
-        <v>0.8146436135664246</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9985621325863221</v>
+        <v>0.7558802304356789</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5540059960422639</v>
+      </c>
+      <c r="P9">
+        <v>1.441095376169343</v>
+      </c>
+      <c r="Q9">
+        <v>1.753648784427952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.707921877969227</v>
+        <v>1.944135583828881</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2574931570604662</v>
+        <v>0.1310863225483665</v>
       </c>
       <c r="E10">
-        <v>0.3493100049756066</v>
+        <v>0.2106236526593008</v>
       </c>
       <c r="F10">
-        <v>2.024561329353162</v>
+        <v>0.6849244425230623</v>
       </c>
       <c r="G10">
-        <v>2.402640383865219</v>
+        <v>0.5939423445213237</v>
       </c>
       <c r="H10">
-        <v>1.251927875100904</v>
+        <v>0.000187694268029226</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00844910963189438</v>
       </c>
       <c r="J10">
-        <v>0.5085433379478133</v>
+        <v>0.3641469762727638</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2847832373252221</v>
       </c>
       <c r="L10">
-        <v>1.444850342644884</v>
+        <v>0.3759344485635054</v>
       </c>
       <c r="M10">
-        <v>0.9694288711105585</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9361995923812287</v>
+        <v>0.8837283820563755</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.648537191188268</v>
+      </c>
+      <c r="P10">
+        <v>1.525981039714978</v>
+      </c>
+      <c r="Q10">
+        <v>1.973098154800539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.900265261308618</v>
+        <v>1.979785507406689</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2733356109784779</v>
+        <v>0.1320840305552906</v>
       </c>
       <c r="E11">
-        <v>0.3689039283977067</v>
+        <v>0.2427536983938126</v>
       </c>
       <c r="F11">
-        <v>2.14808330928885</v>
+        <v>0.643958986311354</v>
       </c>
       <c r="G11">
-        <v>2.576580686719126</v>
+        <v>0.5804668761843175</v>
       </c>
       <c r="H11">
-        <v>1.32763247607582</v>
+        <v>0.01875303278562157</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008501149171150857</v>
       </c>
       <c r="J11">
-        <v>0.535875375662954</v>
+        <v>0.3534199553638047</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2715636259354204</v>
       </c>
       <c r="L11">
-        <v>1.554366859922595</v>
+        <v>0.4550978376217927</v>
       </c>
       <c r="M11">
-        <v>1.041035486994346</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9097297141838254</v>
+        <v>0.8403998439420945</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6406678049946422</v>
+      </c>
+      <c r="P11">
+        <v>1.674765020325722</v>
+      </c>
+      <c r="Q11">
+        <v>1.922267801932719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.973661918667801</v>
+        <v>1.955283248047863</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.279400810393426</v>
+        <v>0.1344002990943025</v>
       </c>
       <c r="E12">
-        <v>0.3763753574558137</v>
+        <v>0.2713299109442424</v>
       </c>
       <c r="F12">
-        <v>2.19595367861362</v>
+        <v>0.5994128831571359</v>
       </c>
       <c r="G12">
-        <v>2.643746868579882</v>
+        <v>0.5540730057337555</v>
       </c>
       <c r="H12">
-        <v>1.356950855453675</v>
+        <v>0.05741921725162769</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.008464101845544469</v>
       </c>
       <c r="J12">
-        <v>0.546280604027757</v>
+        <v>0.3386055302813986</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2679657357488043</v>
       </c>
       <c r="L12">
-        <v>1.59613925586558</v>
+        <v>0.5224611805000308</v>
       </c>
       <c r="M12">
-        <v>1.068352120203301</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8999945462072034</v>
+        <v>0.7739059225365565</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6136599185459559</v>
+      </c>
+      <c r="P12">
+        <v>1.785517387297176</v>
+      </c>
+      <c r="Q12">
+        <v>1.835372666302504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.957828431312748</v>
+        <v>1.877010765021453</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2780914126422829</v>
+        <v>0.1377007586910572</v>
       </c>
       <c r="E13">
-        <v>0.374763781232609</v>
+        <v>0.2988468461489191</v>
       </c>
       <c r="F13">
-        <v>2.185592976085459</v>
+        <v>0.5478535756681495</v>
       </c>
       <c r="G13">
-        <v>2.62922077499951</v>
+        <v>0.5149773946596952</v>
       </c>
       <c r="H13">
-        <v>1.350606324808041</v>
+        <v>0.1131524879021413</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.008789667506620802</v>
       </c>
       <c r="J13">
-        <v>0.5440370080619914</v>
+        <v>0.3191350286028012</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2707594144897101</v>
       </c>
       <c r="L13">
-        <v>1.587128626165452</v>
+        <v>0.5849239493057468</v>
       </c>
       <c r="M13">
-        <v>1.06245956554001</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9020781029931939</v>
+        <v>0.6904820915870857</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5708032303769812</v>
+      </c>
+      <c r="P13">
+        <v>1.876527341713967</v>
+      </c>
+      <c r="Q13">
+        <v>1.711713730370263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.906291959381747</v>
+        <v>1.797018249767149</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.27383319967673</v>
+        <v>0.1406256777403065</v>
       </c>
       <c r="E14">
-        <v>0.3695175104276984</v>
+        <v>0.3181688398458533</v>
       </c>
       <c r="F14">
-        <v>2.151998878051387</v>
+        <v>0.5087081114621057</v>
       </c>
       <c r="G14">
-        <v>2.58207942578025</v>
+        <v>0.4819027370855054</v>
       </c>
       <c r="H14">
-        <v>1.330030992038445</v>
+        <v>0.1624890964629628</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.009283210666515274</v>
       </c>
       <c r="J14">
-        <v>0.5367302464025698</v>
+        <v>0.3033959400509474</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2759115074667822</v>
       </c>
       <c r="L14">
-        <v>1.557797178634559</v>
+        <v>0.6274983998495713</v>
       </c>
       <c r="M14">
-        <v>1.043278640470788</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9089229232901701</v>
+        <v>0.6259178572856285</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5339426240325764</v>
+      </c>
+      <c r="P14">
+        <v>1.932632667375856</v>
+      </c>
+      <c r="Q14">
+        <v>1.608594721661888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.874799722364116</v>
+        <v>1.764820200272453</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2712339086251916</v>
+        <v>0.1413645140814204</v>
       </c>
       <c r="E15">
-        <v>0.3663110620953134</v>
+        <v>0.3221655547303257</v>
       </c>
       <c r="F15">
-        <v>2.131568304713539</v>
+        <v>0.4973595520196596</v>
       </c>
       <c r="G15">
-        <v>2.553378452541494</v>
+        <v>0.4709739251598819</v>
       </c>
       <c r="H15">
-        <v>1.317515238938739</v>
+        <v>0.1749962909706397</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.009624282252630678</v>
       </c>
       <c r="J15">
-        <v>0.5322621787870361</v>
+        <v>0.2984972906391334</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2782404810147252</v>
       </c>
       <c r="L15">
-        <v>1.539871504031623</v>
+        <v>0.6359135513322371</v>
       </c>
       <c r="M15">
-        <v>1.031556836482693</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9131536102901947</v>
+        <v>0.6074421643417338</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5217399081418321</v>
+      </c>
+      <c r="P15">
+        <v>1.942387164693827</v>
+      </c>
+      <c r="Q15">
+        <v>1.575138004581021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.695425949528897</v>
+        <v>1.658408605440286</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2564663496061002</v>
+        <v>0.1402043783398064</v>
       </c>
       <c r="E16">
-        <v>0.3480361480883118</v>
+        <v>0.3095925030888367</v>
       </c>
       <c r="F16">
-        <v>2.016634682036624</v>
+        <v>0.4833397907398052</v>
       </c>
       <c r="G16">
-        <v>2.391445129565909</v>
+        <v>0.4463808021108377</v>
       </c>
       <c r="H16">
-        <v>1.247066967591621</v>
+        <v>0.1622746462919764</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01071073002426282</v>
       </c>
       <c r="J16">
-        <v>0.5067642200567235</v>
+        <v>0.2898869293734663</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2857213656047577</v>
       </c>
       <c r="L16">
-        <v>1.437732580056576</v>
+        <v>0.6051596898184783</v>
       </c>
       <c r="M16">
-        <v>0.9647756447500768</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9379689531897597</v>
+        <v>0.573033102478675</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4909993738648808</v>
+      </c>
+      <c r="P16">
+        <v>1.884037612608012</v>
+      </c>
+      <c r="Q16">
+        <v>1.504780900789427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.586301635709503</v>
+        <v>1.618939995720012</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2475109311469907</v>
+        <v>0.1376747008764667</v>
       </c>
       <c r="E17">
-        <v>0.3369059721290455</v>
+        <v>0.2894722557158147</v>
       </c>
       <c r="F17">
-        <v>1.947932935160281</v>
+        <v>0.4932973749726415</v>
       </c>
       <c r="G17">
-        <v>2.29423190542289</v>
+        <v>0.4451038553621203</v>
       </c>
       <c r="H17">
-        <v>1.204921308878255</v>
+        <v>0.1245335892548525</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01131032520383801</v>
       </c>
       <c r="J17">
-        <v>0.4912082287118693</v>
+        <v>0.291681798606291</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2886478938754768</v>
       </c>
       <c r="L17">
-        <v>1.375557243974299</v>
+        <v>0.5585765012825732</v>
       </c>
       <c r="M17">
-        <v>0.924132997459985</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9536892319054999</v>
+        <v>0.5805984119274825</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4868430005725628</v>
+      </c>
+      <c r="P17">
+        <v>1.810031775732625</v>
+      </c>
+      <c r="Q17">
+        <v>1.5057092926628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.523849209814671</v>
+        <v>1.635589402429702</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2423944120498049</v>
+        <v>0.1343522177820446</v>
       </c>
       <c r="E18">
-        <v>0.3305307960843891</v>
+        <v>0.2623331814923695</v>
       </c>
       <c r="F18">
-        <v>1.909040201552713</v>
+        <v>0.526086228787797</v>
       </c>
       <c r="G18">
-        <v>2.23904656081038</v>
+        <v>0.4642236354505087</v>
       </c>
       <c r="H18">
-        <v>1.181049529126938</v>
+        <v>0.07173451711729939</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01118197529480724</v>
       </c>
       <c r="J18">
-        <v>0.4822890948292837</v>
+        <v>0.3028172095432211</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2891408173608001</v>
       </c>
       <c r="L18">
-        <v>1.339958510681328</v>
+        <v>0.496372478585613</v>
       </c>
       <c r="M18">
-        <v>0.9008668805089783</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9629088814352755</v>
+        <v>0.6242385675893729</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5050864759625711</v>
+      </c>
+      <c r="P18">
+        <v>1.714040418758373</v>
+      </c>
+      <c r="Q18">
+        <v>1.569485173741128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.502755506245705</v>
+        <v>1.688771307985576</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2406676106445502</v>
+        <v>0.1317754084611291</v>
       </c>
       <c r="E19">
-        <v>0.3283765592989667</v>
+        <v>0.2355707887192828</v>
       </c>
       <c r="F19">
-        <v>1.895975000770264</v>
+        <v>0.5740762276733378</v>
       </c>
       <c r="G19">
-        <v>2.22048218763419</v>
+        <v>0.4974375896127157</v>
       </c>
       <c r="H19">
-        <v>1.173028137316294</v>
+        <v>0.02645782836194144</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01106578587802609</v>
       </c>
       <c r="J19">
-        <v>0.4792737755361713</v>
+        <v>0.3200857340352741</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.289717289714793</v>
       </c>
       <c r="L19">
-        <v>1.327932019153309</v>
+        <v>0.4343364275392219</v>
       </c>
       <c r="M19">
-        <v>0.8930075133059674</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9660605834142899</v>
+        <v>0.7004930313115096</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5407247490012566</v>
+      </c>
+      <c r="P19">
+        <v>1.619254486187174</v>
+      </c>
+      <c r="Q19">
+        <v>1.67603069962388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.597885196994582</v>
+        <v>1.856877224305606</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2484606074533531</v>
+        <v>0.1308383803036364</v>
       </c>
       <c r="E20">
-        <v>0.338087976874256</v>
+        <v>0.2078488489755195</v>
       </c>
       <c r="F20">
-        <v>1.955181008556707</v>
+        <v>0.6663813516612436</v>
       </c>
       <c r="G20">
-        <v>2.304503804695202</v>
+        <v>0.5715706943927472</v>
       </c>
       <c r="H20">
-        <v>1.209369027027179</v>
+        <v>0.0001366024536264554</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.009914381860284038</v>
       </c>
       <c r="J20">
-        <v>0.4928611915631507</v>
+        <v>0.3552408451047881</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2892898328278863</v>
       </c>
       <c r="L20">
-        <v>1.382158733914309</v>
+        <v>0.3685022761723573</v>
       </c>
       <c r="M20">
-        <v>0.9284478448043245</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9519972774405971</v>
+        <v>0.8581374468348031</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.623952197471688</v>
+      </c>
+      <c r="P20">
+        <v>1.51393455512742</v>
+      </c>
+      <c r="Q20">
+        <v>1.906907396501111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.921413624222055</v>
+        <v>2.091083051384487</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2750820428303484</v>
+        <v>0.1314051838657733</v>
       </c>
       <c r="E21">
-        <v>0.3710569795668661</v>
+        <v>0.2148631156160121</v>
       </c>
       <c r="F21">
-        <v>2.161835434163336</v>
+        <v>0.7232164322170291</v>
       </c>
       <c r="G21">
-        <v>2.595889295828215</v>
+        <v>0.6390416836184301</v>
       </c>
       <c r="H21">
-        <v>1.336056133023561</v>
+        <v>0.0001116186340464065</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.008128384601231886</v>
       </c>
       <c r="J21">
-        <v>0.5388748275397859</v>
+        <v>0.3822839769205615</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2750099255824789</v>
       </c>
       <c r="L21">
-        <v>1.566403964522607</v>
+        <v>0.387795047842836</v>
       </c>
       <c r="M21">
-        <v>1.048906845667872</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9069044774228132</v>
+        <v>0.9741676833367023</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7054299024321509</v>
+      </c>
+      <c r="P21">
+        <v>1.561657423079453</v>
+      </c>
+      <c r="Q21">
+        <v>2.106903602103273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.136165546996892</v>
+        <v>2.243757105481905</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2928723948980263</v>
+        <v>0.1318225607300816</v>
       </c>
       <c r="E22">
-        <v>0.3929107853395877</v>
+        <v>0.2203730621225937</v>
       </c>
       <c r="F22">
-        <v>2.303352521095022</v>
+        <v>0.7585444763543165</v>
       </c>
       <c r="G22">
-        <v>2.793989945631523</v>
+        <v>0.6819832737447058</v>
       </c>
       <c r="H22">
-        <v>1.422689822237544</v>
+        <v>0.0003841459185480733</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.006795220525451562</v>
       </c>
       <c r="J22">
-        <v>0.5692752266603947</v>
+        <v>0.3994495725962963</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2660110797360704</v>
       </c>
       <c r="L22">
-        <v>1.688598915482714</v>
+        <v>0.4026455059297618</v>
       </c>
       <c r="M22">
-        <v>1.128820038952583</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8791229127273823</v>
+        <v>1.040516852443403</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7555032880661656</v>
+      </c>
+      <c r="P22">
+        <v>1.595297046352087</v>
+      </c>
+      <c r="Q22">
+        <v>2.234091366830569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.02121882838253</v>
+        <v>2.167146357124068</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2833370097819596</v>
+        <v>0.1316320250742047</v>
       </c>
       <c r="E23">
-        <v>0.38121526752672</v>
+        <v>0.2170959641918806</v>
       </c>
       <c r="F23">
-        <v>2.227184038410698</v>
+        <v>0.740835746397309</v>
       </c>
       <c r="G23">
-        <v>2.687497767647187</v>
+        <v>0.6598491098200725</v>
       </c>
       <c r="H23">
-        <v>1.376072246307842</v>
+        <v>0.0002198081374997773</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007145544619531208</v>
       </c>
       <c r="J23">
-        <v>0.5530159570010369</v>
+        <v>0.3906828541667124</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2711039882002533</v>
       </c>
       <c r="L23">
-        <v>1.623201102373855</v>
+        <v>0.3938408461935055</v>
       </c>
       <c r="M23">
-        <v>1.086049787909204</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8937904556248881</v>
+        <v>1.001789173586957</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7286039533229811</v>
+      </c>
+      <c r="P23">
+        <v>1.573348740415625</v>
+      </c>
+      <c r="Q23">
+        <v>2.168699242926493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.592647388023238</v>
+        <v>1.868140667342544</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2480311598017408</v>
+        <v>0.1309273672763238</v>
       </c>
       <c r="E24">
-        <v>0.3375535194103421</v>
+        <v>0.2052780883730563</v>
       </c>
       <c r="F24">
-        <v>1.951902280390613</v>
+        <v>0.6733707207534678</v>
       </c>
       <c r="G24">
-        <v>2.299857699175163</v>
+        <v>0.5760796956526377</v>
       </c>
       <c r="H24">
-        <v>1.207357103378087</v>
+        <v>1.35483075383025E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.009331025099688084</v>
       </c>
       <c r="J24">
-        <v>0.492113812442625</v>
+        <v>0.3576158615986884</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2905766133774779</v>
       </c>
       <c r="L24">
-        <v>1.379173746881435</v>
+        <v>0.3620046648496071</v>
       </c>
       <c r="M24">
-        <v>0.9264967933612667</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9527616447669871</v>
+        <v>0.8610277296602931</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6269953793836507</v>
+      </c>
+      <c r="P24">
+        <v>1.498471480049375</v>
+      </c>
+      <c r="Q24">
+        <v>1.92143360744214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.142093587861893</v>
+        <v>1.543732593373335</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2112274573769497</v>
+        <v>0.1303053241155006</v>
       </c>
       <c r="E25">
-        <v>0.291445070536156</v>
+        <v>0.1925771108714116</v>
       </c>
       <c r="F25">
-        <v>1.678366542787643</v>
+        <v>0.6036856828360158</v>
       </c>
       <c r="G25">
-        <v>1.909081976356163</v>
+        <v>0.4884388782757725</v>
       </c>
       <c r="H25">
-        <v>1.039246186112848</v>
+        <v>0.0005996301573343299</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01232935728434548</v>
       </c>
       <c r="J25">
-        <v>0.427469209244336</v>
+        <v>0.3235802387331859</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3130186694961701</v>
       </c>
       <c r="L25">
-        <v>1.122032526845999</v>
+        <v>0.3277254935810063</v>
       </c>
       <c r="M25">
-        <v>0.7585253296589869</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.023117619692208</v>
+        <v>0.7100831974696575</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5173073477799193</v>
+      </c>
+      <c r="P25">
+        <v>1.421267568990132</v>
+      </c>
+      <c r="Q25">
+        <v>1.663864143176397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.314749053249272</v>
+        <v>1.307465671927957</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1300585038702495</v>
+        <v>0.1205707462585566</v>
       </c>
       <c r="E2">
-        <v>0.1824663067221657</v>
+        <v>0.1696120456861276</v>
       </c>
       <c r="F2">
-        <v>0.5576693721547556</v>
+        <v>0.5569799819821029</v>
       </c>
       <c r="G2">
-        <v>0.4279188487046923</v>
+        <v>0.4132383467514273</v>
       </c>
       <c r="H2">
-        <v>0.001637882138897373</v>
+        <v>0.001105352208342292</v>
       </c>
       <c r="I2">
-        <v>0.01418632584753032</v>
+        <v>0.00989868551444939</v>
       </c>
       <c r="J2">
-        <v>0.3008100788162835</v>
+        <v>0.3494670416817769</v>
       </c>
       <c r="K2">
-        <v>0.3316615242194314</v>
+        <v>0.3000616820546651</v>
       </c>
       <c r="L2">
-        <v>0.3004264519745803</v>
+        <v>0.1280485373122371</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09934695546675809</v>
       </c>
       <c r="N2">
-        <v>0.5916548221955082</v>
+        <v>0.28176118643119</v>
       </c>
       <c r="O2">
-        <v>0.4359777000998974</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.358361653870659</v>
+        <v>0.5907463858511903</v>
       </c>
       <c r="Q2">
-        <v>1.48748187393474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4369646518803307</v>
+      </c>
+      <c r="R2">
+        <v>1.319908829181898</v>
+      </c>
+      <c r="S2">
+        <v>1.495449998689992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.151811571400629</v>
+        <v>1.148915198381076</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1298864725898414</v>
+        <v>0.1205492490561584</v>
       </c>
       <c r="E3">
-        <v>0.176044713683817</v>
+        <v>0.162888343950037</v>
       </c>
       <c r="F3">
-        <v>0.5260388742739721</v>
+        <v>0.5260873321071955</v>
       </c>
       <c r="G3">
-        <v>0.3867302009745401</v>
+        <v>0.3721775178881614</v>
       </c>
       <c r="H3">
-        <v>0.002688560212838143</v>
+        <v>0.001941844241987289</v>
       </c>
       <c r="I3">
-        <v>0.01617893743828747</v>
+        <v>0.01132440805296397</v>
       </c>
       <c r="J3">
-        <v>0.2854494804763874</v>
+        <v>0.3329741442984044</v>
       </c>
       <c r="K3">
-        <v>0.3444752096334429</v>
+        <v>0.3113757327650033</v>
       </c>
       <c r="L3">
-        <v>0.2830642626343121</v>
+        <v>0.1327695800274871</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1048998374406303</v>
       </c>
       <c r="N3">
-        <v>0.5162357152743482</v>
+        <v>0.2634868071545853</v>
       </c>
       <c r="O3">
-        <v>0.3809955077612202</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.322651243599793</v>
+        <v>0.5120255166628311</v>
       </c>
       <c r="Q3">
-        <v>1.367708005975175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3816772900829193</v>
+      </c>
+      <c r="R3">
+        <v>1.277374635100998</v>
+      </c>
+      <c r="S3">
+        <v>1.377822645485054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.051047237011176</v>
+        <v>1.050584837833185</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1298027816355511</v>
+        <v>0.1205628196871276</v>
       </c>
       <c r="E4">
-        <v>0.1721003519178428</v>
+        <v>0.1587820318988058</v>
       </c>
       <c r="F4">
-        <v>0.5071430234316736</v>
+        <v>0.5075540558346177</v>
       </c>
       <c r="G4">
-        <v>0.3618508371756661</v>
+        <v>0.3474040819454132</v>
       </c>
       <c r="H4">
-        <v>0.00349178157852581</v>
+        <v>0.00259590889542971</v>
       </c>
       <c r="I4">
-        <v>0.01754651650255346</v>
+        <v>0.01232005360867694</v>
       </c>
       <c r="J4">
-        <v>0.2763106922742082</v>
+        <v>0.3229689837780256</v>
       </c>
       <c r="K4">
-        <v>0.352657084705321</v>
+        <v>0.3185942212689596</v>
       </c>
       <c r="L4">
-        <v>0.2724020209679594</v>
+        <v>0.1360125165699184</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1086709859247486</v>
       </c>
       <c r="N4">
-        <v>0.4701790059632742</v>
+        <v>0.2523172092737909</v>
       </c>
       <c r="O4">
-        <v>0.3471816718068226</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.30166544596301</v>
+        <v>0.4640959220076155</v>
       </c>
       <c r="Q4">
-        <v>1.295640371814756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3476729415647668</v>
+      </c>
+      <c r="R4">
+        <v>1.252366195390337</v>
+      </c>
+      <c r="S4">
+        <v>1.30683042252619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.008621856414948</v>
+        <v>1.00912819146771</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1297600833330632</v>
+        <v>0.1205614891233262</v>
       </c>
       <c r="E5">
-        <v>0.1705660356635761</v>
+        <v>0.1571836479278552</v>
       </c>
       <c r="F5">
-        <v>0.4992558926947197</v>
+        <v>0.4998041968450408</v>
       </c>
       <c r="G5">
-        <v>0.3515924454398061</v>
+        <v>0.3372047208708437</v>
       </c>
       <c r="H5">
-        <v>0.00385871325793069</v>
+        <v>0.002897538728831694</v>
       </c>
       <c r="I5">
-        <v>0.01822986875318833</v>
+        <v>0.01285640893380791</v>
       </c>
       <c r="J5">
-        <v>0.2725454985264406</v>
+        <v>0.3188102116094029</v>
       </c>
       <c r="K5">
-        <v>0.3559562095672497</v>
+        <v>0.3214890711153751</v>
       </c>
       <c r="L5">
-        <v>0.2682581097164345</v>
+        <v>0.1373203887608723</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1103122068323827</v>
       </c>
       <c r="N5">
-        <v>0.4522778474761679</v>
+        <v>0.2479692640513562</v>
       </c>
       <c r="O5">
-        <v>0.3334327441125566</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.294220787139565</v>
+        <v>0.4454328679792212</v>
       </c>
       <c r="Q5">
-        <v>1.265929823070906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3338441229998281</v>
+      </c>
+      <c r="R5">
+        <v>1.243280390055716</v>
+      </c>
+      <c r="S5">
+        <v>1.277525246472408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000116320733298</v>
+        <v>1.000830812376478</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.129736612784431</v>
+        <v>0.1205455552608061</v>
       </c>
       <c r="E6">
-        <v>0.1704025668739746</v>
+        <v>0.1570049772208115</v>
       </c>
       <c r="F6">
-        <v>0.4975712569187252</v>
+        <v>0.4981553943749191</v>
       </c>
       <c r="G6">
-        <v>0.3496308355840085</v>
+        <v>0.3352655803277003</v>
       </c>
       <c r="H6">
-        <v>0.003923833413209454</v>
+        <v>0.002951264049718239</v>
       </c>
       <c r="I6">
-        <v>0.01846366895405538</v>
+        <v>0.01307969657229613</v>
       </c>
       <c r="J6">
-        <v>0.2717881965994451</v>
+        <v>0.3179860699797388</v>
       </c>
       <c r="K6">
-        <v>0.3563726228967012</v>
+        <v>0.3218364560724405</v>
       </c>
       <c r="L6">
-        <v>0.2678195633488514</v>
+        <v>0.137421921767074</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1106069311269779</v>
       </c>
       <c r="N6">
-        <v>0.4503003313755443</v>
+        <v>0.2474847074219682</v>
       </c>
       <c r="O6">
-        <v>0.331203932099406</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.294075300474049</v>
+        <v>0.4432852288764195</v>
       </c>
       <c r="Q6">
-        <v>1.260172303864124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3315998848113182</v>
+      </c>
+      <c r="R6">
+        <v>1.242810713506302</v>
+      </c>
+      <c r="S6">
+        <v>1.271863452073177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.046503292922807</v>
+        <v>1.045835792478272</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1297577465215771</v>
+        <v>0.1205174081010747</v>
       </c>
       <c r="E7">
-        <v>0.1723315426455621</v>
+        <v>0.1588776150270252</v>
       </c>
       <c r="F7">
-        <v>0.5059923771534898</v>
+        <v>0.5056363656365761</v>
       </c>
       <c r="G7">
-        <v>0.3609913709513961</v>
+        <v>0.3499175987563774</v>
       </c>
       <c r="H7">
-        <v>0.003501410944826533</v>
+        <v>0.002607414035099398</v>
       </c>
       <c r="I7">
-        <v>0.01786200826231177</v>
+        <v>0.01267423961143788</v>
       </c>
       <c r="J7">
-        <v>0.2758878300722785</v>
+        <v>0.3173987143271972</v>
       </c>
       <c r="K7">
-        <v>0.3523350299207055</v>
+        <v>0.3182321523289622</v>
       </c>
       <c r="L7">
-        <v>0.2730320240047988</v>
+        <v>0.135686353792833</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1087318470720535</v>
       </c>
       <c r="N7">
-        <v>0.4726492296500737</v>
+        <v>0.2527178879095757</v>
       </c>
       <c r="O7">
-        <v>0.34714665536859</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.304530774716014</v>
+        <v>0.465841300646872</v>
       </c>
       <c r="Q7">
-        <v>1.292931950065707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3473684565319033</v>
+      </c>
+      <c r="R7">
+        <v>1.255474857079378</v>
+      </c>
+      <c r="S7">
+        <v>1.300943410058949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.253418795736309</v>
+        <v>1.246699513950404</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1299406961499727</v>
+        <v>0.1204963712556202</v>
       </c>
       <c r="E8">
-        <v>0.1805957157118687</v>
+        <v>0.1672084656110648</v>
       </c>
       <c r="F8">
-        <v>0.5452722017835967</v>
+        <v>0.5422181238888371</v>
       </c>
       <c r="G8">
-        <v>0.4126725481670519</v>
+        <v>0.4092856150395221</v>
       </c>
       <c r="H8">
-        <v>0.001970636333697429</v>
+        <v>0.001375128141269832</v>
       </c>
       <c r="I8">
-        <v>0.01521378919844629</v>
+        <v>0.01079383161941649</v>
       </c>
       <c r="J8">
-        <v>0.294960382163282</v>
+        <v>0.3263394789205734</v>
       </c>
       <c r="K8">
-        <v>0.3355577272669061</v>
+        <v>0.3033693922426237</v>
       </c>
       <c r="L8">
-        <v>0.2953650242373556</v>
+        <v>0.1292052011674807</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.101177443421784</v>
       </c>
       <c r="N8">
-        <v>0.5692051086479353</v>
+        <v>0.2756893345841291</v>
       </c>
       <c r="O8">
-        <v>0.4172290446354836</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.349890353656477</v>
+        <v>0.5649837528736015</v>
       </c>
       <c r="Q8">
-        <v>1.44281312372226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4172232359161612</v>
+      </c>
+      <c r="R8">
+        <v>1.310295528290609</v>
+      </c>
+      <c r="S8">
+        <v>1.440775724622341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.660533313896309</v>
+        <v>1.640887854813229</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.130560676555544</v>
+        <v>0.1207538239595873</v>
       </c>
       <c r="E9">
-        <v>0.1963644096014399</v>
+        <v>0.1837499337700095</v>
       </c>
       <c r="F9">
-        <v>0.6286397481628754</v>
+        <v>0.6224073307600193</v>
       </c>
       <c r="G9">
-        <v>0.5189296596021507</v>
+        <v>0.5185982958007713</v>
       </c>
       <c r="H9">
-        <v>0.0002995061810198152</v>
+        <v>0.0001289216750598454</v>
       </c>
       <c r="I9">
-        <v>0.01073804189745431</v>
+        <v>0.007550629488981109</v>
       </c>
       <c r="J9">
-        <v>0.3355055745923465</v>
+        <v>0.3638642572291815</v>
       </c>
       <c r="K9">
-        <v>0.3058232452266281</v>
+        <v>0.2771353082374359</v>
       </c>
       <c r="L9">
-        <v>0.3379768632049291</v>
+        <v>0.1197544777243449</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08925952084833533</v>
       </c>
       <c r="N9">
-        <v>0.7558802304356789</v>
+        <v>0.3207147926702589</v>
       </c>
       <c r="O9">
-        <v>0.5540059960422639</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.441095376169343</v>
+        <v>0.7602971275954928</v>
       </c>
       <c r="Q9">
-        <v>1.753648784427952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5544799544256165</v>
+      </c>
+      <c r="R9">
+        <v>1.420081670434328</v>
+      </c>
+      <c r="S9">
+        <v>1.741576502920452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.944135583828881</v>
+        <v>1.91325560729689</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1310863225483665</v>
+        <v>0.1210210560062341</v>
       </c>
       <c r="E10">
-        <v>0.2106236526593008</v>
+        <v>0.1978537673510559</v>
       </c>
       <c r="F10">
-        <v>0.6849244425230623</v>
+        <v>0.6715773467720894</v>
       </c>
       <c r="G10">
-        <v>0.5939423445213237</v>
+        <v>0.6166748545110181</v>
       </c>
       <c r="H10">
-        <v>0.000187694268029226</v>
+        <v>0.0002156076983741428</v>
       </c>
       <c r="I10">
-        <v>0.00844910963189438</v>
+        <v>0.00605203762101425</v>
       </c>
       <c r="J10">
-        <v>0.3641469762727638</v>
+        <v>0.3607355053297141</v>
       </c>
       <c r="K10">
-        <v>0.2847832373252221</v>
+        <v>0.2585831209957803</v>
       </c>
       <c r="L10">
-        <v>0.3759344485635054</v>
+        <v>0.1142838501341169</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08194209556238485</v>
       </c>
       <c r="N10">
-        <v>0.8837283820563755</v>
+        <v>0.3592945207410239</v>
       </c>
       <c r="O10">
-        <v>0.648537191188268</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1.525981039714978</v>
+        <v>0.8903826593596023</v>
       </c>
       <c r="Q10">
-        <v>1.973098154800539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6476699090697196</v>
+      </c>
+      <c r="R10">
+        <v>1.520958070317832</v>
+      </c>
+      <c r="S10">
+        <v>1.933912234349691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.979785507406689</v>
+        <v>1.954472776245211</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1320840305552906</v>
+        <v>0.1215456698567543</v>
       </c>
       <c r="E11">
-        <v>0.2427536983938126</v>
+        <v>0.2272098522481798</v>
       </c>
       <c r="F11">
-        <v>0.643958986311354</v>
+        <v>0.6236739305235659</v>
       </c>
       <c r="G11">
-        <v>0.5804668761843175</v>
+        <v>0.6506929491854123</v>
       </c>
       <c r="H11">
-        <v>0.01875303278562157</v>
+        <v>0.01878132833502733</v>
       </c>
       <c r="I11">
-        <v>0.008501149171150857</v>
+        <v>0.006400339948537948</v>
       </c>
       <c r="J11">
-        <v>0.3534199553638047</v>
+        <v>0.294649886942679</v>
       </c>
       <c r="K11">
-        <v>0.2715636259354204</v>
+        <v>0.2480963968680712</v>
       </c>
       <c r="L11">
-        <v>0.4550978376217927</v>
+        <v>0.1120887288508703</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0771605345366243</v>
       </c>
       <c r="N11">
-        <v>0.8403998439420945</v>
+        <v>0.4337822750626543</v>
       </c>
       <c r="O11">
-        <v>0.6406678049946422</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.674765020325722</v>
+        <v>0.8322814948140262</v>
       </c>
       <c r="Q11">
-        <v>1.922267801932719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6360044806973661</v>
+      </c>
+      <c r="R11">
+        <v>1.671859998844596</v>
+      </c>
+      <c r="S11">
+        <v>1.847506742378954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.955283248047863</v>
+        <v>1.938306079668564</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1344002990943025</v>
+        <v>0.1231376000709759</v>
       </c>
       <c r="E12">
-        <v>0.2713299109442424</v>
+        <v>0.2532226779797533</v>
       </c>
       <c r="F12">
-        <v>0.5994128831571359</v>
+        <v>0.5779261295727025</v>
       </c>
       <c r="G12">
-        <v>0.5540730057337555</v>
+        <v>0.6460105139051109</v>
       </c>
       <c r="H12">
-        <v>0.05741921725162769</v>
+        <v>0.05743695438435736</v>
       </c>
       <c r="I12">
-        <v>0.008464101845544469</v>
+        <v>0.006388055542411841</v>
       </c>
       <c r="J12">
-        <v>0.3386055302813986</v>
+        <v>0.2595845582840326</v>
       </c>
       <c r="K12">
-        <v>0.2679657357488043</v>
+        <v>0.2457986176631337</v>
       </c>
       <c r="L12">
-        <v>0.5224611805000308</v>
+        <v>0.1125263534572127</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07535853577689144</v>
       </c>
       <c r="N12">
-        <v>0.7739059225365565</v>
+        <v>0.4966401085239909</v>
       </c>
       <c r="O12">
-        <v>0.6136599185459559</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.785517387297176</v>
+        <v>0.7560114941717302</v>
       </c>
       <c r="Q12">
-        <v>1.835372666302504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6071649777340724</v>
+      </c>
+      <c r="R12">
+        <v>1.778245996599935</v>
+      </c>
+      <c r="S12">
+        <v>1.749074013490514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.877010765021453</v>
+        <v>1.872145695775401</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1377007586910572</v>
+        <v>0.1258677349252757</v>
       </c>
       <c r="E13">
-        <v>0.2988468461489191</v>
+        <v>0.2789827230650062</v>
       </c>
       <c r="F13">
-        <v>0.5478535756681495</v>
+        <v>0.5310391957146621</v>
       </c>
       <c r="G13">
-        <v>0.5149773946596952</v>
+        <v>0.600932999420408</v>
       </c>
       <c r="H13">
-        <v>0.1131524879021413</v>
+        <v>0.1131482434209943</v>
       </c>
       <c r="I13">
-        <v>0.008789667506620802</v>
+        <v>0.006595962929371701</v>
       </c>
       <c r="J13">
-        <v>0.3191350286028012</v>
+        <v>0.2505949719679279</v>
       </c>
       <c r="K13">
-        <v>0.2707594144897101</v>
+        <v>0.2486004862278675</v>
       </c>
       <c r="L13">
-        <v>0.5849239493057468</v>
+        <v>0.1140418416756921</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07575920256654767</v>
       </c>
       <c r="N13">
-        <v>0.6904820915870857</v>
+        <v>0.5554891758068692</v>
       </c>
       <c r="O13">
-        <v>0.5708032303769812</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.876527341713967</v>
+        <v>0.6671611629999461</v>
       </c>
       <c r="Q13">
-        <v>1.711713730370263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5644610298296158</v>
+      </c>
+      <c r="R13">
+        <v>1.857496489082592</v>
+      </c>
+      <c r="S13">
+        <v>1.638832775319855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.797018249767149</v>
+        <v>1.802184696261406</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1406256777403065</v>
+        <v>0.1286006646416133</v>
       </c>
       <c r="E14">
-        <v>0.3181688398458533</v>
+        <v>0.2975394294990465</v>
       </c>
       <c r="F14">
-        <v>0.5087081114621057</v>
+        <v>0.4973852448187586</v>
       </c>
       <c r="G14">
-        <v>0.4819027370855054</v>
+        <v>0.5524184677832551</v>
       </c>
       <c r="H14">
-        <v>0.1624890964629628</v>
+        <v>0.1624624726268991</v>
       </c>
       <c r="I14">
-        <v>0.009283210666515274</v>
+        <v>0.006954698244959978</v>
       </c>
       <c r="J14">
-        <v>0.3033959400509474</v>
+        <v>0.2545246078657897</v>
       </c>
       <c r="K14">
-        <v>0.2759115074667822</v>
+        <v>0.2529333648046794</v>
       </c>
       <c r="L14">
-        <v>0.6274983998495713</v>
+        <v>0.1154440502254843</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07723602204228719</v>
       </c>
       <c r="N14">
-        <v>0.6259178572856285</v>
+        <v>0.5959883146706062</v>
       </c>
       <c r="O14">
-        <v>0.5339426240325764</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.932632667375856</v>
+        <v>0.6005784507707261</v>
       </c>
       <c r="Q14">
-        <v>1.608594721661888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5285045264612762</v>
+      </c>
+      <c r="R14">
+        <v>1.901654129382962</v>
+      </c>
+      <c r="S14">
+        <v>1.555126033557173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.764820200272453</v>
+        <v>1.773136390219577</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1413645140814204</v>
+        <v>0.1294170416286242</v>
       </c>
       <c r="E15">
-        <v>0.3221655547303257</v>
+        <v>0.3016206800616175</v>
       </c>
       <c r="F15">
-        <v>0.4973595520196596</v>
+        <v>0.4883392094092613</v>
       </c>
       <c r="G15">
-        <v>0.4709739251598819</v>
+        <v>0.5330796177399009</v>
       </c>
       <c r="H15">
-        <v>0.1749962909706397</v>
+        <v>0.1749573793441641</v>
       </c>
       <c r="I15">
-        <v>0.009624282252630678</v>
+        <v>0.007250312658333868</v>
       </c>
       <c r="J15">
-        <v>0.2984972906391334</v>
+        <v>0.2598420737079863</v>
       </c>
       <c r="K15">
-        <v>0.2782404810147252</v>
+        <v>0.2547955539940556</v>
       </c>
       <c r="L15">
-        <v>0.6359135513322371</v>
+        <v>0.1158274549330027</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07805164670043663</v>
       </c>
       <c r="N15">
-        <v>0.6074421643417338</v>
+        <v>0.6042191659316956</v>
       </c>
       <c r="O15">
-        <v>0.5217399081418321</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.942387164693827</v>
+        <v>0.5822088676496264</v>
       </c>
       <c r="Q15">
-        <v>1.575138004581021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5168507397284188</v>
+      </c>
+      <c r="R15">
+        <v>1.907065340792514</v>
+      </c>
+      <c r="S15">
+        <v>1.530679758747254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.658408605440286</v>
+        <v>1.672127815836234</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1402043783398064</v>
+        <v>0.1293091306729792</v>
       </c>
       <c r="E16">
-        <v>0.3095925030888367</v>
+        <v>0.291518116084319</v>
       </c>
       <c r="F16">
-        <v>0.4833397907398052</v>
+        <v>0.4824120219996999</v>
       </c>
       <c r="G16">
-        <v>0.4463808021108377</v>
+        <v>0.4703408304941377</v>
       </c>
       <c r="H16">
-        <v>0.1622746462919764</v>
+        <v>0.162153157829465</v>
       </c>
       <c r="I16">
-        <v>0.01071073002426282</v>
+        <v>0.008034684368206868</v>
       </c>
       <c r="J16">
-        <v>0.2898869293734663</v>
+        <v>0.2983673347677041</v>
       </c>
       <c r="K16">
-        <v>0.2857213656047577</v>
+        <v>0.2605178272774502</v>
       </c>
       <c r="L16">
-        <v>0.6051596898184783</v>
+        <v>0.1156469470611086</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08162275902248517</v>
       </c>
       <c r="N16">
-        <v>0.573033102478675</v>
+        <v>0.5766831507579866</v>
       </c>
       <c r="O16">
-        <v>0.4909993738648808</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.884037612608012</v>
+        <v>0.5528423569606531</v>
       </c>
       <c r="Q16">
-        <v>1.504780900789427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4888526146700158</v>
+      </c>
+      <c r="R16">
+        <v>1.838396461767616</v>
+      </c>
+      <c r="S16">
+        <v>1.495880531805341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.618939995720012</v>
+        <v>1.630988206038836</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1376747008764667</v>
+        <v>0.1273927752662267</v>
       </c>
       <c r="E17">
-        <v>0.2894722557158147</v>
+        <v>0.2731773766016197</v>
       </c>
       <c r="F17">
-        <v>0.4932973749726415</v>
+        <v>0.4948914898717049</v>
       </c>
       <c r="G17">
-        <v>0.4451038553621203</v>
+        <v>0.4527026244448678</v>
       </c>
       <c r="H17">
-        <v>0.1245335892548525</v>
+        <v>0.1243557444060883</v>
       </c>
       <c r="I17">
-        <v>0.01131032520383801</v>
+        <v>0.008478079823864171</v>
       </c>
       <c r="J17">
-        <v>0.291681798606291</v>
+        <v>0.3211947772581993</v>
       </c>
       <c r="K17">
-        <v>0.2886478938754768</v>
+        <v>0.2628481910960474</v>
       </c>
       <c r="L17">
-        <v>0.5585765012825732</v>
+        <v>0.1152052056384179</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08341759702578155</v>
       </c>
       <c r="N17">
-        <v>0.5805984119274825</v>
+        <v>0.5330267070129082</v>
       </c>
       <c r="O17">
-        <v>0.4868430005725628</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.810031775732625</v>
+        <v>0.5646391302422131</v>
       </c>
       <c r="Q17">
-        <v>1.5057092926628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4859860074772868</v>
+      </c>
+      <c r="R17">
+        <v>1.764251627920061</v>
+      </c>
+      <c r="S17">
+        <v>1.509787095006601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.635589402429702</v>
+        <v>1.640494835016881</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1343522177820446</v>
+        <v>0.1244486381640399</v>
       </c>
       <c r="E18">
-        <v>0.2623331814923695</v>
+        <v>0.2477286481353325</v>
       </c>
       <c r="F18">
-        <v>0.526086228787797</v>
+        <v>0.5272931634338605</v>
       </c>
       <c r="G18">
-        <v>0.4642236354505087</v>
+        <v>0.4638905806418023</v>
       </c>
       <c r="H18">
-        <v>0.07173451711729939</v>
+        <v>0.07153857177543443</v>
       </c>
       <c r="I18">
-        <v>0.01118197529480724</v>
+        <v>0.008264559061866628</v>
       </c>
       <c r="J18">
-        <v>0.3028172095432211</v>
+        <v>0.3410423832108904</v>
       </c>
       <c r="K18">
-        <v>0.2891408173608001</v>
+        <v>0.2633293638361138</v>
       </c>
       <c r="L18">
-        <v>0.496372478585613</v>
+        <v>0.1148289742187751</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08402135607197048</v>
       </c>
       <c r="N18">
-        <v>0.6242385675893729</v>
+        <v>0.474189151212542</v>
       </c>
       <c r="O18">
-        <v>0.5050864759625711</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.714040418758373</v>
+        <v>0.6138665142398594</v>
       </c>
       <c r="Q18">
-        <v>1.569485173741128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5050230933010624</v>
+      </c>
+      <c r="R18">
+        <v>1.674960180212693</v>
+      </c>
+      <c r="S18">
+        <v>1.57563581024931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.688771307985576</v>
+        <v>1.683177332132146</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1317754084611291</v>
+        <v>0.1220159730120542</v>
       </c>
       <c r="E19">
-        <v>0.2355707887192828</v>
+        <v>0.2223459356214619</v>
       </c>
       <c r="F19">
-        <v>0.5740762276733378</v>
+        <v>0.5731338829249353</v>
       </c>
       <c r="G19">
-        <v>0.4974375896127157</v>
+        <v>0.4934778169739786</v>
       </c>
       <c r="H19">
-        <v>0.02645782836194144</v>
+        <v>0.02629324700242108</v>
       </c>
       <c r="I19">
-        <v>0.01106578587802609</v>
+        <v>0.008237840828045684</v>
       </c>
       <c r="J19">
-        <v>0.3200857340352741</v>
+        <v>0.3601776442858124</v>
       </c>
       <c r="K19">
-        <v>0.289717289714793</v>
+        <v>0.263785362527698</v>
       </c>
       <c r="L19">
-        <v>0.4343364275392219</v>
+        <v>0.1150128663294376</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08420362450901608</v>
       </c>
       <c r="N19">
-        <v>0.7004930313115096</v>
+        <v>0.4152618795862395</v>
       </c>
       <c r="O19">
-        <v>0.5407247490012566</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.619254486187174</v>
+        <v>0.6971275847873812</v>
       </c>
       <c r="Q19">
-        <v>1.67603069962388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5412283565006177</v>
+      </c>
+      <c r="R19">
+        <v>1.589945518412051</v>
+      </c>
+      <c r="S19">
+        <v>1.678066930996522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.856877224305606</v>
+        <v>1.831035811196415</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1308383803036364</v>
+        <v>0.1208736265642329</v>
       </c>
       <c r="E20">
-        <v>0.2078488489755195</v>
+        <v>0.195561173293342</v>
       </c>
       <c r="F20">
-        <v>0.6663813516612436</v>
+        <v>0.6580496613560669</v>
       </c>
       <c r="G20">
-        <v>0.5715706943927472</v>
+        <v>0.5757840506202285</v>
       </c>
       <c r="H20">
-        <v>0.0001366024536264554</v>
+        <v>0.0001191075760953453</v>
       </c>
       <c r="I20">
-        <v>0.009914381860284038</v>
+        <v>0.007455318726418803</v>
       </c>
       <c r="J20">
-        <v>0.3552408451047881</v>
+        <v>0.377950881513641</v>
       </c>
       <c r="K20">
-        <v>0.2892898328278863</v>
+        <v>0.2626843083800867</v>
       </c>
       <c r="L20">
-        <v>0.3685022761723573</v>
+        <v>0.1153367297342041</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08350173446499065</v>
       </c>
       <c r="N20">
-        <v>0.8581374468348031</v>
+        <v>0.3523476461499939</v>
       </c>
       <c r="O20">
-        <v>0.623952197471688</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.51393455512742</v>
+        <v>0.8660443982589641</v>
       </c>
       <c r="Q20">
-        <v>1.906907396501111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6243953647064941</v>
+      </c>
+      <c r="R20">
+        <v>1.502713370037966</v>
+      </c>
+      <c r="S20">
+        <v>1.887286152761419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.091083051384487</v>
+        <v>2.046440930390872</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1314051838657733</v>
+        <v>0.1212202495601997</v>
       </c>
       <c r="E21">
-        <v>0.2148631156160121</v>
+        <v>0.2002077991063445</v>
       </c>
       <c r="F21">
-        <v>0.7232164322170291</v>
+        <v>0.6928923162144187</v>
       </c>
       <c r="G21">
-        <v>0.6390416836184301</v>
+        <v>0.7296926211414814</v>
       </c>
       <c r="H21">
-        <v>0.0001116186340464065</v>
+        <v>0.0002093281076858133</v>
       </c>
       <c r="I21">
-        <v>0.008128384601231886</v>
+        <v>0.006265153092555487</v>
       </c>
       <c r="J21">
-        <v>0.3822839769205615</v>
+        <v>0.2943978860011072</v>
       </c>
       <c r="K21">
-        <v>0.2750099255824789</v>
+        <v>0.2495936569504</v>
       </c>
       <c r="L21">
-        <v>0.387795047842836</v>
+        <v>0.1120976480624658</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07854342477421072</v>
       </c>
       <c r="N21">
-        <v>0.9741676833367023</v>
+        <v>0.368729794657547</v>
       </c>
       <c r="O21">
-        <v>0.7054299024321509</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.561657423079453</v>
+        <v>0.9739220371186548</v>
       </c>
       <c r="Q21">
-        <v>2.106903602103273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6997047763036974</v>
+      </c>
+      <c r="R21">
+        <v>1.573691364926276</v>
+      </c>
+      <c r="S21">
+        <v>2.000943057745303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.243757105481905</v>
+        <v>2.186395467692648</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1318225607300816</v>
+        <v>0.1216423015000445</v>
       </c>
       <c r="E22">
-        <v>0.2203730621225937</v>
+        <v>0.2040109605281408</v>
       </c>
       <c r="F22">
-        <v>0.7585444763543165</v>
+        <v>0.7123883195802705</v>
       </c>
       <c r="G22">
-        <v>0.6819832737447058</v>
+        <v>0.8392996187051835</v>
       </c>
       <c r="H22">
-        <v>0.0003841459185480733</v>
+        <v>0.0005126721319670402</v>
       </c>
       <c r="I22">
-        <v>0.006795220525451562</v>
+        <v>0.0052157181336554</v>
       </c>
       <c r="J22">
-        <v>0.3994495725962963</v>
+        <v>0.2424366759836971</v>
       </c>
       <c r="K22">
-        <v>0.2660110797360704</v>
+        <v>0.2413404460461929</v>
       </c>
       <c r="L22">
-        <v>0.4026455059297618</v>
+        <v>0.1103293003917836</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07560514587083311</v>
       </c>
       <c r="N22">
-        <v>1.040516852443403</v>
+        <v>0.3813439273487731</v>
       </c>
       <c r="O22">
-        <v>0.7555032880661656</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.595297046352087</v>
+        <v>1.03340244050483</v>
       </c>
       <c r="Q22">
-        <v>2.234091366830569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7451766359591758</v>
+      </c>
+      <c r="R22">
+        <v>1.623184560371939</v>
+      </c>
+      <c r="S22">
+        <v>2.065837847982323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.167146357124068</v>
+        <v>2.117365778541</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1316320250742047</v>
+        <v>0.121421974483868</v>
       </c>
       <c r="E23">
-        <v>0.2170959641918806</v>
+        <v>0.2019800942220051</v>
       </c>
       <c r="F23">
-        <v>0.740835746397309</v>
+        <v>0.7052665928041648</v>
       </c>
       <c r="G23">
-        <v>0.6598491098200725</v>
+        <v>0.7710482428950201</v>
       </c>
       <c r="H23">
-        <v>0.0002198081374997773</v>
+        <v>0.0003380765754225079</v>
       </c>
       <c r="I23">
-        <v>0.007145544619531208</v>
+        <v>0.005355657408721903</v>
       </c>
       <c r="J23">
-        <v>0.3906828541667124</v>
+        <v>0.2798299991813309</v>
       </c>
       <c r="K23">
-        <v>0.2711039882002533</v>
+        <v>0.2459867641127493</v>
       </c>
       <c r="L23">
-        <v>0.3938408461935055</v>
+        <v>0.1112802995318032</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07731429408235257</v>
       </c>
       <c r="N23">
-        <v>1.001789173586957</v>
+        <v>0.3742819810995783</v>
       </c>
       <c r="O23">
-        <v>0.7286039533229811</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1.573348740415625</v>
+        <v>1.000161050051105</v>
       </c>
       <c r="Q23">
-        <v>2.168699242926493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7214863756529795</v>
+      </c>
+      <c r="R23">
+        <v>1.591507245337624</v>
+      </c>
+      <c r="S23">
+        <v>2.042440962386053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.868140667342544</v>
+        <v>1.840892146798268</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1309273672763238</v>
+        <v>0.120943614016146</v>
       </c>
       <c r="E24">
-        <v>0.2052780883730563</v>
+        <v>0.1930734035334858</v>
       </c>
       <c r="F24">
-        <v>0.6733707207534678</v>
+        <v>0.6647908017531989</v>
       </c>
       <c r="G24">
-        <v>0.5760796956526377</v>
+        <v>0.5793456687386396</v>
       </c>
       <c r="H24">
-        <v>1.35483075383025E-05</v>
+        <v>2.462664556057703E-06</v>
       </c>
       <c r="I24">
-        <v>0.009331025099688084</v>
+        <v>0.006784451997134511</v>
       </c>
       <c r="J24">
-        <v>0.3576158615986884</v>
+        <v>0.3811696439662029</v>
       </c>
       <c r="K24">
-        <v>0.2905766133774779</v>
+        <v>0.2636935812376739</v>
       </c>
       <c r="L24">
-        <v>0.3620046648496071</v>
+        <v>0.1156898823604028</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08390366646063896</v>
       </c>
       <c r="N24">
-        <v>0.8610277296602931</v>
+        <v>0.3460607417849744</v>
       </c>
       <c r="O24">
-        <v>0.6269953793836507</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.498471480049375</v>
+        <v>0.8700545655815404</v>
       </c>
       <c r="Q24">
-        <v>1.92143360744214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6275491447320718</v>
+      </c>
+      <c r="R24">
+        <v>1.487980096064987</v>
+      </c>
+      <c r="S24">
+        <v>1.901595997029148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.543732593373335</v>
+        <v>1.528659887904496</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1303053241155006</v>
+        <v>0.1206051839115618</v>
       </c>
       <c r="E25">
-        <v>0.1925771108714116</v>
+        <v>0.1799019168000164</v>
       </c>
       <c r="F25">
-        <v>0.6036856828360158</v>
+        <v>0.5996456802168595</v>
       </c>
       <c r="G25">
-        <v>0.4884388782757725</v>
+        <v>0.4824288637168195</v>
       </c>
       <c r="H25">
-        <v>0.0005996301573343299</v>
+        <v>0.0003287895022369147</v>
       </c>
       <c r="I25">
-        <v>0.01232935728434548</v>
+        <v>0.008901197956507012</v>
       </c>
       <c r="J25">
-        <v>0.3235802387331859</v>
+        <v>0.36016262514066</v>
       </c>
       <c r="K25">
-        <v>0.3130186694961701</v>
+        <v>0.2835294544851366</v>
       </c>
       <c r="L25">
-        <v>0.3277254935810063</v>
+        <v>0.1217719347646469</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09206916094245798</v>
       </c>
       <c r="N25">
-        <v>0.7100831974696575</v>
+        <v>0.3100103933742631</v>
       </c>
       <c r="O25">
-        <v>0.5173073477799193</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.421267568990132</v>
+        <v>0.7127219935903497</v>
       </c>
       <c r="Q25">
-        <v>1.663864143176397</v>
+        <v>0.5180293993597758</v>
+      </c>
+      <c r="R25">
+        <v>1.394297999022982</v>
+      </c>
+      <c r="S25">
+        <v>1.659646565145181</v>
       </c>
     </row>
   </sheetData>
